--- a/funcionalidades.xlsx
+++ b/funcionalidades.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1061" uniqueCount="314">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1087" uniqueCount="322">
   <si>
     <t>Profissionais</t>
   </si>
@@ -174,12 +174,6 @@
     <t>Download do CV</t>
   </si>
   <si>
-    <t>Salvar visualização</t>
-  </si>
-  <si>
-    <t>Sinônimos</t>
-  </si>
-  <si>
     <t>Sugestões de Buscas</t>
   </si>
   <si>
@@ -621,9 +615,6 @@
     <t>Conheça-nos</t>
   </si>
   <si>
-    <t>Buscas passadas gratuitas</t>
-  </si>
-  <si>
     <t>Buscas passadas pagas</t>
   </si>
   <si>
@@ -958,6 +949,39 @@
   </si>
   <si>
     <t>Notificar alteraçao do cv por telegram</t>
+  </si>
+  <si>
+    <t>Salvar aderencia entre cv e pesquisa</t>
+  </si>
+  <si>
+    <t>Experimente a busca premium</t>
+  </si>
+  <si>
+    <t>Exibir Sinônimos na busca</t>
+  </si>
+  <si>
+    <t>Salvar visualização do cv</t>
+  </si>
+  <si>
+    <t>Lista de pesquisas já feitas</t>
+  </si>
+  <si>
+    <t>Renderização condicional dos componentes</t>
+  </si>
+  <si>
+    <t>Trocar senha</t>
+  </si>
+  <si>
+    <t>Sair do sistema</t>
+  </si>
+  <si>
+    <t>Quanto Paga (Invisível)</t>
+  </si>
+  <si>
+    <t>Tarifas e Recompensas (Invisível)</t>
+  </si>
+  <si>
+    <t>Link para gráficos (Invisível)</t>
   </si>
 </sst>
 </file>
@@ -1306,34 +1330,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E255"/>
+  <dimension ref="A1:E263"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="B57" sqref="B57:E57"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="32.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="37.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.44140625" bestFit="1" customWidth="1"/>
     <col min="3" max="5" width="20.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>180</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1344,18 +1368,18 @@
         <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="B3" t="s">
         <v>23</v>
@@ -1364,7 +1388,7 @@
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1375,30 +1399,30 @@
         <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="B5" t="s">
         <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D5">
         <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1409,13 +1433,13 @@
         <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D6">
         <v>1</v>
       </c>
       <c r="E6" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1426,47 +1450,47 @@
         <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D7">
         <v>1</v>
       </c>
       <c r="E7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D8">
         <v>1</v>
       </c>
       <c r="E8" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D9">
         <v>1</v>
       </c>
       <c r="E9" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1477,13 +1501,13 @@
         <v>23</v>
       </c>
       <c r="C10" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D10">
         <v>1</v>
       </c>
       <c r="E10" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1494,30 +1518,30 @@
         <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D11">
         <v>1</v>
       </c>
       <c r="E11" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="13.8" customHeight="1">
       <c r="A12" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C12" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D12">
         <v>1</v>
       </c>
       <c r="E12" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1528,13 +1552,13 @@
         <v>23</v>
       </c>
       <c r="C13" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D13">
         <v>1</v>
       </c>
       <c r="E13" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1545,4003 +1569,4015 @@
         <v>23</v>
       </c>
       <c r="C14" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D14">
         <v>1</v>
       </c>
       <c r="E14" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C15" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D15">
         <v>1</v>
       </c>
       <c r="E15" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C16" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D16">
         <v>1</v>
       </c>
       <c r="E16" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C17" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D17">
         <v>1</v>
       </c>
       <c r="E17" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C18" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D18">
         <v>1</v>
       </c>
       <c r="E18" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C19" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D19">
         <v>1</v>
       </c>
       <c r="E19" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="13.8" customHeight="1">
       <c r="A20" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C20" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D20">
         <v>1</v>
       </c>
       <c r="E20" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="13.8" customHeight="1">
       <c r="A21" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C21" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D21">
         <v>1</v>
       </c>
       <c r="E21" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="13.8" customHeight="1">
       <c r="A22" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C22" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D22">
         <v>1</v>
       </c>
       <c r="E22" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="13.8" customHeight="1">
       <c r="A23" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C23" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D23">
         <v>1</v>
       </c>
       <c r="E23" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="13.8" customHeight="1">
       <c r="A24" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C24" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D24">
         <v>1</v>
       </c>
       <c r="E24" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="B25" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C25" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D25">
         <v>2</v>
       </c>
       <c r="E25" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="B26" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C26" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D26">
         <v>2</v>
       </c>
       <c r="E26" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="B27" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C27" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D27">
         <v>2</v>
       </c>
       <c r="E27" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="B28" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C28" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="D28">
         <v>2</v>
       </c>
       <c r="E28" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="B29" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C29" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="D29">
         <v>2</v>
       </c>
       <c r="E29" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="B30" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C30" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="D30">
         <v>2</v>
       </c>
       <c r="E30" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="B31" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C31" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="D31">
         <v>2</v>
       </c>
       <c r="E31" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="B32" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C32" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="D32">
         <v>2</v>
       </c>
       <c r="E32" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" t="s">
-        <v>298</v>
+        <v>317</v>
       </c>
       <c r="B33" t="s">
-        <v>0</v>
+        <v>267</v>
       </c>
       <c r="C33" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="D33">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E33" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" t="s">
-        <v>309</v>
+        <v>318</v>
       </c>
       <c r="B34" t="s">
-        <v>0</v>
+        <v>267</v>
       </c>
       <c r="C34" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="D34">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E34" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" ht="13.8" customHeight="1">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
       <c r="A35" t="s">
-        <v>281</v>
+        <v>307</v>
       </c>
       <c r="B35" t="s">
-        <v>0</v>
+        <v>267</v>
       </c>
       <c r="C35" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="D35">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E35" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" ht="13.8" customHeight="1">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
       <c r="A36" t="s">
-        <v>3</v>
+        <v>295</v>
       </c>
       <c r="B36" t="s">
         <v>0</v>
       </c>
       <c r="C36" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D36">
         <v>3</v>
       </c>
       <c r="E36" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" t="s">
-        <v>284</v>
+        <v>306</v>
       </c>
       <c r="B37" t="s">
         <v>0</v>
       </c>
       <c r="C37" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D37">
         <v>3</v>
       </c>
       <c r="E37" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="13.8" customHeight="1">
       <c r="A38" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="B38" t="s">
         <v>0</v>
       </c>
       <c r="C38" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D38">
         <v>3</v>
       </c>
       <c r="E38" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="13.8" customHeight="1">
       <c r="A39" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B39" t="s">
         <v>0</v>
       </c>
       <c r="C39" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D39">
         <v>3</v>
       </c>
       <c r="E39" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" t="s">
-        <v>16</v>
+        <v>281</v>
       </c>
       <c r="B40" t="s">
         <v>0</v>
       </c>
       <c r="C40" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D40">
         <v>3</v>
       </c>
       <c r="E40" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" t="s">
-        <v>17</v>
+        <v>272</v>
       </c>
       <c r="B41" t="s">
         <v>0</v>
       </c>
       <c r="C41" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D41">
         <v>3</v>
       </c>
       <c r="E41" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" t="s">
-        <v>282</v>
+        <v>4</v>
       </c>
       <c r="B42" t="s">
         <v>0</v>
       </c>
       <c r="C42" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D42">
         <v>3</v>
       </c>
       <c r="E42" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" t="s">
-        <v>177</v>
+        <v>16</v>
       </c>
       <c r="B43" t="s">
         <v>0</v>
       </c>
       <c r="C43" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D43">
         <v>3</v>
       </c>
       <c r="E43" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" t="s">
-        <v>244</v>
+        <v>17</v>
       </c>
       <c r="B44" t="s">
         <v>0</v>
       </c>
       <c r="C44" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D44">
         <v>3</v>
       </c>
       <c r="E44" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" t="s">
-        <v>288</v>
+        <v>279</v>
       </c>
       <c r="B45" t="s">
         <v>0</v>
       </c>
       <c r="C45" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D45">
         <v>3</v>
       </c>
       <c r="E45" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="46" spans="1:5">
       <c r="A46" t="s">
-        <v>285</v>
+        <v>175</v>
       </c>
       <c r="B46" t="s">
         <v>0</v>
       </c>
       <c r="C46" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D46">
         <v>3</v>
       </c>
       <c r="E46" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="47" spans="1:5">
       <c r="A47" t="s">
-        <v>287</v>
+        <v>241</v>
       </c>
       <c r="B47" t="s">
         <v>0</v>
       </c>
       <c r="C47" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D47">
         <v>3</v>
       </c>
       <c r="E47" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="48" spans="1:5">
       <c r="A48" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B48" t="s">
         <v>0</v>
       </c>
       <c r="C48" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D48">
         <v>3</v>
       </c>
       <c r="E48" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="49" spans="1:5">
       <c r="A49" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="B49" t="s">
         <v>0</v>
       </c>
       <c r="C49" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D49">
         <v>3</v>
       </c>
       <c r="E49" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="50" spans="1:5">
       <c r="A50" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="B50" t="s">
         <v>0</v>
       </c>
       <c r="C50" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D50">
         <v>3</v>
       </c>
       <c r="E50" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="51" spans="1:5">
       <c r="A51" t="s">
-        <v>294</v>
+        <v>283</v>
       </c>
       <c r="B51" t="s">
         <v>0</v>
       </c>
       <c r="C51" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D51">
         <v>3</v>
       </c>
       <c r="E51" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="52" spans="1:5">
       <c r="A52" t="s">
-        <v>312</v>
-      </c>
-      <c r="B52" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="B52" t="s">
         <v>0</v>
       </c>
-      <c r="C52" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="D52" s="2">
-        <v>3</v>
-      </c>
-      <c r="E52" s="2" t="s">
-        <v>184</v>
+      <c r="C52" t="s">
+        <v>181</v>
+      </c>
+      <c r="D52">
+        <v>3</v>
+      </c>
+      <c r="E52" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="53" spans="1:5">
       <c r="A53" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="B53" t="s">
         <v>0</v>
       </c>
       <c r="C53" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D53">
         <v>3</v>
       </c>
       <c r="E53" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" ht="13.8" customHeight="1">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
       <c r="A54" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="B54" t="s">
         <v>0</v>
       </c>
       <c r="C54" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D54">
         <v>3</v>
       </c>
       <c r="E54" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" ht="13.8" customHeight="1">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
       <c r="A55" t="s">
-        <v>307</v>
-      </c>
-      <c r="B55" t="s">
+        <v>309</v>
+      </c>
+      <c r="B55" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C55" t="s">
-        <v>183</v>
-      </c>
-      <c r="D55">
-        <v>3</v>
-      </c>
-      <c r="E55" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" ht="13.8" customHeight="1">
+      <c r="C55" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="D55" s="2">
+        <v>3</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
       <c r="A56" t="s">
-        <v>311</v>
+        <v>292</v>
       </c>
       <c r="B56" t="s">
         <v>0</v>
       </c>
       <c r="C56" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D56">
         <v>3</v>
       </c>
       <c r="E56" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="57" spans="1:5" ht="13.8" customHeight="1">
       <c r="A57" t="s">
-        <v>313</v>
+        <v>293</v>
       </c>
       <c r="B57" t="s">
         <v>0</v>
       </c>
       <c r="C57" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D57">
         <v>3</v>
       </c>
       <c r="E57" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="13.8" customHeight="1">
       <c r="A58" t="s">
+        <v>304</v>
+      </c>
+      <c r="B58" t="s">
+        <v>0</v>
+      </c>
+      <c r="C58" t="s">
+        <v>181</v>
+      </c>
+      <c r="D58">
+        <v>3</v>
+      </c>
+      <c r="E58" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" ht="13.8" customHeight="1">
+      <c r="A59" t="s">
         <v>308</v>
       </c>
-      <c r="B58" t="s">
-        <v>1</v>
-      </c>
-      <c r="C58" t="s">
-        <v>194</v>
-      </c>
-      <c r="D58">
-        <v>4</v>
-      </c>
-      <c r="E58" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
-      <c r="A59" t="s">
-        <v>201</v>
-      </c>
       <c r="B59" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C59" t="s">
-        <v>203</v>
+        <v>181</v>
       </c>
       <c r="D59">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E59" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" ht="13.8" customHeight="1">
       <c r="A60" t="s">
-        <v>51</v>
+        <v>310</v>
       </c>
       <c r="B60" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C60" t="s">
-        <v>203</v>
+        <v>181</v>
       </c>
       <c r="D60">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E60" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="61" spans="1:5">
       <c r="A61" t="s">
-        <v>52</v>
+        <v>305</v>
       </c>
       <c r="B61" t="s">
         <v>1</v>
       </c>
       <c r="C61" t="s">
-        <v>203</v>
+        <v>192</v>
       </c>
       <c r="D61">
         <v>4</v>
       </c>
       <c r="E61" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="62" spans="1:5">
       <c r="A62" t="s">
-        <v>53</v>
+        <v>315</v>
       </c>
       <c r="B62" t="s">
         <v>1</v>
       </c>
       <c r="C62" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D62">
         <v>4</v>
       </c>
       <c r="E62" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="63" spans="1:5">
       <c r="A63" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B63" t="s">
         <v>1</v>
       </c>
       <c r="C63" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D63">
         <v>4</v>
       </c>
       <c r="E63" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="64" spans="1:5">
       <c r="A64" t="s">
-        <v>172</v>
+        <v>314</v>
       </c>
       <c r="B64" t="s">
         <v>1</v>
       </c>
       <c r="C64" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D64">
         <v>4</v>
       </c>
       <c r="E64" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="65" spans="1:5">
       <c r="A65" t="s">
-        <v>75</v>
+        <v>313</v>
       </c>
       <c r="B65" t="s">
         <v>1</v>
       </c>
       <c r="C65" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D65">
         <v>4</v>
       </c>
       <c r="E65" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="66" spans="1:5">
       <c r="A66" t="s">
-        <v>175</v>
+        <v>52</v>
       </c>
       <c r="B66" t="s">
         <v>1</v>
       </c>
       <c r="C66" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D66">
         <v>4</v>
       </c>
       <c r="E66" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="67" spans="1:5">
       <c r="A67" t="s">
-        <v>107</v>
+        <v>170</v>
       </c>
       <c r="B67" t="s">
         <v>1</v>
       </c>
       <c r="C67" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D67">
         <v>4</v>
       </c>
       <c r="E67" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="68" spans="1:5">
       <c r="A68" t="s">
-        <v>174</v>
+        <v>73</v>
       </c>
       <c r="B68" t="s">
         <v>1</v>
       </c>
       <c r="C68" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D68">
         <v>4</v>
       </c>
       <c r="E68" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="69" spans="1:5">
       <c r="A69" t="s">
-        <v>245</v>
+        <v>173</v>
       </c>
       <c r="B69" t="s">
         <v>1</v>
       </c>
       <c r="C69" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D69">
         <v>4</v>
       </c>
       <c r="E69" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="70" spans="1:5">
       <c r="A70" t="s">
-        <v>41</v>
+        <v>105</v>
       </c>
       <c r="B70" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C70" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="D70">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E70" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="71" spans="1:5">
       <c r="A71" t="s">
-        <v>42</v>
+        <v>242</v>
       </c>
       <c r="B71" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C71" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="D71">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E71" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="72" spans="1:5">
       <c r="A72" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B72" t="s">
         <v>2</v>
       </c>
       <c r="C72" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D72">
         <v>5</v>
       </c>
       <c r="E72" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="73" spans="1:5">
       <c r="A73" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="B73" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C73" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D73">
         <v>5</v>
       </c>
       <c r="E73" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="74" spans="1:5">
       <c r="A74" t="s">
-        <v>163</v>
+        <v>43</v>
       </c>
       <c r="B74" t="s">
         <v>2</v>
       </c>
       <c r="C74" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D74">
         <v>5</v>
       </c>
       <c r="E74" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="75" spans="1:5">
       <c r="A75" t="s">
-        <v>297</v>
+        <v>32</v>
       </c>
       <c r="B75" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C75" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D75">
         <v>5</v>
       </c>
       <c r="E75" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="76" spans="1:5">
       <c r="A76" t="s">
-        <v>206</v>
+        <v>161</v>
       </c>
       <c r="B76" t="s">
-        <v>191</v>
+        <v>2</v>
       </c>
       <c r="C76" t="s">
-        <v>213</v>
+        <v>192</v>
       </c>
       <c r="D76">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E76" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="77" spans="1:5">
       <c r="A77" t="s">
-        <v>76</v>
+        <v>294</v>
       </c>
       <c r="B77" t="s">
-        <v>191</v>
+        <v>2</v>
       </c>
       <c r="C77" t="s">
-        <v>213</v>
+        <v>192</v>
       </c>
       <c r="D77">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E77" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="78" spans="1:5">
       <c r="A78" t="s">
+        <v>203</v>
+      </c>
+      <c r="B78" t="s">
+        <v>189</v>
+      </c>
+      <c r="C78" t="s">
         <v>210</v>
       </c>
-      <c r="B78" t="s">
-        <v>191</v>
-      </c>
-      <c r="C78" t="s">
-        <v>213</v>
-      </c>
       <c r="D78">
         <v>1</v>
       </c>
       <c r="E78" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="79" spans="1:5">
       <c r="A79" t="s">
-        <v>211</v>
+        <v>74</v>
       </c>
       <c r="B79" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C79" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="D79">
         <v>1</v>
       </c>
       <c r="E79" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="80" spans="1:5">
       <c r="A80" t="s">
-        <v>110</v>
+        <v>207</v>
       </c>
       <c r="B80" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C80" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="D80">
         <v>1</v>
       </c>
       <c r="E80" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="81" spans="1:5">
       <c r="A81" t="s">
-        <v>111</v>
+        <v>208</v>
       </c>
       <c r="B81" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C81" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="D81">
         <v>1</v>
       </c>
       <c r="E81" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="82" spans="1:5">
       <c r="A82" t="s">
-        <v>217</v>
+        <v>108</v>
       </c>
       <c r="B82" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C82" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="D82">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E82" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="83" spans="1:5">
       <c r="A83" t="s">
-        <v>219</v>
+        <v>109</v>
       </c>
       <c r="B83" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C83" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="D83">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E83" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="84" spans="1:5">
       <c r="A84" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="B84" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C84" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D84">
         <v>2</v>
       </c>
       <c r="E84" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="85" spans="1:5">
       <c r="A85" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="B85" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C85" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D85">
         <v>2</v>
       </c>
       <c r="E85" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="86" spans="1:5">
       <c r="A86" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="B86" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C86" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D86">
         <v>2</v>
       </c>
       <c r="E86" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="87" spans="1:5">
       <c r="A87" t="s">
-        <v>5</v>
+        <v>218</v>
       </c>
       <c r="B87" t="s">
-        <v>0</v>
+        <v>188</v>
       </c>
       <c r="C87" t="s">
-        <v>186</v>
+        <v>215</v>
       </c>
       <c r="D87">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E87" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="88" spans="1:5">
       <c r="A88" t="s">
-        <v>6</v>
+        <v>219</v>
       </c>
       <c r="B88" t="s">
-        <v>0</v>
+        <v>188</v>
       </c>
       <c r="C88" t="s">
-        <v>186</v>
+        <v>215</v>
       </c>
       <c r="D88">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E88" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="89" spans="1:5">
       <c r="A89" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B89" t="s">
         <v>0</v>
       </c>
       <c r="C89" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D89">
         <v>3</v>
       </c>
       <c r="E89" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="90" spans="1:5">
       <c r="A90" t="s">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="B90" t="s">
         <v>0</v>
       </c>
       <c r="C90" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D90">
         <v>3</v>
       </c>
       <c r="E90" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="91" spans="1:5">
       <c r="A91" t="s">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="B91" t="s">
         <v>0</v>
       </c>
       <c r="C91" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D91">
         <v>3</v>
       </c>
       <c r="E91" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="92" spans="1:5">
       <c r="A92" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B92" t="s">
         <v>0</v>
       </c>
       <c r="C92" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D92">
         <v>3</v>
       </c>
       <c r="E92" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="93" spans="1:5">
       <c r="A93" t="s">
-        <v>205</v>
+        <v>30</v>
       </c>
       <c r="B93" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C93" t="s">
-        <v>203</v>
+        <v>184</v>
       </c>
       <c r="D93">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E93" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="94" spans="1:5">
       <c r="A94" t="s">
-        <v>158</v>
+        <v>31</v>
       </c>
       <c r="B94" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C94" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="D94">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E94" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="95" spans="1:5">
       <c r="A95" t="s">
-        <v>162</v>
+        <v>202</v>
       </c>
       <c r="B95" t="s">
-        <v>190</v>
+        <v>1</v>
       </c>
       <c r="C95" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="D95">
         <v>4</v>
       </c>
       <c r="E95" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="96" spans="1:5">
       <c r="A96" t="s">
-        <v>25</v>
+        <v>156</v>
       </c>
       <c r="B96" t="s">
-        <v>190</v>
+        <v>2</v>
       </c>
       <c r="C96" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="D96">
         <v>4</v>
       </c>
       <c r="E96" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="97" spans="1:5">
       <c r="A97" t="s">
-        <v>299</v>
+        <v>160</v>
       </c>
       <c r="B97" t="s">
-        <v>0</v>
+        <v>188</v>
       </c>
       <c r="C97" t="s">
+        <v>193</v>
+      </c>
+      <c r="D97">
+        <v>4</v>
+      </c>
+      <c r="E97" t="s">
         <v>183</v>
-      </c>
-      <c r="E97" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="98" spans="1:5">
       <c r="A98" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="B98" t="s">
-        <v>0</v>
+        <v>188</v>
       </c>
       <c r="C98" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="D98">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E98" t="s">
-        <v>112</v>
+        <v>183</v>
       </c>
     </row>
     <row r="99" spans="1:5">
       <c r="A99" t="s">
-        <v>77</v>
+        <v>296</v>
       </c>
       <c r="B99" t="s">
-        <v>190</v>
+        <v>0</v>
       </c>
       <c r="C99" t="s">
-        <v>214</v>
-      </c>
-      <c r="D99">
-        <v>1</v>
+        <v>181</v>
       </c>
       <c r="E99" t="s">
-        <v>112</v>
+        <v>183</v>
       </c>
     </row>
     <row r="100" spans="1:5">
       <c r="A100" t="s">
-        <v>78</v>
+        <v>34</v>
       </c>
       <c r="B100" t="s">
-        <v>190</v>
+        <v>0</v>
       </c>
       <c r="C100" t="s">
-        <v>214</v>
+        <v>184</v>
       </c>
       <c r="D100">
         <v>1</v>
       </c>
       <c r="E100" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="101" spans="1:5">
       <c r="A101" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B101" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C101" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="D101">
         <v>1</v>
       </c>
       <c r="E101" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="102" spans="1:5">
       <c r="A102" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B102" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C102" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="D102">
         <v>1</v>
       </c>
       <c r="E102" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="103" spans="1:5">
       <c r="A103" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B103" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C103" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="D103">
         <v>1</v>
       </c>
       <c r="E103" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="104" spans="1:5">
       <c r="A104" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B104" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C104" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="D104">
         <v>1</v>
       </c>
       <c r="E104" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="105" spans="1:5">
       <c r="A105" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B105" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C105" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="D105">
         <v>1</v>
       </c>
       <c r="E105" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="106" spans="1:5">
       <c r="A106" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B106" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C106" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="D106">
         <v>1</v>
       </c>
       <c r="E106" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="107" spans="1:5">
       <c r="A107" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="B107" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C107" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="D107">
         <v>1</v>
       </c>
       <c r="E107" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="108" spans="1:5">
       <c r="A108" t="s">
-        <v>165</v>
+        <v>82</v>
       </c>
       <c r="B108" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C108" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="D108">
         <v>1</v>
       </c>
       <c r="E108" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="109" spans="1:5">
       <c r="A109" t="s">
-        <v>166</v>
+        <v>85</v>
       </c>
       <c r="B109" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C109" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="D109">
         <v>1</v>
       </c>
       <c r="E109" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="110" spans="1:5">
       <c r="A110" t="s">
-        <v>10</v>
+        <v>163</v>
       </c>
       <c r="B110" t="s">
-        <v>0</v>
+        <v>188</v>
       </c>
       <c r="C110" t="s">
-        <v>189</v>
+        <v>211</v>
       </c>
       <c r="D110">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E110" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="111" spans="1:5">
       <c r="A111" t="s">
-        <v>11</v>
+        <v>164</v>
       </c>
       <c r="B111" t="s">
-        <v>0</v>
+        <v>188</v>
       </c>
       <c r="C111" t="s">
-        <v>189</v>
+        <v>211</v>
       </c>
       <c r="D111">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E111" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="112" spans="1:5">
       <c r="A112" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B112" t="s">
         <v>0</v>
       </c>
       <c r="C112" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D112">
         <v>2</v>
       </c>
       <c r="E112" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="113" spans="1:5">
       <c r="A113" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B113" t="s">
         <v>0</v>
       </c>
       <c r="C113" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D113">
         <v>2</v>
       </c>
       <c r="E113" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="114" spans="1:5">
       <c r="A114" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B114" t="s">
         <v>0</v>
       </c>
       <c r="C114" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D114">
         <v>2</v>
       </c>
       <c r="E114" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="115" spans="1:5">
       <c r="A115" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B115" t="s">
         <v>0</v>
       </c>
       <c r="C115" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D115">
         <v>2</v>
       </c>
       <c r="E115" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="116" spans="1:5">
       <c r="A116" t="s">
-        <v>212</v>
+        <v>14</v>
       </c>
       <c r="B116" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C116" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="D116">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E116" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="117" spans="1:5">
       <c r="A117" t="s">
-        <v>236</v>
+        <v>15</v>
       </c>
       <c r="B117" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C117" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="D117">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E117" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="118" spans="1:5">
       <c r="A118" t="s">
-        <v>40</v>
+        <v>209</v>
       </c>
       <c r="B118" t="s">
-        <v>191</v>
+        <v>2</v>
       </c>
       <c r="C118" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="D118">
         <v>3</v>
       </c>
       <c r="E118" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="119" spans="1:5">
       <c r="A119" t="s">
-        <v>26</v>
+        <v>233</v>
       </c>
       <c r="B119" t="s">
-        <v>190</v>
+        <v>2</v>
       </c>
       <c r="C119" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="D119">
         <v>3</v>
       </c>
       <c r="E119" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="120" spans="1:5">
       <c r="A120" t="s">
-        <v>145</v>
+        <v>40</v>
       </c>
       <c r="B120" t="s">
-        <v>2</v>
+        <v>189</v>
       </c>
       <c r="C120" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="D120">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E120" t="s">
-        <v>187</v>
+        <v>110</v>
       </c>
     </row>
     <row r="121" spans="1:5">
       <c r="A121" t="s">
-        <v>120</v>
+        <v>26</v>
       </c>
       <c r="B121" t="s">
-        <v>2</v>
+        <v>188</v>
       </c>
       <c r="C121" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D121">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E121" t="s">
-        <v>187</v>
+        <v>110</v>
       </c>
     </row>
     <row r="122" spans="1:5">
       <c r="A122" t="s">
-        <v>121</v>
+        <v>143</v>
       </c>
       <c r="B122" t="s">
         <v>2</v>
       </c>
       <c r="C122" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D122">
         <v>1</v>
       </c>
       <c r="E122" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="123" spans="1:5">
       <c r="A123" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B123" t="s">
         <v>2</v>
       </c>
       <c r="C123" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D123">
         <v>1</v>
       </c>
       <c r="E123" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="124" spans="1:5">
       <c r="A124" t="s">
-        <v>150</v>
+        <v>119</v>
       </c>
       <c r="B124" t="s">
         <v>2</v>
       </c>
       <c r="C124" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D124">
         <v>1</v>
       </c>
       <c r="E124" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="125" spans="1:5">
       <c r="A125" t="s">
-        <v>151</v>
+        <v>120</v>
       </c>
       <c r="B125" t="s">
         <v>2</v>
       </c>
       <c r="C125" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D125">
         <v>1</v>
       </c>
       <c r="E125" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="126" spans="1:5">
       <c r="A126" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="B126" t="s">
         <v>2</v>
       </c>
       <c r="C126" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D126">
         <v>1</v>
       </c>
       <c r="E126" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="127" spans="1:5">
       <c r="A127" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="B127" t="s">
         <v>2</v>
       </c>
       <c r="C127" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D127">
         <v>1</v>
       </c>
       <c r="E127" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="128" spans="1:5">
       <c r="A128" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="B128" t="s">
         <v>2</v>
       </c>
       <c r="C128" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D128">
         <v>1</v>
       </c>
       <c r="E128" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="129" spans="1:5">
       <c r="A129" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="B129" t="s">
         <v>2</v>
       </c>
       <c r="C129" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D129">
         <v>1</v>
       </c>
       <c r="E129" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="130" spans="1:5">
       <c r="A130" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="B130" t="s">
         <v>2</v>
       </c>
       <c r="C130" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D130">
         <v>1</v>
       </c>
       <c r="E130" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="131" spans="1:5">
       <c r="A131" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="B131" t="s">
         <v>2</v>
       </c>
       <c r="C131" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D131">
         <v>1</v>
       </c>
       <c r="E131" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="132" spans="1:5">
       <c r="A132" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="B132" t="s">
         <v>2</v>
       </c>
       <c r="C132" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D132">
         <v>1</v>
       </c>
       <c r="E132" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="133" spans="1:5">
       <c r="A133" t="s">
-        <v>223</v>
+        <v>155</v>
       </c>
       <c r="B133" t="s">
         <v>2</v>
       </c>
       <c r="C133" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D133">
         <v>1</v>
       </c>
       <c r="E133" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="134" spans="1:5">
       <c r="A134" t="s">
-        <v>224</v>
+        <v>158</v>
       </c>
       <c r="B134" t="s">
         <v>2</v>
       </c>
       <c r="C134" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D134">
         <v>1</v>
       </c>
       <c r="E134" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="135" spans="1:5">
       <c r="A135" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="B135" t="s">
         <v>2</v>
       </c>
       <c r="C135" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D135">
         <v>1</v>
       </c>
       <c r="E135" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="136" spans="1:5">
       <c r="A136" t="s">
-        <v>118</v>
+        <v>221</v>
       </c>
       <c r="B136" t="s">
-        <v>190</v>
+        <v>2</v>
       </c>
       <c r="C136" t="s">
-        <v>209</v>
+        <v>192</v>
       </c>
       <c r="D136">
         <v>1</v>
       </c>
       <c r="E136" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="137" spans="1:5">
       <c r="A137" t="s">
-        <v>119</v>
+        <v>222</v>
       </c>
       <c r="B137" t="s">
-        <v>190</v>
+        <v>2</v>
       </c>
       <c r="C137" t="s">
-        <v>209</v>
+        <v>192</v>
       </c>
       <c r="D137">
         <v>1</v>
       </c>
       <c r="E137" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="138" spans="1:5">
       <c r="A138" t="s">
-        <v>149</v>
+        <v>116</v>
       </c>
       <c r="B138" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C138" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="D138">
         <v>1</v>
       </c>
       <c r="E138" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="139" spans="1:5">
       <c r="A139" t="s">
-        <v>159</v>
+        <v>117</v>
       </c>
       <c r="B139" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C139" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="D139">
         <v>1</v>
       </c>
       <c r="E139" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="140" spans="1:5">
       <c r="A140" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="B140" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C140" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="D140">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E140" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="141" spans="1:5">
       <c r="A141" t="s">
-        <v>138</v>
+        <v>157</v>
       </c>
       <c r="B141" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C141" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="D141">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E141" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="142" spans="1:5">
       <c r="A142" t="s">
-        <v>33</v>
+        <v>135</v>
       </c>
       <c r="B142" t="s">
-        <v>1</v>
+        <v>189</v>
       </c>
       <c r="C142" t="s">
-        <v>198</v>
+        <v>210</v>
       </c>
       <c r="D142">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E142" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="143" spans="1:5">
       <c r="A143" t="s">
-        <v>164</v>
+        <v>136</v>
       </c>
       <c r="B143" t="s">
-        <v>1</v>
+        <v>189</v>
       </c>
       <c r="C143" t="s">
-        <v>198</v>
+        <v>210</v>
       </c>
       <c r="D143">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E143" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="144" spans="1:5">
       <c r="A144" t="s">
-        <v>169</v>
+        <v>33</v>
       </c>
       <c r="B144" t="s">
         <v>1</v>
       </c>
       <c r="C144" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D144">
         <v>3</v>
       </c>
       <c r="E144" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="145" spans="1:5">
       <c r="A145" t="s">
-        <v>72</v>
+        <v>162</v>
       </c>
       <c r="B145" t="s">
         <v>1</v>
       </c>
       <c r="C145" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D145">
         <v>3</v>
       </c>
       <c r="E145" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="146" spans="1:5">
       <c r="A146" t="s">
-        <v>11</v>
+        <v>167</v>
       </c>
       <c r="B146" t="s">
         <v>1</v>
       </c>
       <c r="C146" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D146">
         <v>3</v>
       </c>
       <c r="E146" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="147" spans="1:5">
       <c r="A147" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="B147" t="s">
         <v>1</v>
       </c>
       <c r="C147" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D147">
         <v>3</v>
       </c>
       <c r="E147" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="148" spans="1:5">
       <c r="A148" t="s">
-        <v>56</v>
+        <v>11</v>
       </c>
       <c r="B148" t="s">
         <v>1</v>
       </c>
       <c r="C148" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D148">
         <v>3</v>
       </c>
       <c r="E148" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="149" spans="1:5">
       <c r="A149" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B149" t="s">
         <v>1</v>
       </c>
       <c r="C149" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D149">
         <v>3</v>
       </c>
       <c r="E149" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="150" spans="1:5">
       <c r="A150" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B150" t="s">
         <v>1</v>
       </c>
       <c r="C150" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D150">
         <v>3</v>
       </c>
       <c r="E150" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="151" spans="1:5">
       <c r="A151" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B151" t="s">
         <v>1</v>
       </c>
       <c r="C151" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D151">
         <v>3</v>
       </c>
       <c r="E151" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="152" spans="1:5">
       <c r="A152" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B152" t="s">
         <v>1</v>
       </c>
       <c r="C152" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D152">
         <v>3</v>
       </c>
       <c r="E152" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="153" spans="1:5">
       <c r="A153" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B153" t="s">
         <v>1</v>
       </c>
       <c r="C153" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D153">
         <v>3</v>
       </c>
       <c r="E153" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="154" spans="1:5">
       <c r="A154" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B154" t="s">
         <v>1</v>
       </c>
       <c r="C154" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D154">
         <v>3</v>
       </c>
       <c r="E154" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="155" spans="1:5">
       <c r="A155" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="B155" t="s">
         <v>1</v>
       </c>
       <c r="C155" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D155">
         <v>3</v>
       </c>
       <c r="E155" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="156" spans="1:5">
       <c r="A156" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="B156" t="s">
         <v>1</v>
       </c>
       <c r="C156" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D156">
         <v>3</v>
       </c>
       <c r="E156" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="157" spans="1:5">
       <c r="A157" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B157" t="s">
         <v>1</v>
       </c>
       <c r="C157" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D157">
         <v>3</v>
       </c>
       <c r="E157" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="158" spans="1:5">
       <c r="A158" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B158" t="s">
         <v>1</v>
       </c>
       <c r="C158" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D158">
         <v>3</v>
       </c>
       <c r="E158" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="159" spans="1:5">
       <c r="A159" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B159" t="s">
         <v>1</v>
       </c>
       <c r="C159" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D159">
         <v>3</v>
       </c>
       <c r="E159" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="160" spans="1:5">
       <c r="A160" t="s">
-        <v>230</v>
+        <v>65</v>
       </c>
       <c r="B160" t="s">
         <v>1</v>
       </c>
       <c r="C160" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D160">
         <v>3</v>
       </c>
       <c r="E160" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="161" spans="1:5">
       <c r="A161" t="s">
-        <v>231</v>
+        <v>66</v>
       </c>
       <c r="B161" t="s">
         <v>1</v>
       </c>
       <c r="C161" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D161">
         <v>3</v>
       </c>
       <c r="E161" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="162" spans="1:5">
       <c r="A162" t="s">
-        <v>133</v>
+        <v>227</v>
       </c>
       <c r="B162" t="s">
         <v>1</v>
       </c>
       <c r="C162" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D162">
         <v>3</v>
       </c>
       <c r="E162" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="163" spans="1:5">
       <c r="A163" t="s">
-        <v>134</v>
+        <v>228</v>
       </c>
       <c r="B163" t="s">
         <v>1</v>
       </c>
       <c r="C163" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D163">
         <v>3</v>
       </c>
       <c r="E163" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="164" spans="1:5">
       <c r="A164" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="B164" t="s">
         <v>1</v>
       </c>
       <c r="C164" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D164">
         <v>3</v>
       </c>
       <c r="E164" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="165" spans="1:5">
       <c r="A165" t="s">
-        <v>19</v>
+        <v>132</v>
       </c>
       <c r="B165" t="s">
-        <v>190</v>
+        <v>1</v>
       </c>
       <c r="C165" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="D165">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E165" t="s">
-        <v>117</v>
+        <v>185</v>
       </c>
     </row>
     <row r="166" spans="1:5">
       <c r="A166" t="s">
-        <v>18</v>
+        <v>133</v>
       </c>
       <c r="B166" t="s">
-        <v>190</v>
+        <v>1</v>
       </c>
       <c r="C166" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="D166">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E166" t="s">
-        <v>117</v>
+        <v>185</v>
       </c>
     </row>
     <row r="167" spans="1:5">
       <c r="A167" t="s">
-        <v>125</v>
+        <v>19</v>
       </c>
       <c r="B167" t="s">
-        <v>1</v>
+        <v>188</v>
       </c>
       <c r="C167" t="s">
-        <v>204</v>
+        <v>191</v>
       </c>
       <c r="D167">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E167" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="168" spans="1:5">
       <c r="A168" t="s">
-        <v>126</v>
+        <v>18</v>
       </c>
       <c r="B168" t="s">
-        <v>1</v>
+        <v>188</v>
       </c>
       <c r="C168" t="s">
-        <v>204</v>
+        <v>190</v>
       </c>
       <c r="D168">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E168" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="169" spans="1:5">
       <c r="A169" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="B169" t="s">
         <v>1</v>
       </c>
       <c r="C169" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="D169">
         <v>2</v>
       </c>
       <c r="E169" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="170" spans="1:5">
       <c r="A170" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="B170" t="s">
         <v>1</v>
       </c>
       <c r="C170" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="D170">
         <v>2</v>
       </c>
       <c r="E170" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="171" spans="1:5">
       <c r="A171" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B171" t="s">
         <v>1</v>
       </c>
       <c r="C171" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="D171">
         <v>2</v>
       </c>
       <c r="E171" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="172" spans="1:5">
       <c r="A172" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B172" t="s">
         <v>1</v>
       </c>
       <c r="C172" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="D172">
         <v>2</v>
       </c>
       <c r="E172" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="173" spans="1:5">
       <c r="A173" t="s">
-        <v>69</v>
+        <v>127</v>
       </c>
       <c r="B173" t="s">
         <v>1</v>
       </c>
       <c r="C173" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="D173">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E173" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="174" spans="1:5">
       <c r="A174" t="s">
-        <v>70</v>
+        <v>128</v>
       </c>
       <c r="B174" t="s">
         <v>1</v>
       </c>
       <c r="C174" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="D174">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E174" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="175" spans="1:5">
       <c r="A175" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B175" t="s">
         <v>1</v>
       </c>
       <c r="C175" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D175">
         <v>3</v>
       </c>
       <c r="E175" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="176" spans="1:5">
       <c r="A176" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="B176" t="s">
         <v>1</v>
       </c>
       <c r="C176" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D176">
         <v>3</v>
       </c>
       <c r="E176" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="177" spans="1:5">
       <c r="A177" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B177" t="s">
         <v>1</v>
       </c>
       <c r="C177" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D177">
         <v>3</v>
       </c>
       <c r="E177" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="178" spans="1:5">
       <c r="A178" t="s">
-        <v>171</v>
+        <v>71</v>
       </c>
       <c r="B178" t="s">
         <v>1</v>
       </c>
       <c r="C178" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D178">
         <v>3</v>
       </c>
       <c r="E178" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="179" spans="1:5">
       <c r="A179" t="s">
-        <v>140</v>
+        <v>72</v>
       </c>
       <c r="B179" t="s">
         <v>1</v>
       </c>
       <c r="C179" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D179">
         <v>3</v>
       </c>
       <c r="E179" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="180" spans="1:5">
       <c r="A180" t="s">
-        <v>142</v>
+        <v>169</v>
       </c>
       <c r="B180" t="s">
         <v>1</v>
       </c>
       <c r="C180" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D180">
         <v>3</v>
       </c>
       <c r="E180" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="181" spans="1:5">
       <c r="A181" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B181" t="s">
         <v>1</v>
       </c>
       <c r="C181" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D181">
         <v>3</v>
       </c>
       <c r="E181" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="182" spans="1:5">
       <c r="A182" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B182" t="s">
         <v>1</v>
       </c>
       <c r="C182" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D182">
         <v>3</v>
       </c>
       <c r="E182" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="183" spans="1:5">
       <c r="A183" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="B183" t="s">
         <v>1</v>
       </c>
       <c r="C183" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D183">
         <v>3</v>
       </c>
       <c r="E183" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="184" spans="1:5">
       <c r="A184" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="B184" t="s">
         <v>1</v>
       </c>
       <c r="C184" t="s">
-        <v>215</v>
+        <v>196</v>
       </c>
       <c r="D184">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E184" t="s">
-        <v>208</v>
+        <v>115</v>
       </c>
     </row>
     <row r="185" spans="1:5">
       <c r="A185" t="s">
-        <v>245</v>
+        <v>142</v>
       </c>
       <c r="B185" t="s">
         <v>1</v>
       </c>
       <c r="C185" t="s">
-        <v>215</v>
+        <v>196</v>
       </c>
       <c r="D185">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E185" t="s">
-        <v>208</v>
+        <v>115</v>
       </c>
     </row>
     <row r="186" spans="1:5">
       <c r="A186" t="s">
-        <v>239</v>
+        <v>134</v>
       </c>
       <c r="B186" t="s">
         <v>1</v>
       </c>
       <c r="C186" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="D186">
         <v>1</v>
       </c>
       <c r="E186" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
     <row r="187" spans="1:5">
       <c r="A187" t="s">
-        <v>202</v>
+        <v>242</v>
       </c>
       <c r="B187" t="s">
         <v>1</v>
       </c>
       <c r="C187" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="D187">
         <v>1</v>
       </c>
       <c r="E187" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
     <row r="188" spans="1:5">
       <c r="A188" t="s">
-        <v>161</v>
+        <v>236</v>
       </c>
       <c r="B188" t="s">
         <v>1</v>
       </c>
       <c r="C188" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="D188">
         <v>1</v>
       </c>
       <c r="E188" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
     <row r="189" spans="1:5">
       <c r="A189" t="s">
-        <v>8</v>
+        <v>199</v>
       </c>
       <c r="B189" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C189" t="s">
-        <v>188</v>
+        <v>212</v>
       </c>
       <c r="D189">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E189" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
     <row r="190" spans="1:5">
       <c r="A190" t="s">
-        <v>9</v>
+        <v>159</v>
       </c>
       <c r="B190" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C190" t="s">
-        <v>188</v>
+        <v>200</v>
       </c>
       <c r="D190">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E190" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
     <row r="191" spans="1:5">
       <c r="A191" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="B191" t="s">
         <v>0</v>
       </c>
       <c r="C191" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D191">
         <v>2</v>
       </c>
       <c r="E191" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
     <row r="192" spans="1:5">
       <c r="A192" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="B192" t="s">
         <v>0</v>
       </c>
       <c r="C192" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D192">
         <v>2</v>
       </c>
       <c r="E192" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
     <row r="193" spans="1:5">
       <c r="A193" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="B193" t="s">
         <v>0</v>
       </c>
       <c r="C193" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D193">
         <v>2</v>
       </c>
       <c r="E193" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
     <row r="194" spans="1:5">
       <c r="A194" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="B194" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C194" t="s">
-        <v>204</v>
+        <v>186</v>
       </c>
       <c r="D194">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E194" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
     <row r="195" spans="1:5">
       <c r="A195" t="s">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="B195" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C195" t="s">
-        <v>204</v>
+        <v>186</v>
       </c>
       <c r="D195">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E195" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
     <row r="196" spans="1:5">
       <c r="A196" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B196" t="s">
         <v>1</v>
       </c>
       <c r="C196" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="D196">
         <v>3</v>
       </c>
       <c r="E196" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
     <row r="197" spans="1:5">
       <c r="A197" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B197" t="s">
         <v>1</v>
       </c>
       <c r="C197" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="D197">
         <v>3</v>
       </c>
       <c r="E197" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
     <row r="198" spans="1:5">
       <c r="A198" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B198" t="s">
         <v>1</v>
       </c>
       <c r="C198" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="D198">
         <v>3</v>
       </c>
       <c r="E198" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
     <row r="199" spans="1:5">
       <c r="A199" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B199" t="s">
         <v>1</v>
       </c>
       <c r="C199" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="D199">
         <v>3</v>
       </c>
       <c r="E199" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
     <row r="200" spans="1:5">
       <c r="A200" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B200" t="s">
         <v>1</v>
       </c>
       <c r="C200" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="D200">
         <v>3</v>
       </c>
       <c r="E200" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
     <row r="201" spans="1:5">
       <c r="A201" t="s">
-        <v>240</v>
+        <v>49</v>
       </c>
       <c r="B201" t="s">
-        <v>190</v>
+        <v>1</v>
       </c>
       <c r="C201" t="s">
-        <v>214</v>
+        <v>201</v>
       </c>
       <c r="D201">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E201" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
     <row r="202" spans="1:5">
       <c r="A202" t="s">
-        <v>241</v>
+        <v>50</v>
       </c>
       <c r="B202" t="s">
-        <v>190</v>
+        <v>1</v>
       </c>
       <c r="C202" t="s">
-        <v>214</v>
+        <v>201</v>
       </c>
       <c r="D202">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E202" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
     <row r="203" spans="1:5">
       <c r="A203" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="B203" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C203" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="D203">
         <v>4</v>
       </c>
       <c r="E203" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
     <row r="204" spans="1:5">
       <c r="A204" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="B204" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C204" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="D204">
         <v>4</v>
       </c>
       <c r="E204" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
     <row r="205" spans="1:5">
       <c r="A205" t="s">
-        <v>132</v>
+        <v>239</v>
       </c>
       <c r="B205" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C205" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="D205">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E205" t="s">
-        <v>196</v>
+        <v>205</v>
       </c>
     </row>
     <row r="206" spans="1:5">
       <c r="A206" t="s">
-        <v>139</v>
+        <v>240</v>
       </c>
       <c r="B206" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C206" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="D206">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E206" t="s">
-        <v>196</v>
+        <v>205</v>
       </c>
     </row>
     <row r="207" spans="1:5">
       <c r="A207" t="s">
-        <v>99</v>
+        <v>130</v>
       </c>
       <c r="B207" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C207" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="D207">
         <v>1</v>
       </c>
       <c r="E207" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="208" spans="1:5">
       <c r="A208" t="s">
-        <v>100</v>
+        <v>137</v>
       </c>
       <c r="B208" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C208" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="D208">
         <v>1</v>
       </c>
       <c r="E208" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="209" spans="1:5">
       <c r="A209" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="B209" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C209" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="D209">
         <v>1</v>
       </c>
       <c r="E209" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="210" spans="1:5">
       <c r="A210" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="B210" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C210" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="D210">
         <v>1</v>
       </c>
       <c r="E210" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="211" spans="1:5">
       <c r="A211" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B211" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C211" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="D211">
         <v>1</v>
       </c>
       <c r="E211" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="212" spans="1:5">
       <c r="A212" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B212" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C212" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="D212">
         <v>1</v>
       </c>
       <c r="E212" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="213" spans="1:5">
       <c r="A213" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="B213" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C213" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="D213">
         <v>1</v>
       </c>
       <c r="E213" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="214" spans="1:5">
       <c r="A214" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="B214" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C214" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="D214">
         <v>1</v>
       </c>
       <c r="E214" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="215" spans="1:5">
       <c r="A215" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="B215" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C215" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="D215">
         <v>1</v>
       </c>
       <c r="E215" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="216" spans="1:5">
       <c r="A216" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="B216" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C216" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="D216">
         <v>1</v>
       </c>
       <c r="E216" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="217" spans="1:5">
       <c r="A217" t="s">
-        <v>147</v>
+        <v>114</v>
       </c>
       <c r="B217" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C217" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="D217">
         <v>1</v>
       </c>
       <c r="E217" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="218" spans="1:5">
       <c r="A218" t="s">
-        <v>148</v>
+        <v>99</v>
       </c>
       <c r="B218" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C218" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="D218">
         <v>1</v>
       </c>
       <c r="E218" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="219" spans="1:5">
       <c r="A219" t="s">
-        <v>170</v>
+        <v>145</v>
       </c>
       <c r="B219" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C219" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="D219">
         <v>1</v>
       </c>
       <c r="E219" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="220" spans="1:5">
       <c r="A220" t="s">
-        <v>39</v>
+        <v>146</v>
       </c>
       <c r="B220" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C220" t="s">
-        <v>199</v>
+        <v>213</v>
       </c>
       <c r="D220">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E220" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="221" spans="1:5">
       <c r="A221" t="s">
-        <v>146</v>
+        <v>168</v>
       </c>
       <c r="B221" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C221" t="s">
-        <v>199</v>
+        <v>213</v>
       </c>
       <c r="D221">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E221" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="222" spans="1:5">
       <c r="A222" t="s">
-        <v>124</v>
+        <v>39</v>
       </c>
       <c r="B222" t="s">
-        <v>2</v>
+        <v>189</v>
       </c>
       <c r="C222" t="s">
+        <v>197</v>
+      </c>
+      <c r="D222">
+        <v>2</v>
+      </c>
+      <c r="E222" t="s">
         <v>194</v>
-      </c>
-      <c r="D222">
-        <v>3</v>
-      </c>
-      <c r="E222" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="223" spans="1:5">
       <c r="A223" t="s">
-        <v>176</v>
+        <v>144</v>
       </c>
       <c r="B223" t="s">
-        <v>0</v>
+        <v>189</v>
       </c>
       <c r="C223" t="s">
-        <v>183</v>
+        <v>197</v>
       </c>
       <c r="D223">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E223" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="224" spans="1:5">
       <c r="A224" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B224" t="s">
-        <v>190</v>
+        <v>2</v>
       </c>
       <c r="C224" t="s">
-        <v>209</v>
+        <v>192</v>
       </c>
       <c r="D224">
         <v>3</v>
       </c>
       <c r="E224" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="225" spans="1:5">
       <c r="A225" t="s">
-        <v>131</v>
+        <v>174</v>
       </c>
       <c r="B225" t="s">
-        <v>191</v>
+        <v>0</v>
       </c>
       <c r="C225" t="s">
-        <v>216</v>
+        <v>181</v>
       </c>
       <c r="D225">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E225" t="s">
-        <v>207</v>
+        <v>194</v>
       </c>
     </row>
     <row r="226" spans="1:5">
       <c r="A226" t="s">
-        <v>86</v>
+        <v>121</v>
       </c>
       <c r="B226" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C226" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="D226">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E226" t="s">
-        <v>207</v>
+        <v>194</v>
       </c>
     </row>
     <row r="227" spans="1:5">
       <c r="A227" t="s">
-        <v>88</v>
+        <v>129</v>
       </c>
       <c r="B227" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C227" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D227">
         <v>1</v>
       </c>
       <c r="E227" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="228" spans="1:5">
       <c r="A228" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="B228" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C228" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="D228">
         <v>1</v>
       </c>
       <c r="E228" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="229" spans="1:5">
       <c r="A229" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B229" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C229" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="D229">
         <v>1</v>
       </c>
       <c r="E229" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="230" spans="1:5">
       <c r="A230" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B230" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C230" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="D230">
         <v>1</v>
       </c>
       <c r="E230" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="231" spans="1:5">
       <c r="A231" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B231" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C231" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="D231">
         <v>1</v>
       </c>
       <c r="E231" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="232" spans="1:5">
       <c r="A232" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B232" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C232" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="D232">
         <v>1</v>
       </c>
       <c r="E232" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="233" spans="1:5">
       <c r="A233" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B233" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C233" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="D233">
         <v>1</v>
       </c>
       <c r="E233" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="234" spans="1:5">
       <c r="A234" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B234" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C234" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="D234">
         <v>1</v>
       </c>
       <c r="E234" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="235" spans="1:5">
       <c r="A235" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B235" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C235" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="D235">
         <v>1</v>
       </c>
       <c r="E235" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="236" spans="1:5">
       <c r="A236" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B236" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C236" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="D236">
         <v>1</v>
       </c>
       <c r="E236" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="237" spans="1:5">
       <c r="A237" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B237" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C237" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="D237">
         <v>1</v>
       </c>
       <c r="E237" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="238" spans="1:5" ht="15" customHeight="1">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5">
       <c r="A238" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="B238" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C238" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="D238">
         <v>1</v>
       </c>
       <c r="E238" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="239" spans="1:5">
       <c r="A239" t="s">
-        <v>113</v>
+        <v>96</v>
       </c>
       <c r="B239" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C239" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="D239">
         <v>1</v>
       </c>
       <c r="E239" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="240" spans="1:5">
       <c r="A240" t="s">
-        <v>173</v>
+        <v>106</v>
       </c>
       <c r="B240" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C240" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="D240">
         <v>1</v>
       </c>
       <c r="E240" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="241" spans="1:5">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5" ht="15" customHeight="1">
       <c r="A241" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B241" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C241" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="D241">
         <v>1</v>
       </c>
       <c r="E241" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="242" spans="1:5">
       <c r="A242" t="s">
-        <v>115</v>
+        <v>171</v>
       </c>
       <c r="B242" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C242" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="D242">
         <v>1</v>
       </c>
       <c r="E242" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="243" spans="1:5" ht="13.8" customHeight="1">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5">
       <c r="A243" t="s">
-        <v>167</v>
+        <v>112</v>
       </c>
       <c r="B243" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C243" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="D243">
         <v>1</v>
       </c>
       <c r="E243" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="244" spans="1:5">
       <c r="A244" t="s">
-        <v>168</v>
+        <v>113</v>
       </c>
       <c r="B244" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C244" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="D244">
         <v>1</v>
       </c>
       <c r="E244" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="245" spans="1:5">
       <c r="A245" t="s">
-        <v>85</v>
+        <v>165</v>
       </c>
       <c r="B245" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C245" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="D245">
         <v>1</v>
       </c>
       <c r="E245" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="246" spans="1:5">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5" ht="13.8" customHeight="1">
       <c r="A246" t="s">
-        <v>260</v>
+        <v>166</v>
       </c>
       <c r="B246" t="s">
-        <v>257</v>
+        <v>188</v>
       </c>
       <c r="C246" t="s">
-        <v>258</v>
+        <v>211</v>
+      </c>
+      <c r="D246">
+        <v>1</v>
+      </c>
+      <c r="E246" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="247" spans="1:5">
       <c r="A247" t="s">
-        <v>259</v>
+        <v>83</v>
       </c>
       <c r="B247" t="s">
-        <v>257</v>
+        <v>188</v>
       </c>
       <c r="C247" t="s">
-        <v>258</v>
+        <v>211</v>
+      </c>
+      <c r="D247">
+        <v>1</v>
+      </c>
+      <c r="E247" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="248" spans="1:5">
       <c r="A248" t="s">
-        <v>291</v>
+        <v>172</v>
       </c>
       <c r="B248" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C248" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
     </row>
     <row r="249" spans="1:5">
       <c r="A249" t="s">
-        <v>303</v>
+        <v>257</v>
       </c>
       <c r="B249" t="s">
-        <v>0</v>
+        <v>254</v>
       </c>
       <c r="C249" t="s">
-        <v>183</v>
+        <v>255</v>
       </c>
     </row>
     <row r="250" spans="1:5">
       <c r="A250" t="s">
-        <v>302</v>
+        <v>256</v>
       </c>
       <c r="B250" t="s">
-        <v>0</v>
+        <v>254</v>
       </c>
       <c r="C250" t="s">
-        <v>183</v>
+        <v>255</v>
       </c>
     </row>
     <row r="251" spans="1:5">
       <c r="A251" t="s">
-        <v>301</v>
+        <v>288</v>
       </c>
       <c r="B251" t="s">
         <v>0</v>
       </c>
       <c r="C251" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="252" spans="1:5">
@@ -5552,46 +5588,134 @@
         <v>0</v>
       </c>
       <c r="C252" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="253" spans="1:5">
       <c r="A253" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="B253" t="s">
         <v>0</v>
       </c>
       <c r="C253" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="254" spans="1:5">
       <c r="A254" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="B254" t="s">
         <v>0</v>
       </c>
       <c r="C254" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="255" spans="1:5">
       <c r="A255" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="B255" t="s">
         <v>0</v>
       </c>
       <c r="C255" t="s">
-        <v>183</v>
+        <v>181</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5">
+      <c r="A256" t="s">
+        <v>301</v>
+      </c>
+      <c r="B256" t="s">
+        <v>0</v>
+      </c>
+      <c r="C256" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3">
+      <c r="A257" t="s">
+        <v>303</v>
+      </c>
+      <c r="B257" t="s">
+        <v>0</v>
+      </c>
+      <c r="C257" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3">
+      <c r="A258" t="s">
+        <v>302</v>
+      </c>
+      <c r="B258" t="s">
+        <v>0</v>
+      </c>
+      <c r="C258" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3">
+      <c r="A259" t="s">
+        <v>311</v>
+      </c>
+      <c r="B259" t="s">
+        <v>0</v>
+      </c>
+      <c r="C259" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3">
+      <c r="A260" t="s">
+        <v>312</v>
+      </c>
+      <c r="B260" t="s">
+        <v>1</v>
+      </c>
+      <c r="C260" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3">
+      <c r="A261" t="s">
+        <v>319</v>
+      </c>
+      <c r="B261" t="s">
+        <v>267</v>
+      </c>
+      <c r="C261" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3">
+      <c r="A262" t="s">
+        <v>320</v>
+      </c>
+      <c r="B262" t="s">
+        <v>267</v>
+      </c>
+      <c r="C262" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3">
+      <c r="A263" t="s">
+        <v>321</v>
+      </c>
+      <c r="B263" t="s">
+        <v>267</v>
+      </c>
+      <c r="C263" t="s">
+        <v>188</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:E254">
-    <sortCondition ref="E2:E254"/>
-    <sortCondition ref="D2:D254"/>
+  <sortState ref="A2:E263">
+    <sortCondition ref="E2:E263"/>
+    <sortCondition ref="D2:D263"/>
   </sortState>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -5613,205 +5737,205 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="B1" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="C1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D1">
         <v>1</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B2" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="C2" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D2">
         <v>2</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="B3" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="C3" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D3">
         <v>3</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="B4" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="C4" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D4">
         <v>4</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="B5" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="C5" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="B6" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="C6" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="B7" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="C7" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="B8" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="C8" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
+        <v>248</v>
+      </c>
+      <c r="B9" t="s">
+        <v>243</v>
+      </c>
+      <c r="E9" s="3" t="s">
         <v>251</v>
-      </c>
-      <c r="B9" t="s">
-        <v>246</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="B10" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="C10" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D10">
         <v>5</v>
       </c>
       <c r="E10" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B11" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="C11" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D11">
         <v>6</v>
       </c>
       <c r="E11" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B12" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="C12" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D12">
         <v>7</v>
       </c>
       <c r="E12" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="B13" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="C13" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D13">
         <v>8</v>
       </c>
       <c r="E13" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
   </sheetData>

--- a/funcionalidades.xlsx
+++ b/funcionalidades.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1087" uniqueCount="322">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1091" uniqueCount="323">
   <si>
     <t>Profissionais</t>
   </si>
@@ -982,6 +982,9 @@
   </si>
   <si>
     <t>Link para gráficos (Invisível)</t>
+  </si>
+  <si>
+    <t>Filter de verificação de pagamento (402)</t>
   </si>
 </sst>
 </file>
@@ -1330,10 +1333,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E263"/>
+  <dimension ref="A1:E264"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="D99" sqref="D99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -3396,7 +3399,7 @@
     </row>
     <row r="122" spans="1:5">
       <c r="A122" t="s">
-        <v>143</v>
+        <v>322</v>
       </c>
       <c r="B122" t="s">
         <v>2</v>
@@ -3413,7 +3416,7 @@
     </row>
     <row r="123" spans="1:5">
       <c r="A123" t="s">
-        <v>118</v>
+        <v>143</v>
       </c>
       <c r="B123" t="s">
         <v>2</v>
@@ -3430,7 +3433,7 @@
     </row>
     <row r="124" spans="1:5">
       <c r="A124" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B124" t="s">
         <v>2</v>
@@ -3447,7 +3450,7 @@
     </row>
     <row r="125" spans="1:5">
       <c r="A125" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B125" t="s">
         <v>2</v>
@@ -3464,7 +3467,7 @@
     </row>
     <row r="126" spans="1:5">
       <c r="A126" t="s">
-        <v>148</v>
+        <v>120</v>
       </c>
       <c r="B126" t="s">
         <v>2</v>
@@ -3481,7 +3484,7 @@
     </row>
     <row r="127" spans="1:5">
       <c r="A127" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B127" t="s">
         <v>2</v>
@@ -3498,7 +3501,7 @@
     </row>
     <row r="128" spans="1:5">
       <c r="A128" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B128" t="s">
         <v>2</v>
@@ -3515,7 +3518,7 @@
     </row>
     <row r="129" spans="1:5">
       <c r="A129" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B129" t="s">
         <v>2</v>
@@ -3532,7 +3535,7 @@
     </row>
     <row r="130" spans="1:5">
       <c r="A130" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B130" t="s">
         <v>2</v>
@@ -3549,7 +3552,7 @@
     </row>
     <row r="131" spans="1:5">
       <c r="A131" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B131" t="s">
         <v>2</v>
@@ -3566,7 +3569,7 @@
     </row>
     <row r="132" spans="1:5">
       <c r="A132" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B132" t="s">
         <v>2</v>
@@ -3583,7 +3586,7 @@
     </row>
     <row r="133" spans="1:5">
       <c r="A133" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B133" t="s">
         <v>2</v>
@@ -3600,7 +3603,7 @@
     </row>
     <row r="134" spans="1:5">
       <c r="A134" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B134" t="s">
         <v>2</v>
@@ -3617,7 +3620,7 @@
     </row>
     <row r="135" spans="1:5">
       <c r="A135" t="s">
-        <v>220</v>
+        <v>158</v>
       </c>
       <c r="B135" t="s">
         <v>2</v>
@@ -3634,7 +3637,7 @@
     </row>
     <row r="136" spans="1:5">
       <c r="A136" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B136" t="s">
         <v>2</v>
@@ -3651,7 +3654,7 @@
     </row>
     <row r="137" spans="1:5">
       <c r="A137" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B137" t="s">
         <v>2</v>
@@ -3668,13 +3671,13 @@
     </row>
     <row r="138" spans="1:5">
       <c r="A138" t="s">
-        <v>116</v>
+        <v>222</v>
       </c>
       <c r="B138" t="s">
-        <v>188</v>
+        <v>2</v>
       </c>
       <c r="C138" t="s">
-        <v>206</v>
+        <v>192</v>
       </c>
       <c r="D138">
         <v>1</v>
@@ -3685,7 +3688,7 @@
     </row>
     <row r="139" spans="1:5">
       <c r="A139" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B139" t="s">
         <v>188</v>
@@ -3702,7 +3705,7 @@
     </row>
     <row r="140" spans="1:5">
       <c r="A140" t="s">
-        <v>147</v>
+        <v>117</v>
       </c>
       <c r="B140" t="s">
         <v>188</v>
@@ -3719,7 +3722,7 @@
     </row>
     <row r="141" spans="1:5">
       <c r="A141" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="B141" t="s">
         <v>188</v>
@@ -3736,16 +3739,16 @@
     </row>
     <row r="142" spans="1:5">
       <c r="A142" t="s">
-        <v>135</v>
+        <v>157</v>
       </c>
       <c r="B142" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C142" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="D142">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E142" t="s">
         <v>185</v>
@@ -3753,7 +3756,7 @@
     </row>
     <row r="143" spans="1:5">
       <c r="A143" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B143" t="s">
         <v>189</v>
@@ -3770,16 +3773,16 @@
     </row>
     <row r="144" spans="1:5">
       <c r="A144" t="s">
-        <v>33</v>
+        <v>136</v>
       </c>
       <c r="B144" t="s">
-        <v>1</v>
+        <v>189</v>
       </c>
       <c r="C144" t="s">
-        <v>196</v>
+        <v>210</v>
       </c>
       <c r="D144">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E144" t="s">
         <v>185</v>
@@ -3787,7 +3790,7 @@
     </row>
     <row r="145" spans="1:5">
       <c r="A145" t="s">
-        <v>162</v>
+        <v>33</v>
       </c>
       <c r="B145" t="s">
         <v>1</v>
@@ -3804,7 +3807,7 @@
     </row>
     <row r="146" spans="1:5">
       <c r="A146" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="B146" t="s">
         <v>1</v>
@@ -3821,7 +3824,7 @@
     </row>
     <row r="147" spans="1:5">
       <c r="A147" t="s">
-        <v>70</v>
+        <v>167</v>
       </c>
       <c r="B147" t="s">
         <v>1</v>
@@ -3838,7 +3841,7 @@
     </row>
     <row r="148" spans="1:5">
       <c r="A148" t="s">
-        <v>11</v>
+        <v>70</v>
       </c>
       <c r="B148" t="s">
         <v>1</v>
@@ -3855,7 +3858,7 @@
     </row>
     <row r="149" spans="1:5">
       <c r="A149" t="s">
-        <v>53</v>
+        <v>11</v>
       </c>
       <c r="B149" t="s">
         <v>1</v>
@@ -3872,7 +3875,7 @@
     </row>
     <row r="150" spans="1:5">
       <c r="A150" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B150" t="s">
         <v>1</v>
@@ -3889,7 +3892,7 @@
     </row>
     <row r="151" spans="1:5">
       <c r="A151" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B151" t="s">
         <v>1</v>
@@ -3906,7 +3909,7 @@
     </row>
     <row r="152" spans="1:5">
       <c r="A152" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B152" t="s">
         <v>1</v>
@@ -3923,7 +3926,7 @@
     </row>
     <row r="153" spans="1:5">
       <c r="A153" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B153" t="s">
         <v>1</v>
@@ -3940,7 +3943,7 @@
     </row>
     <row r="154" spans="1:5">
       <c r="A154" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B154" t="s">
         <v>1</v>
@@ -3957,7 +3960,7 @@
     </row>
     <row r="155" spans="1:5">
       <c r="A155" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B155" t="s">
         <v>1</v>
@@ -3974,7 +3977,7 @@
     </row>
     <row r="156" spans="1:5">
       <c r="A156" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B156" t="s">
         <v>1</v>
@@ -3991,7 +3994,7 @@
     </row>
     <row r="157" spans="1:5">
       <c r="A157" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B157" t="s">
         <v>1</v>
@@ -4008,7 +4011,7 @@
     </row>
     <row r="158" spans="1:5">
       <c r="A158" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B158" t="s">
         <v>1</v>
@@ -4025,7 +4028,7 @@
     </row>
     <row r="159" spans="1:5">
       <c r="A159" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B159" t="s">
         <v>1</v>
@@ -4042,7 +4045,7 @@
     </row>
     <row r="160" spans="1:5">
       <c r="A160" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B160" t="s">
         <v>1</v>
@@ -4059,7 +4062,7 @@
     </row>
     <row r="161" spans="1:5">
       <c r="A161" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B161" t="s">
         <v>1</v>
@@ -4076,7 +4079,7 @@
     </row>
     <row r="162" spans="1:5">
       <c r="A162" t="s">
-        <v>227</v>
+        <v>66</v>
       </c>
       <c r="B162" t="s">
         <v>1</v>
@@ -4093,7 +4096,7 @@
     </row>
     <row r="163" spans="1:5">
       <c r="A163" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B163" t="s">
         <v>1</v>
@@ -4110,7 +4113,7 @@
     </row>
     <row r="164" spans="1:5">
       <c r="A164" t="s">
-        <v>131</v>
+        <v>228</v>
       </c>
       <c r="B164" t="s">
         <v>1</v>
@@ -4127,7 +4130,7 @@
     </row>
     <row r="165" spans="1:5">
       <c r="A165" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B165" t="s">
         <v>1</v>
@@ -4144,7 +4147,7 @@
     </row>
     <row r="166" spans="1:5">
       <c r="A166" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B166" t="s">
         <v>1</v>
@@ -4161,30 +4164,30 @@
     </row>
     <row r="167" spans="1:5">
       <c r="A167" t="s">
-        <v>19</v>
+        <v>133</v>
       </c>
       <c r="B167" t="s">
-        <v>188</v>
+        <v>1</v>
       </c>
       <c r="C167" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="D167">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E167" t="s">
-        <v>115</v>
+        <v>185</v>
       </c>
     </row>
     <row r="168" spans="1:5">
       <c r="A168" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B168" t="s">
         <v>188</v>
       </c>
       <c r="C168" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D168">
         <v>1</v>
@@ -4195,16 +4198,16 @@
     </row>
     <row r="169" spans="1:5">
       <c r="A169" t="s">
-        <v>123</v>
+        <v>18</v>
       </c>
       <c r="B169" t="s">
-        <v>1</v>
+        <v>188</v>
       </c>
       <c r="C169" t="s">
-        <v>201</v>
+        <v>190</v>
       </c>
       <c r="D169">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E169" t="s">
         <v>115</v>
@@ -4212,7 +4215,7 @@
     </row>
     <row r="170" spans="1:5">
       <c r="A170" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B170" t="s">
         <v>1</v>
@@ -4229,7 +4232,7 @@
     </row>
     <row r="171" spans="1:5">
       <c r="A171" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B171" t="s">
         <v>1</v>
@@ -4246,7 +4249,7 @@
     </row>
     <row r="172" spans="1:5">
       <c r="A172" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B172" t="s">
         <v>1</v>
@@ -4263,7 +4266,7 @@
     </row>
     <row r="173" spans="1:5">
       <c r="A173" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B173" t="s">
         <v>1</v>
@@ -4280,7 +4283,7 @@
     </row>
     <row r="174" spans="1:5">
       <c r="A174" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B174" t="s">
         <v>1</v>
@@ -4297,16 +4300,16 @@
     </row>
     <row r="175" spans="1:5">
       <c r="A175" t="s">
-        <v>67</v>
+        <v>128</v>
       </c>
       <c r="B175" t="s">
         <v>1</v>
       </c>
       <c r="C175" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="D175">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E175" t="s">
         <v>115</v>
@@ -4314,7 +4317,7 @@
     </row>
     <row r="176" spans="1:5">
       <c r="A176" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B176" t="s">
         <v>1</v>
@@ -4331,7 +4334,7 @@
     </row>
     <row r="177" spans="1:5">
       <c r="A177" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B177" t="s">
         <v>1</v>
@@ -4348,7 +4351,7 @@
     </row>
     <row r="178" spans="1:5">
       <c r="A178" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B178" t="s">
         <v>1</v>
@@ -4365,7 +4368,7 @@
     </row>
     <row r="179" spans="1:5">
       <c r="A179" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B179" t="s">
         <v>1</v>
@@ -4382,7 +4385,7 @@
     </row>
     <row r="180" spans="1:5">
       <c r="A180" t="s">
-        <v>169</v>
+        <v>72</v>
       </c>
       <c r="B180" t="s">
         <v>1</v>
@@ -4399,7 +4402,7 @@
     </row>
     <row r="181" spans="1:5">
       <c r="A181" t="s">
-        <v>138</v>
+        <v>169</v>
       </c>
       <c r="B181" t="s">
         <v>1</v>
@@ -4416,7 +4419,7 @@
     </row>
     <row r="182" spans="1:5">
       <c r="A182" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B182" t="s">
         <v>1</v>
@@ -4433,7 +4436,7 @@
     </row>
     <row r="183" spans="1:5">
       <c r="A183" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B183" t="s">
         <v>1</v>
@@ -4450,7 +4453,7 @@
     </row>
     <row r="184" spans="1:5">
       <c r="A184" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B184" t="s">
         <v>1</v>
@@ -4467,7 +4470,7 @@
     </row>
     <row r="185" spans="1:5">
       <c r="A185" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B185" t="s">
         <v>1</v>
@@ -4484,24 +4487,24 @@
     </row>
     <row r="186" spans="1:5">
       <c r="A186" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="B186" t="s">
         <v>1</v>
       </c>
       <c r="C186" t="s">
-        <v>212</v>
+        <v>196</v>
       </c>
       <c r="D186">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E186" t="s">
-        <v>205</v>
+        <v>115</v>
       </c>
     </row>
     <row r="187" spans="1:5">
       <c r="A187" t="s">
-        <v>242</v>
+        <v>134</v>
       </c>
       <c r="B187" t="s">
         <v>1</v>
@@ -4518,7 +4521,7 @@
     </row>
     <row r="188" spans="1:5">
       <c r="A188" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="B188" t="s">
         <v>1</v>
@@ -4535,7 +4538,7 @@
     </row>
     <row r="189" spans="1:5">
       <c r="A189" t="s">
-        <v>199</v>
+        <v>236</v>
       </c>
       <c r="B189" t="s">
         <v>1</v>
@@ -4552,13 +4555,13 @@
     </row>
     <row r="190" spans="1:5">
       <c r="A190" t="s">
-        <v>159</v>
+        <v>199</v>
       </c>
       <c r="B190" t="s">
         <v>1</v>
       </c>
       <c r="C190" t="s">
-        <v>200</v>
+        <v>212</v>
       </c>
       <c r="D190">
         <v>1</v>
@@ -4569,16 +4572,16 @@
     </row>
     <row r="191" spans="1:5">
       <c r="A191" t="s">
-        <v>8</v>
+        <v>159</v>
       </c>
       <c r="B191" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C191" t="s">
-        <v>186</v>
+        <v>200</v>
       </c>
       <c r="D191">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E191" t="s">
         <v>205</v>
@@ -4586,7 +4589,7 @@
     </row>
     <row r="192" spans="1:5">
       <c r="A192" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B192" t="s">
         <v>0</v>
@@ -4603,7 +4606,7 @@
     </row>
     <row r="193" spans="1:5">
       <c r="A193" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="B193" t="s">
         <v>0</v>
@@ -4620,7 +4623,7 @@
     </row>
     <row r="194" spans="1:5">
       <c r="A194" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B194" t="s">
         <v>0</v>
@@ -4637,7 +4640,7 @@
     </row>
     <row r="195" spans="1:5">
       <c r="A195" t="s">
-        <v>61</v>
+        <v>36</v>
       </c>
       <c r="B195" t="s">
         <v>0</v>
@@ -4654,16 +4657,16 @@
     </row>
     <row r="196" spans="1:5">
       <c r="A196" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="B196" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C196" t="s">
-        <v>201</v>
+        <v>186</v>
       </c>
       <c r="D196">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E196" t="s">
         <v>205</v>
@@ -4671,7 +4674,7 @@
     </row>
     <row r="197" spans="1:5">
       <c r="A197" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B197" t="s">
         <v>1</v>
@@ -4688,7 +4691,7 @@
     </row>
     <row r="198" spans="1:5">
       <c r="A198" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B198" t="s">
         <v>1</v>
@@ -4705,7 +4708,7 @@
     </row>
     <row r="199" spans="1:5">
       <c r="A199" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B199" t="s">
         <v>1</v>
@@ -4722,7 +4725,7 @@
     </row>
     <row r="200" spans="1:5">
       <c r="A200" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B200" t="s">
         <v>1</v>
@@ -4739,7 +4742,7 @@
     </row>
     <row r="201" spans="1:5">
       <c r="A201" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B201" t="s">
         <v>1</v>
@@ -4756,7 +4759,7 @@
     </row>
     <row r="202" spans="1:5">
       <c r="A202" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B202" t="s">
         <v>1</v>
@@ -4773,16 +4776,16 @@
     </row>
     <row r="203" spans="1:5">
       <c r="A203" t="s">
-        <v>237</v>
+        <v>50</v>
       </c>
       <c r="B203" t="s">
-        <v>188</v>
+        <v>1</v>
       </c>
       <c r="C203" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
       <c r="D203">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E203" t="s">
         <v>205</v>
@@ -4790,7 +4793,7 @@
     </row>
     <row r="204" spans="1:5">
       <c r="A204" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B204" t="s">
         <v>188</v>
@@ -4807,7 +4810,7 @@
     </row>
     <row r="205" spans="1:5">
       <c r="A205" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B205" t="s">
         <v>188</v>
@@ -4824,7 +4827,7 @@
     </row>
     <row r="206" spans="1:5">
       <c r="A206" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B206" t="s">
         <v>188</v>
@@ -4841,24 +4844,24 @@
     </row>
     <row r="207" spans="1:5">
       <c r="A207" t="s">
-        <v>130</v>
+        <v>240</v>
       </c>
       <c r="B207" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C207" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D207">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E207" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
     </row>
     <row r="208" spans="1:5">
       <c r="A208" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="B208" t="s">
         <v>189</v>
@@ -4875,7 +4878,7 @@
     </row>
     <row r="209" spans="1:5">
       <c r="A209" t="s">
-        <v>97</v>
+        <v>137</v>
       </c>
       <c r="B209" t="s">
         <v>189</v>
@@ -4892,7 +4895,7 @@
     </row>
     <row r="210" spans="1:5">
       <c r="A210" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B210" t="s">
         <v>189</v>
@@ -4909,7 +4912,7 @@
     </row>
     <row r="211" spans="1:5">
       <c r="A211" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B211" t="s">
         <v>189</v>
@@ -4926,7 +4929,7 @@
     </row>
     <row r="212" spans="1:5">
       <c r="A212" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B212" t="s">
         <v>189</v>
@@ -4943,7 +4946,7 @@
     </row>
     <row r="213" spans="1:5">
       <c r="A213" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B213" t="s">
         <v>189</v>
@@ -4960,7 +4963,7 @@
     </row>
     <row r="214" spans="1:5">
       <c r="A214" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B214" t="s">
         <v>189</v>
@@ -4977,7 +4980,7 @@
     </row>
     <row r="215" spans="1:5">
       <c r="A215" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B215" t="s">
         <v>189</v>
@@ -4994,7 +4997,7 @@
     </row>
     <row r="216" spans="1:5">
       <c r="A216" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B216" t="s">
         <v>189</v>
@@ -5011,7 +5014,7 @@
     </row>
     <row r="217" spans="1:5">
       <c r="A217" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="B217" t="s">
         <v>189</v>
@@ -5028,7 +5031,7 @@
     </row>
     <row r="218" spans="1:5">
       <c r="A218" t="s">
-        <v>99</v>
+        <v>114</v>
       </c>
       <c r="B218" t="s">
         <v>189</v>
@@ -5045,7 +5048,7 @@
     </row>
     <row r="219" spans="1:5">
       <c r="A219" t="s">
-        <v>145</v>
+        <v>99</v>
       </c>
       <c r="B219" t="s">
         <v>189</v>
@@ -5062,7 +5065,7 @@
     </row>
     <row r="220" spans="1:5">
       <c r="A220" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B220" t="s">
         <v>189</v>
@@ -5079,7 +5082,7 @@
     </row>
     <row r="221" spans="1:5">
       <c r="A221" t="s">
-        <v>168</v>
+        <v>146</v>
       </c>
       <c r="B221" t="s">
         <v>189</v>
@@ -5096,16 +5099,16 @@
     </row>
     <row r="222" spans="1:5">
       <c r="A222" t="s">
-        <v>39</v>
+        <v>168</v>
       </c>
       <c r="B222" t="s">
         <v>189</v>
       </c>
       <c r="C222" t="s">
-        <v>197</v>
+        <v>213</v>
       </c>
       <c r="D222">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E222" t="s">
         <v>194</v>
@@ -5113,7 +5116,7 @@
     </row>
     <row r="223" spans="1:5">
       <c r="A223" t="s">
-        <v>144</v>
+        <v>39</v>
       </c>
       <c r="B223" t="s">
         <v>189</v>
@@ -5130,16 +5133,16 @@
     </row>
     <row r="224" spans="1:5">
       <c r="A224" t="s">
-        <v>122</v>
+        <v>144</v>
       </c>
       <c r="B224" t="s">
-        <v>2</v>
+        <v>189</v>
       </c>
       <c r="C224" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="D224">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E224" t="s">
         <v>194</v>
@@ -5147,13 +5150,13 @@
     </row>
     <row r="225" spans="1:5">
       <c r="A225" t="s">
-        <v>174</v>
+        <v>122</v>
       </c>
       <c r="B225" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C225" t="s">
-        <v>181</v>
+        <v>192</v>
       </c>
       <c r="D225">
         <v>3</v>
@@ -5164,13 +5167,13 @@
     </row>
     <row r="226" spans="1:5">
       <c r="A226" t="s">
-        <v>121</v>
+        <v>174</v>
       </c>
       <c r="B226" t="s">
-        <v>188</v>
+        <v>0</v>
       </c>
       <c r="C226" t="s">
-        <v>206</v>
+        <v>181</v>
       </c>
       <c r="D226">
         <v>3</v>
@@ -5181,30 +5184,30 @@
     </row>
     <row r="227" spans="1:5">
       <c r="A227" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="B227" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C227" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="D227">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E227" t="s">
-        <v>204</v>
+        <v>194</v>
       </c>
     </row>
     <row r="228" spans="1:5">
       <c r="A228" t="s">
-        <v>84</v>
+        <v>129</v>
       </c>
       <c r="B228" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C228" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="D228">
         <v>1</v>
@@ -5215,7 +5218,7 @@
     </row>
     <row r="229" spans="1:5">
       <c r="A229" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B229" t="s">
         <v>188</v>
@@ -5232,7 +5235,7 @@
     </row>
     <row r="230" spans="1:5">
       <c r="A230" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B230" t="s">
         <v>188</v>
@@ -5249,7 +5252,7 @@
     </row>
     <row r="231" spans="1:5">
       <c r="A231" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B231" t="s">
         <v>188</v>
@@ -5266,7 +5269,7 @@
     </row>
     <row r="232" spans="1:5">
       <c r="A232" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B232" t="s">
         <v>188</v>
@@ -5283,7 +5286,7 @@
     </row>
     <row r="233" spans="1:5">
       <c r="A233" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B233" t="s">
         <v>188</v>
@@ -5300,7 +5303,7 @@
     </row>
     <row r="234" spans="1:5">
       <c r="A234" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B234" t="s">
         <v>188</v>
@@ -5317,7 +5320,7 @@
     </row>
     <row r="235" spans="1:5">
       <c r="A235" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B235" t="s">
         <v>188</v>
@@ -5334,7 +5337,7 @@
     </row>
     <row r="236" spans="1:5">
       <c r="A236" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B236" t="s">
         <v>188</v>
@@ -5351,7 +5354,7 @@
     </row>
     <row r="237" spans="1:5">
       <c r="A237" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B237" t="s">
         <v>188</v>
@@ -5368,7 +5371,7 @@
     </row>
     <row r="238" spans="1:5">
       <c r="A238" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B238" t="s">
         <v>188</v>
@@ -5385,7 +5388,7 @@
     </row>
     <row r="239" spans="1:5">
       <c r="A239" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B239" t="s">
         <v>188</v>
@@ -5402,7 +5405,7 @@
     </row>
     <row r="240" spans="1:5">
       <c r="A240" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="B240" t="s">
         <v>188</v>
@@ -5419,7 +5422,7 @@
     </row>
     <row r="241" spans="1:5" ht="15" customHeight="1">
       <c r="A241" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="B241" t="s">
         <v>188</v>
@@ -5436,7 +5439,7 @@
     </row>
     <row r="242" spans="1:5">
       <c r="A242" t="s">
-        <v>171</v>
+        <v>111</v>
       </c>
       <c r="B242" t="s">
         <v>188</v>
@@ -5453,7 +5456,7 @@
     </row>
     <row r="243" spans="1:5">
       <c r="A243" t="s">
-        <v>112</v>
+        <v>171</v>
       </c>
       <c r="B243" t="s">
         <v>188</v>
@@ -5470,7 +5473,7 @@
     </row>
     <row r="244" spans="1:5">
       <c r="A244" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B244" t="s">
         <v>188</v>
@@ -5487,7 +5490,7 @@
     </row>
     <row r="245" spans="1:5">
       <c r="A245" t="s">
-        <v>165</v>
+        <v>113</v>
       </c>
       <c r="B245" t="s">
         <v>188</v>
@@ -5504,7 +5507,7 @@
     </row>
     <row r="246" spans="1:5" ht="13.8" customHeight="1">
       <c r="A246" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B246" t="s">
         <v>188</v>
@@ -5521,7 +5524,7 @@
     </row>
     <row r="247" spans="1:5">
       <c r="A247" t="s">
-        <v>83</v>
+        <v>166</v>
       </c>
       <c r="B247" t="s">
         <v>188</v>
@@ -5538,29 +5541,35 @@
     </row>
     <row r="248" spans="1:5">
       <c r="A248" t="s">
-        <v>172</v>
+        <v>83</v>
       </c>
       <c r="B248" t="s">
-        <v>1</v>
+        <v>188</v>
       </c>
       <c r="C248" t="s">
-        <v>200</v>
+        <v>211</v>
+      </c>
+      <c r="D248">
+        <v>1</v>
+      </c>
+      <c r="E248" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="249" spans="1:5">
       <c r="A249" t="s">
-        <v>257</v>
+        <v>172</v>
       </c>
       <c r="B249" t="s">
-        <v>254</v>
+        <v>1</v>
       </c>
       <c r="C249" t="s">
-        <v>255</v>
+        <v>200</v>
       </c>
     </row>
     <row r="250" spans="1:5">
       <c r="A250" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B250" t="s">
         <v>254</v>
@@ -5571,18 +5580,18 @@
     </row>
     <row r="251" spans="1:5">
       <c r="A251" t="s">
-        <v>288</v>
+        <v>256</v>
       </c>
       <c r="B251" t="s">
-        <v>0</v>
+        <v>254</v>
       </c>
       <c r="C251" t="s">
-        <v>181</v>
+        <v>255</v>
       </c>
     </row>
     <row r="252" spans="1:5">
       <c r="A252" t="s">
-        <v>300</v>
+        <v>288</v>
       </c>
       <c r="B252" t="s">
         <v>0</v>
@@ -5593,7 +5602,7 @@
     </row>
     <row r="253" spans="1:5">
       <c r="A253" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B253" t="s">
         <v>0</v>
@@ -5604,7 +5613,7 @@
     </row>
     <row r="254" spans="1:5">
       <c r="A254" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B254" t="s">
         <v>0</v>
@@ -5615,7 +5624,7 @@
     </row>
     <row r="255" spans="1:5">
       <c r="A255" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B255" t="s">
         <v>0</v>
@@ -5626,7 +5635,7 @@
     </row>
     <row r="256" spans="1:5">
       <c r="A256" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="B256" t="s">
         <v>0</v>
@@ -5637,7 +5646,7 @@
     </row>
     <row r="257" spans="1:3">
       <c r="A257" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B257" t="s">
         <v>0</v>
@@ -5648,7 +5657,7 @@
     </row>
     <row r="258" spans="1:3">
       <c r="A258" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B258" t="s">
         <v>0</v>
@@ -5659,7 +5668,7 @@
     </row>
     <row r="259" spans="1:3">
       <c r="A259" t="s">
-        <v>311</v>
+        <v>302</v>
       </c>
       <c r="B259" t="s">
         <v>0</v>
@@ -5670,29 +5679,29 @@
     </row>
     <row r="260" spans="1:3">
       <c r="A260" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B260" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C260" t="s">
-        <v>212</v>
+        <v>181</v>
       </c>
     </row>
     <row r="261" spans="1:3">
       <c r="A261" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="B261" t="s">
-        <v>267</v>
+        <v>1</v>
       </c>
       <c r="C261" t="s">
-        <v>188</v>
+        <v>212</v>
       </c>
     </row>
     <row r="262" spans="1:3">
       <c r="A262" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B262" t="s">
         <v>267</v>
@@ -5703,7 +5712,7 @@
     </row>
     <row r="263" spans="1:3">
       <c r="A263" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B263" t="s">
         <v>267</v>
@@ -5712,10 +5721,21 @@
         <v>188</v>
       </c>
     </row>
+    <row r="264" spans="1:3">
+      <c r="A264" t="s">
+        <v>321</v>
+      </c>
+      <c r="B264" t="s">
+        <v>267</v>
+      </c>
+      <c r="C264" t="s">
+        <v>188</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState ref="A2:E263">
-    <sortCondition ref="E2:E263"/>
-    <sortCondition ref="D2:D263"/>
+  <sortState ref="A2:E264">
+    <sortCondition ref="E2:E264"/>
+    <sortCondition ref="D2:D264"/>
   </sortState>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/funcionalidades.xlsx
+++ b/funcionalidades.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="96" yWindow="60" windowWidth="22932" windowHeight="9504"/>
+    <workbookView xWindow="96" yWindow="60" windowWidth="19128" windowHeight="8004"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -12,11 +12,12 @@
     <sheet name="Plan3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1091" uniqueCount="323">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="938" uniqueCount="292">
   <si>
     <t>Profissionais</t>
   </si>
@@ -33,9 +34,6 @@
     <t>Inativar Curriculo</t>
   </si>
   <si>
-    <t>Visualizações</t>
-  </si>
-  <si>
     <t>Palavras Boas</t>
   </si>
   <si>
@@ -78,48 +76,21 @@
     <t>Ver recompensas</t>
   </si>
   <si>
-    <t>Errar senha</t>
-  </si>
-  <si>
-    <t>Bloquear token</t>
-  </si>
-  <si>
-    <t>Pre registro</t>
-  </si>
-  <si>
     <t>Login</t>
   </si>
   <si>
-    <t>Logout</t>
-  </si>
-  <si>
     <t>Listar Urls</t>
   </si>
   <si>
     <t>Trocar Idioma</t>
   </si>
   <si>
-    <t>Primeiro Login</t>
-  </si>
-  <si>
-    <t>Enviar token</t>
-  </si>
-  <si>
     <t>Bloquear rh</t>
   </si>
   <si>
     <t>Não receber vagas</t>
   </si>
   <si>
-    <t>Invisibilizar CV</t>
-  </si>
-  <si>
-    <t>Relatorio de Views</t>
-  </si>
-  <si>
-    <t>Push da vaga</t>
-  </si>
-  <si>
     <t>Link para cursos</t>
   </si>
   <si>
@@ -129,9 +100,6 @@
     <t>Desbloquear RH</t>
   </si>
   <si>
-    <t>Desbloquear senha</t>
-  </si>
-  <si>
     <t>Desbloquear token</t>
   </si>
   <si>
@@ -150,75 +118,15 @@
     <t>Responder fale conosco</t>
   </si>
   <si>
-    <t>Meus currículos</t>
-  </si>
-  <si>
-    <t>Negativar CV</t>
-  </si>
-  <si>
-    <t>Bloquear CV</t>
-  </si>
-  <si>
-    <t>Dar nota para CV</t>
-  </si>
-  <si>
-    <t>Comentar CV</t>
-  </si>
-  <si>
-    <t>Desnegativar CV</t>
-  </si>
-  <si>
-    <t>Desbloquear CV</t>
-  </si>
-  <si>
     <t>Download do CV</t>
   </si>
   <si>
     <t>Sugestões de Buscas</t>
   </si>
   <si>
-    <t>Divulgar vagas</t>
-  </si>
-  <si>
-    <t>Notificar CV</t>
-  </si>
-  <si>
-    <t>Copiar Vaga</t>
-  </si>
-  <si>
-    <t>Inativar Vaga</t>
-  </si>
-  <si>
-    <t>Reativar vaga</t>
-  </si>
-  <si>
-    <t>Calcular palavras</t>
-  </si>
-  <si>
-    <t>Listar CV</t>
-  </si>
-  <si>
-    <t>Recalcular Vaga</t>
-  </si>
-  <si>
     <t>Combo dinânico RH</t>
   </si>
   <si>
-    <t>Combo Dinânico CV</t>
-  </si>
-  <si>
-    <t>Listar RHS</t>
-  </si>
-  <si>
-    <t>E-mail com CV</t>
-  </si>
-  <si>
-    <t>Notificar RH</t>
-  </si>
-  <si>
-    <t>Cadastro Simples</t>
-  </si>
-  <si>
     <t>Quis</t>
   </si>
   <si>
@@ -228,18 +136,12 @@
     <t>Correção Quis</t>
   </si>
   <si>
-    <t>Complicar vaga</t>
-  </si>
-  <si>
     <t>Feedback quis</t>
   </si>
   <si>
     <t>Receber Feed Quis</t>
   </si>
   <si>
-    <t>Marcar CV visualizado</t>
-  </si>
-  <si>
     <t>Minhas Indicacoes</t>
   </si>
   <si>
@@ -333,9 +235,6 @@
     <t>Ver interaçoes prop</t>
   </si>
   <si>
-    <t>Match da vaga</t>
-  </si>
-  <si>
     <t>Convidar professor</t>
   </si>
   <si>
@@ -348,9 +247,6 @@
     <t>Indicação recusada</t>
   </si>
   <si>
-    <t>C</t>
-  </si>
-  <si>
     <t>Curtir curso</t>
   </si>
   <si>
@@ -366,21 +262,6 @@
     <t>E</t>
   </si>
   <si>
-    <t>Exibir saldo</t>
-  </si>
-  <si>
-    <t>Extrato</t>
-  </si>
-  <si>
-    <t>Eleger cortesia</t>
-  </si>
-  <si>
-    <t>Cobrar cortesia</t>
-  </si>
-  <si>
-    <t>Validar cortesia</t>
-  </si>
-  <si>
     <t>Transferir saldo</t>
   </si>
   <si>
@@ -393,42 +274,15 @@
     <t>Cobrar por comentário</t>
   </si>
   <si>
-    <t>Receber por view cv</t>
-  </si>
-  <si>
-    <t>Cobrar por view cv</t>
-  </si>
-  <si>
-    <t>Cobrar push cv</t>
-  </si>
-  <si>
-    <t>Cobrar email cv</t>
-  </si>
-  <si>
     <t>Cobrar professor</t>
   </si>
   <si>
     <t>Cobrar propaganda</t>
   </si>
   <si>
-    <t>Cobrar Divulg Vaga</t>
-  </si>
-  <si>
-    <t>Cobrar recalculo de vaga</t>
-  </si>
-  <si>
-    <t>Cobrar comentário CV</t>
-  </si>
-  <si>
     <t>Cobrar busca CV</t>
   </si>
   <si>
-    <t>Receber Por indicação</t>
-  </si>
-  <si>
-    <t>Cobrar Indicação</t>
-  </si>
-  <si>
     <t>Receber RH propaganda</t>
   </si>
   <si>
@@ -447,9 +301,6 @@
     <t>Pagar correções dos quis</t>
   </si>
   <si>
-    <t>Carencia do CV</t>
-  </si>
-  <si>
     <t>Pagar sócio</t>
   </si>
   <si>
@@ -459,42 +310,12 @@
     <t>Registrar update por sócio</t>
   </si>
   <si>
-    <t>Cotação BTC</t>
-  </si>
-  <si>
-    <t>Transferir LN</t>
-  </si>
-  <si>
-    <t>LN input</t>
-  </si>
-  <si>
-    <t>LN output</t>
-  </si>
-  <si>
     <t>Saldo ocioso</t>
   </si>
   <si>
-    <t>Endereço LN aleatoria</t>
-  </si>
-  <si>
-    <t>Dividir grana</t>
-  </si>
-  <si>
-    <t>Contas LN JobsNow</t>
-  </si>
-  <si>
-    <t>Detectar pagto saldo</t>
-  </si>
-  <si>
     <t>Webhook emails</t>
   </si>
   <si>
-    <t>Vídeo de btc no youtube</t>
-  </si>
-  <si>
-    <t>Btc pay server</t>
-  </si>
-  <si>
     <t>Converter em busca paga</t>
   </si>
   <si>
@@ -504,9 +325,6 @@
     <t>Spam do fale conosco</t>
   </si>
   <si>
-    <t>Categorias de grupos mobile</t>
-  </si>
-  <si>
     <t>Keys graficos linhas</t>
   </si>
   <si>
@@ -519,9 +337,6 @@
     <t>Detalhar comentarista</t>
   </si>
   <si>
-    <t>Lista de grupos na vaga</t>
-  </si>
-  <si>
     <t>Cobrar aquivo propaganda</t>
   </si>
   <si>
@@ -537,18 +352,12 @@
     <t>Match Vaga Mobile</t>
   </si>
   <si>
-    <t>Match Vaga Sinonimo</t>
-  </si>
-  <si>
     <t>Customizar preço cv</t>
   </si>
   <si>
     <t>Excluir currículo</t>
   </si>
   <si>
-    <t>Nome</t>
-  </si>
-  <si>
     <t>Menu</t>
   </si>
   <si>
@@ -573,9 +382,6 @@
     <t>Quem me viu</t>
   </si>
   <si>
-    <t>D</t>
-  </si>
-  <si>
     <t>Reputação</t>
   </si>
   <si>
@@ -678,15 +484,6 @@
     <t>Desistir de chamado</t>
   </si>
   <si>
-    <t>Convidar recrutadores</t>
-  </si>
-  <si>
-    <t>Convidar candidatos</t>
-  </si>
-  <si>
-    <t>Estudar LN</t>
-  </si>
-  <si>
     <t>Estudar ES</t>
   </si>
   <si>
@@ -699,12 +496,6 @@
     <t>Reprocessar palavras chaves</t>
   </si>
   <si>
-    <t>Currículos da madrugada</t>
-  </si>
-  <si>
-    <t>Cobrar currículos da mad</t>
-  </si>
-  <si>
     <t>Processo de Devops</t>
   </si>
   <si>
@@ -774,217 +565,334 @@
     <t>1</t>
   </si>
   <si>
+    <t>Dados e links de usuário</t>
+  </si>
+  <si>
+    <t>Ver atividades</t>
+  </si>
+  <si>
+    <t>Detalhar atividade de Login</t>
+  </si>
+  <si>
+    <t>Listar atividades de Login</t>
+  </si>
+  <si>
+    <t>Dados e links para usuário</t>
+  </si>
+  <si>
+    <t>Salvar Currículo do Telegram</t>
+  </si>
+  <si>
+    <t>Notificar alteraçao do cv</t>
+  </si>
+  <si>
+    <t>Verificar se currículo está ativo</t>
+  </si>
+  <si>
+    <t>Salvar professional_key</t>
+  </si>
+  <si>
+    <t>Salvar professional_ddd</t>
+  </si>
+  <si>
+    <t>Salvar professional_key_synonym</t>
+  </si>
+  <si>
+    <t>Salvar currículo no bucket</t>
+  </si>
+  <si>
+    <t>Classificar senioridade</t>
+  </si>
+  <si>
+    <t>Valor médio do candidato</t>
+  </si>
+  <si>
+    <t>Salvar professional_index</t>
+  </si>
+  <si>
+    <t>Excluir professional_key</t>
+  </si>
+  <si>
+    <t>Excluir professional_key_synonym</t>
+  </si>
+  <si>
+    <t>Prevenir excesso de e-mails</t>
+  </si>
+  <si>
+    <t>Botão opções do currículo</t>
+  </si>
+  <si>
+    <t>Botão outras opções do currículo</t>
+  </si>
+  <si>
+    <t>Link Comentários sobre Mim</t>
+  </si>
+  <si>
+    <t>Link Palavras Ruins</t>
+  </si>
+  <si>
+    <t>Link Palavras Boas</t>
+  </si>
+  <si>
+    <t>Link Minhas Vagas</t>
+  </si>
+  <si>
+    <t>Link Quem viu meu currículo</t>
+  </si>
+  <si>
+    <t>Filtrar p/ salvar professional_index</t>
+  </si>
+  <si>
+    <t>Envio de currículos por email</t>
+  </si>
+  <si>
+    <t>Salvar professional_view_resume</t>
+  </si>
+  <si>
+    <t>Salvar professional_alias</t>
+  </si>
+  <si>
+    <t>Detectar currículo com telegram</t>
+  </si>
+  <si>
+    <t>Notificar alteraçao do cv por telegram</t>
+  </si>
+  <si>
+    <t>Experimente a busca premium</t>
+  </si>
+  <si>
+    <t>Exibir Sinônimos na busca</t>
+  </si>
+  <si>
+    <t>Salvar visualização do cv</t>
+  </si>
+  <si>
+    <t>Trocar senha</t>
+  </si>
+  <si>
+    <t>Quanto Paga (Invisível)</t>
+  </si>
+  <si>
+    <t>Tarifas e Recompensas (Invisível)</t>
+  </si>
+  <si>
+    <t>Link para gráficos (Invisível)</t>
+  </si>
+  <si>
+    <t>Bloquear usuário</t>
+  </si>
+  <si>
+    <t>(Des)marcar opção de rh para usuário</t>
+  </si>
+  <si>
+    <t>Executar logout</t>
+  </si>
+  <si>
+    <t>Exibir credencial do usuario condicionalmente</t>
+  </si>
+  <si>
+    <t>Validar e-mail do usuário logado(ando)</t>
+  </si>
+  <si>
+    <t>Verificar se usuário está com token bloqueado</t>
+  </si>
+  <si>
+    <t>Verificar se usuário é de primeiro acesso</t>
+  </si>
+  <si>
+    <t>Verificar se usuário tem login conflitante</t>
+  </si>
+  <si>
+    <t>Verificar se usuário está bloqueado</t>
+  </si>
+  <si>
+    <t>Verificar se usuário tem preRegistro</t>
+  </si>
+  <si>
+    <t>Verificar se usuário tem senha cadastrada</t>
+  </si>
+  <si>
+    <t>Cadastrar usuário</t>
+  </si>
+  <si>
+    <t>Cadastrar preRegistration</t>
+  </si>
+  <si>
+    <t>Incrementar tentativas de token</t>
+  </si>
+  <si>
+    <t>Bloquear token de usuário</t>
+  </si>
+  <si>
+    <t>Verificar força da senha cadastrada</t>
+  </si>
+  <si>
     <t>Cadastrar senha</t>
   </si>
   <si>
-    <t>Sugestão para melhorar senha</t>
-  </si>
-  <si>
-    <t>Dados e links de usuário</t>
-  </si>
-  <si>
-    <t>Ver atividades</t>
-  </si>
-  <si>
-    <t>Detalhar atividade de Login</t>
-  </si>
-  <si>
-    <t>Listar atividades de Login</t>
-  </si>
-  <si>
-    <t>Excluir login expirado</t>
-  </si>
-  <si>
-    <t>Verificar se já está logado</t>
-  </si>
-  <si>
-    <t>Ativar suporte para token</t>
-  </si>
-  <si>
-    <t>Registrar Historico</t>
-  </si>
-  <si>
-    <t>Resolver login conflitante</t>
-  </si>
-  <si>
-    <t>Cadastrar como recrutador</t>
-  </si>
-  <si>
-    <t>Executar Login</t>
-  </si>
-  <si>
-    <t>Salvar path ao fazer logout</t>
-  </si>
-  <si>
-    <t>Bloquear senha</t>
-  </si>
-  <si>
-    <t>Dados e links para usuário</t>
-  </si>
-  <si>
-    <t>Cadastrar como não recrutador</t>
-  </si>
-  <si>
-    <t>Salvar recrutador</t>
-  </si>
-  <si>
-    <t>Atualizar pre_registration</t>
-  </si>
-  <si>
-    <t>Salvar user_type_activity</t>
-  </si>
-  <si>
-    <t>Salvar Currículo do Telegram</t>
-  </si>
-  <si>
-    <t>Excluir recrutador</t>
-  </si>
-  <si>
-    <t>Excluir não recrutador</t>
-  </si>
-  <si>
-    <t>Consultar tabela de não RH</t>
-  </si>
-  <si>
-    <t>Apresentar dados do Login</t>
-  </si>
-  <si>
-    <t>(Des)Marcar como recrutador</t>
-  </si>
-  <si>
-    <t>Ver Dados Salvos</t>
-  </si>
-  <si>
-    <t>Notificar alteraçao do cv</t>
-  </si>
-  <si>
-    <t>Salvar auditoria</t>
-  </si>
-  <si>
-    <t>Verificar se currículo está ativo</t>
-  </si>
-  <si>
-    <t>Salvar professional_key</t>
-  </si>
-  <si>
-    <t>Salvar professional_ddd</t>
-  </si>
-  <si>
-    <t>Salvar professional_key_synonym</t>
-  </si>
-  <si>
-    <t>Salvar currículo no bucket</t>
-  </si>
-  <si>
-    <t>Detectar tipo do currículo</t>
-  </si>
-  <si>
-    <t>Classificar senioridade</t>
-  </si>
-  <si>
-    <t>Valor médio do candidato</t>
-  </si>
-  <si>
-    <t>Quero currículos</t>
-  </si>
-  <si>
-    <t>Redirecionar pagina para usuário</t>
-  </si>
-  <si>
-    <t>Salvar professional_index</t>
-  </si>
-  <si>
-    <t>Excluir professional_key</t>
-  </si>
-  <si>
-    <t>Excluir professional_key_synonym</t>
-  </si>
-  <si>
-    <t>Prevenir excesso de e-mails</t>
-  </si>
-  <si>
-    <t>Botão opções do currículo</t>
-  </si>
-  <si>
-    <t>Botão outras opções do currículo</t>
-  </si>
-  <si>
-    <t>Link Comentários sobre Mim</t>
-  </si>
-  <si>
-    <t>Link Palavras Ruins</t>
-  </si>
-  <si>
-    <t>Link Palavras Boas</t>
-  </si>
-  <si>
-    <t>Trocar tipo do currículo</t>
-  </si>
-  <si>
-    <t>Link Minhas Vagas</t>
-  </si>
-  <si>
-    <t>Quem viu meu currículo</t>
-  </si>
-  <si>
-    <t>Link Quem viu meu currículo</t>
-  </si>
-  <si>
-    <t>Filtrar p/ salvar professional_index</t>
-  </si>
-  <si>
-    <t>Envio de currículos por email</t>
-  </si>
-  <si>
-    <t>Salvar professional_view_resume</t>
-  </si>
-  <si>
-    <t>Executar Logout</t>
-  </si>
-  <si>
-    <t>Salvar professional_alias</t>
-  </si>
-  <si>
-    <t>Detectar currículo com telegram</t>
-  </si>
-  <si>
-    <t>Notificar alteraçao do cv por telegram</t>
-  </si>
-  <si>
-    <t>Salvar aderencia entre cv e pesquisa</t>
-  </si>
-  <si>
-    <t>Experimente a busca premium</t>
-  </si>
-  <si>
-    <t>Exibir Sinônimos na busca</t>
-  </si>
-  <si>
-    <t>Salvar visualização do cv</t>
-  </si>
-  <si>
-    <t>Lista de pesquisas já feitas</t>
-  </si>
-  <si>
-    <t>Renderização condicional dos componentes</t>
-  </si>
-  <si>
-    <t>Trocar senha</t>
-  </si>
-  <si>
-    <t>Sair do sistema</t>
-  </si>
-  <si>
-    <t>Quanto Paga (Invisível)</t>
-  </si>
-  <si>
-    <t>Tarifas e Recompensas (Invisível)</t>
-  </si>
-  <si>
-    <t>Link para gráficos (Invisível)</t>
-  </si>
-  <si>
-    <t>Filter de verificação de pagamento (402)</t>
+    <t>Executar login no sistema</t>
+  </si>
+  <si>
+    <t>Verificar se o token do usuário está bloqueado</t>
+  </si>
+  <si>
+    <t>Verificar se já houve solicitação p/ desbloqueio</t>
+  </si>
+  <si>
+    <t>Incrementar tentativas de desbloqueio de token</t>
+  </si>
+  <si>
+    <t>Bloquear desbloqueio de token</t>
+  </si>
+  <si>
+    <t>Solicitar desbloqueio de token</t>
+  </si>
+  <si>
+    <t>Verificar se o suporte já atendeu solicitação</t>
+  </si>
+  <si>
+    <t>Incrementar erros de senha</t>
+  </si>
+  <si>
+    <t>Solicitar novo token</t>
+  </si>
+  <si>
+    <t>Verificar se já houve solicitação p/ novo token</t>
+  </si>
+  <si>
+    <t>Resolver conflito de login</t>
+  </si>
+  <si>
+    <t>Notificar suporte sobre desbloqueio de token</t>
+  </si>
+  <si>
+    <t>Notificar suporte sobre requisição de token</t>
+  </si>
+  <si>
+    <t>Cadastrar resposta do suporte para desbloqueio</t>
+  </si>
+  <si>
+    <t>Cadastrar resposta do suporte para token</t>
+  </si>
+  <si>
+    <t>Salvar redux de login</t>
+  </si>
+  <si>
+    <t>Ver dados do profissional</t>
+  </si>
+  <si>
+    <t>Salvar redux do profissional</t>
+  </si>
+  <si>
+    <t>Salvar redux do currículo</t>
+  </si>
+  <si>
+    <t>Cadastrar vagas</t>
+  </si>
+  <si>
+    <t>Websocket de lista de cvs de vagas</t>
+  </si>
+  <si>
+    <t>Excluir vaga</t>
+  </si>
+  <si>
+    <t>Listar vagas</t>
+  </si>
+  <si>
+    <t>Lista de Curriculos de uma vaga</t>
+  </si>
+  <si>
+    <t>Buscar match do Cv pra a vaga</t>
+  </si>
+  <si>
+    <t>Notificar Rh sobre Cv da vaga por email</t>
+  </si>
+  <si>
+    <t>Notificar Rh sobre Cv da vaga por telegram</t>
+  </si>
+  <si>
+    <t>Validar saldo do rh para ver currículo</t>
+  </si>
+  <si>
+    <t>Debitar saldo do rh para ver curriculo</t>
+  </si>
+  <si>
+    <t>Transferir saldo do rh para candidato</t>
+  </si>
+  <si>
+    <t>Transferir saldo do rh para JN</t>
+  </si>
+  <si>
+    <t>Eleição do saldo cortesia</t>
+  </si>
+  <si>
+    <t>Download do arquivo do curriculo</t>
+  </si>
+  <si>
+    <t>Download do texto do curriculo</t>
+  </si>
+  <si>
+    <t>Salvar recruiter_view_resume</t>
+  </si>
+  <si>
+    <t>Negar visualização de CV para RH</t>
+  </si>
+  <si>
+    <t>Notificar candidato sobre visualização</t>
+  </si>
+  <si>
+    <t>Cobrar por envio diário de currículos</t>
+  </si>
+  <si>
+    <t>Listagem de visualizações e datas</t>
+  </si>
+  <si>
+    <t>Comentar Curriculo</t>
+  </si>
+  <si>
+    <t>(Des)bloquear CV</t>
+  </si>
+  <si>
+    <t>Ranquear Currículo</t>
+  </si>
+  <si>
+    <t>Listar currículos Negativados</t>
+  </si>
+  <si>
+    <t>Listar currículos Normais</t>
+  </si>
+  <si>
+    <t>Listar comentários sobre um CV</t>
+  </si>
+  <si>
+    <t>Notificar alteraçao do cv por e-mail</t>
+  </si>
+  <si>
+    <t>Agrupar visualizações por consultoria</t>
+  </si>
+  <si>
+    <t>Calcular afinidade currículo / vaga</t>
+  </si>
+  <si>
+    <t>Elencar termos mais buscados</t>
+  </si>
+  <si>
+    <t>Indexação de currículos na madrugada</t>
+  </si>
+  <si>
+    <t>Marketing massivo para atrair rhs</t>
+  </si>
+  <si>
+    <t>Bot respondedor de vagas</t>
+  </si>
+  <si>
+    <t>Explodir popup de login quando necessário</t>
+  </si>
+  <si>
+    <t>Cadastrar como rh quando ver curriculo</t>
+  </si>
+  <si>
+    <t>Cadastrar como rh quando cadastrar vaga</t>
   </si>
 </sst>
 </file>
@@ -1034,11 +942,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1333,4409 +1242,3684 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E264"/>
+  <dimension ref="A1:E237"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="D99" sqref="D99"/>
+    <sheetView tabSelected="1" topLeftCell="A93" workbookViewId="0">
+      <selection activeCell="B121" sqref="B121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="37.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="40.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.44140625" bestFit="1" customWidth="1"/>
     <col min="3" max="5" width="20.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>178</v>
+        <v>114</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>179</v>
+        <v>115</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>247</v>
-      </c>
       <c r="E1" s="1" t="s">
-        <v>180</v>
+        <v>116</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>23</v>
+        <v>224</v>
+      </c>
+      <c r="B2" t="s">
+        <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>192</v>
+        <v>127</v>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="15" customHeight="1">
       <c r="A3" t="s">
-        <v>253</v>
+        <v>225</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>19</v>
+      </c>
+      <c r="C3" t="s">
+        <v>127</v>
       </c>
       <c r="D3">
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>182</v>
+        <v>118</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>23</v>
+        <v>226</v>
+      </c>
+      <c r="B4" t="s">
+        <v>19</v>
       </c>
       <c r="C4" t="s">
-        <v>192</v>
+        <v>127</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15" customHeight="1">
       <c r="A5" t="s">
-        <v>252</v>
+        <v>227</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C5" t="s">
-        <v>192</v>
+        <v>127</v>
       </c>
       <c r="D5">
         <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>182</v>
+        <v>118</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>23</v>
+        <v>228</v>
+      </c>
+      <c r="B6" t="s">
+        <v>19</v>
       </c>
       <c r="C6" t="s">
-        <v>192</v>
+        <v>127</v>
       </c>
       <c r="D6">
         <v>1</v>
       </c>
       <c r="E6" t="s">
-        <v>182</v>
+        <v>118</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>23</v>
+        <v>229</v>
+      </c>
+      <c r="B7" t="s">
+        <v>19</v>
       </c>
       <c r="C7" t="s">
-        <v>192</v>
+        <v>127</v>
       </c>
       <c r="D7">
         <v>1</v>
       </c>
       <c r="E7" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="15" customHeight="1">
       <c r="A8" t="s">
-        <v>264</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>23</v>
+        <v>230</v>
+      </c>
+      <c r="B8" t="s">
+        <v>19</v>
       </c>
       <c r="C8" t="s">
-        <v>192</v>
+        <v>127</v>
       </c>
       <c r="D8">
         <v>1</v>
       </c>
       <c r="E8" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="15" customHeight="1">
       <c r="A9" t="s">
-        <v>261</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>23</v>
+        <v>231</v>
+      </c>
+      <c r="B9" t="s">
+        <v>19</v>
       </c>
       <c r="C9" t="s">
-        <v>192</v>
+        <v>127</v>
       </c>
       <c r="D9">
         <v>1</v>
       </c>
       <c r="E9" t="s">
-        <v>182</v>
+        <v>118</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>24</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>23</v>
+        <v>232</v>
+      </c>
+      <c r="B10" t="s">
+        <v>19</v>
       </c>
       <c r="C10" t="s">
-        <v>192</v>
+        <v>127</v>
       </c>
       <c r="D10">
         <v>1</v>
       </c>
       <c r="E10" t="s">
-        <v>182</v>
+        <v>118</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>23</v>
+        <v>233</v>
+      </c>
+      <c r="B11" t="s">
+        <v>19</v>
       </c>
       <c r="C11" t="s">
-        <v>192</v>
+        <v>127</v>
       </c>
       <c r="D11">
         <v>1</v>
       </c>
       <c r="E11" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="13.8" customHeight="1">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>266</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>23</v>
+        <v>234</v>
+      </c>
+      <c r="B12" t="s">
+        <v>19</v>
       </c>
       <c r="C12" t="s">
-        <v>192</v>
+        <v>127</v>
       </c>
       <c r="D12">
         <v>1</v>
       </c>
       <c r="E12" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="13.8" customHeight="1">
       <c r="A13" t="s">
-        <v>37</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>23</v>
+        <v>235</v>
+      </c>
+      <c r="B13" t="s">
+        <v>19</v>
       </c>
       <c r="C13" t="s">
-        <v>192</v>
+        <v>127</v>
       </c>
       <c r="D13">
         <v>1</v>
       </c>
       <c r="E13" t="s">
-        <v>182</v>
+        <v>118</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>38</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>23</v>
+        <v>236</v>
+      </c>
+      <c r="B14" t="s">
+        <v>19</v>
       </c>
       <c r="C14" t="s">
-        <v>192</v>
+        <v>127</v>
       </c>
       <c r="D14">
         <v>1</v>
       </c>
       <c r="E14" t="s">
-        <v>182</v>
+        <v>118</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>260</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>23</v>
+        <v>237</v>
+      </c>
+      <c r="B15" t="s">
+        <v>19</v>
       </c>
       <c r="C15" t="s">
-        <v>192</v>
+        <v>127</v>
       </c>
       <c r="D15">
         <v>1</v>
       </c>
       <c r="E15" t="s">
-        <v>182</v>
+        <v>118</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>259</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>23</v>
+        <v>238</v>
+      </c>
+      <c r="B16" t="s">
+        <v>19</v>
       </c>
       <c r="C16" t="s">
-        <v>192</v>
+        <v>127</v>
       </c>
       <c r="D16">
         <v>1</v>
       </c>
       <c r="E16" t="s">
-        <v>182</v>
+        <v>118</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>258</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>23</v>
+        <v>239</v>
+      </c>
+      <c r="B17" t="s">
+        <v>19</v>
       </c>
       <c r="C17" t="s">
-        <v>192</v>
+        <v>127</v>
       </c>
       <c r="D17">
         <v>1</v>
       </c>
       <c r="E17" t="s">
-        <v>182</v>
+        <v>118</v>
       </c>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" t="s">
-        <v>262</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>23</v>
+      <c r="A18" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="B18" t="s">
+        <v>19</v>
       </c>
       <c r="C18" t="s">
-        <v>192</v>
+        <v>127</v>
       </c>
       <c r="D18">
         <v>1</v>
       </c>
       <c r="E18" t="s">
-        <v>182</v>
+        <v>118</v>
       </c>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" t="s">
-        <v>265</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>23</v>
+      <c r="A19" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="B19" t="s">
+        <v>19</v>
       </c>
       <c r="C19" t="s">
-        <v>192</v>
+        <v>127</v>
       </c>
       <c r="D19">
         <v>1</v>
       </c>
       <c r="E19" t="s">
-        <v>182</v>
+        <v>118</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="13.8" customHeight="1">
-      <c r="A20" t="s">
-        <v>269</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>23</v>
+      <c r="A20" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="B20" t="s">
+        <v>19</v>
       </c>
       <c r="C20" t="s">
-        <v>192</v>
+        <v>127</v>
       </c>
       <c r="D20">
         <v>1</v>
       </c>
       <c r="E20" t="s">
-        <v>182</v>
+        <v>118</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="13.8" customHeight="1">
-      <c r="A21" t="s">
-        <v>271</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>23</v>
+      <c r="A21" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
       </c>
       <c r="C21" t="s">
-        <v>192</v>
+        <v>127</v>
       </c>
       <c r="D21">
         <v>1</v>
       </c>
       <c r="E21" t="s">
-        <v>182</v>
+        <v>118</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="13.8" customHeight="1">
-      <c r="A22" t="s">
-        <v>275</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>23</v>
+      <c r="A22" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22" t="s">
+        <v>19</v>
       </c>
       <c r="C22" t="s">
-        <v>192</v>
+        <v>127</v>
       </c>
       <c r="D22">
         <v>1</v>
       </c>
       <c r="E22" t="s">
-        <v>182</v>
+        <v>118</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="13.8" customHeight="1">
-      <c r="A23" t="s">
-        <v>280</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>23</v>
+      <c r="A23" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="B23" t="s">
+        <v>19</v>
       </c>
       <c r="C23" t="s">
-        <v>192</v>
+        <v>127</v>
       </c>
       <c r="D23">
         <v>1</v>
       </c>
       <c r="E23" t="s">
-        <v>182</v>
+        <v>118</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="13.8" customHeight="1">
-      <c r="A24" t="s">
-        <v>290</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>23</v>
+      <c r="A24" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="B24" t="s">
+        <v>19</v>
       </c>
       <c r="C24" t="s">
-        <v>192</v>
+        <v>127</v>
       </c>
       <c r="D24">
         <v>1</v>
       </c>
       <c r="E24" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25" t="s">
-        <v>276</v>
+        <v>118</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="13.8" customHeight="1">
+      <c r="A25" s="4" t="s">
+        <v>245</v>
       </c>
       <c r="B25" t="s">
-        <v>267</v>
+        <v>19</v>
       </c>
       <c r="C25" t="s">
-        <v>176</v>
+        <v>127</v>
       </c>
       <c r="D25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E25" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26" t="s">
-        <v>263</v>
+        <v>118</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="13.8" customHeight="1">
+      <c r="A26" s="4" t="s">
+        <v>246</v>
       </c>
       <c r="B26" t="s">
-        <v>267</v>
+        <v>19</v>
       </c>
       <c r="C26" t="s">
-        <v>289</v>
+        <v>127</v>
       </c>
       <c r="D26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E26" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="A27" t="s">
-        <v>268</v>
+        <v>118</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="13.8" customHeight="1">
+      <c r="A27" s="4" t="s">
+        <v>247</v>
       </c>
       <c r="B27" t="s">
-        <v>267</v>
+        <v>19</v>
       </c>
       <c r="C27" t="s">
-        <v>289</v>
+        <v>127</v>
       </c>
       <c r="D27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E27" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
-      <c r="A28" t="s">
-        <v>273</v>
+        <v>118</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="13.8" customHeight="1">
+      <c r="A28" s="4" t="s">
+        <v>248</v>
       </c>
       <c r="B28" t="s">
-        <v>267</v>
+        <v>19</v>
       </c>
       <c r="C28" t="s">
-        <v>188</v>
+        <v>127</v>
       </c>
       <c r="D28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E28" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
-      <c r="A29" t="s">
-        <v>274</v>
+        <v>118</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="13.8" customHeight="1">
+      <c r="A29" s="4" t="s">
+        <v>249</v>
       </c>
       <c r="B29" t="s">
-        <v>267</v>
+        <v>19</v>
       </c>
       <c r="C29" t="s">
-        <v>188</v>
+        <v>127</v>
       </c>
       <c r="D29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E29" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
-      <c r="A30" t="s">
-        <v>270</v>
+        <v>118</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="13.8" customHeight="1">
+      <c r="A30" s="4" t="s">
+        <v>250</v>
       </c>
       <c r="B30" t="s">
-        <v>267</v>
+        <v>19</v>
       </c>
       <c r="C30" t="s">
-        <v>188</v>
+        <v>127</v>
       </c>
       <c r="D30">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E30" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
-      <c r="A31" t="s">
-        <v>277</v>
+        <v>118</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="13.8" customHeight="1">
+      <c r="A31" s="4" t="s">
+        <v>252</v>
       </c>
       <c r="B31" t="s">
-        <v>267</v>
+        <v>19</v>
       </c>
       <c r="C31" t="s">
-        <v>188</v>
+        <v>127</v>
       </c>
       <c r="D31">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E31" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
-      <c r="A32" t="s">
-        <v>316</v>
+        <v>118</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="13.8" customHeight="1">
+      <c r="A32" s="4" t="s">
+        <v>251</v>
       </c>
       <c r="B32" t="s">
-        <v>267</v>
+        <v>19</v>
       </c>
       <c r="C32" t="s">
-        <v>188</v>
+        <v>127</v>
       </c>
       <c r="D32">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E32" t="s">
-        <v>182</v>
+        <v>118</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" t="s">
-        <v>317</v>
+        <v>289</v>
       </c>
       <c r="B33" t="s">
-        <v>267</v>
+        <v>19</v>
       </c>
       <c r="C33" t="s">
-        <v>188</v>
+        <v>127</v>
       </c>
       <c r="D33">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E33" t="s">
-        <v>182</v>
+        <v>118</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" t="s">
-        <v>318</v>
+        <v>221</v>
       </c>
       <c r="B34" t="s">
-        <v>267</v>
+        <v>186</v>
       </c>
       <c r="C34" t="s">
-        <v>188</v>
+        <v>123</v>
       </c>
       <c r="D34">
         <v>2</v>
       </c>
       <c r="E34" t="s">
-        <v>182</v>
+        <v>118</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" t="s">
-        <v>307</v>
+        <v>222</v>
       </c>
       <c r="B35" t="s">
-        <v>267</v>
+        <v>186</v>
       </c>
       <c r="C35" t="s">
-        <v>188</v>
+        <v>123</v>
       </c>
       <c r="D35">
         <v>2</v>
       </c>
       <c r="E35" t="s">
-        <v>182</v>
+        <v>118</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" t="s">
-        <v>295</v>
+        <v>216</v>
       </c>
       <c r="B36" t="s">
-        <v>0</v>
+        <v>186</v>
       </c>
       <c r="C36" t="s">
-        <v>181</v>
+        <v>123</v>
       </c>
       <c r="D36">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E36" t="s">
-        <v>182</v>
+        <v>118</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" t="s">
-        <v>306</v>
+        <v>223</v>
       </c>
       <c r="B37" t="s">
-        <v>0</v>
+        <v>186</v>
       </c>
       <c r="C37" t="s">
-        <v>181</v>
+        <v>123</v>
       </c>
       <c r="D37">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E37" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" ht="13.8" customHeight="1">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
       <c r="A38" t="s">
-        <v>278</v>
+        <v>253</v>
       </c>
       <c r="B38" t="s">
         <v>0</v>
       </c>
       <c r="C38" t="s">
-        <v>181</v>
+        <v>117</v>
       </c>
       <c r="D38">
         <v>3</v>
       </c>
       <c r="E38" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" ht="13.8" customHeight="1">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
       <c r="A39" t="s">
-        <v>3</v>
+        <v>254</v>
       </c>
       <c r="B39" t="s">
         <v>0</v>
       </c>
       <c r="C39" t="s">
-        <v>181</v>
+        <v>117</v>
       </c>
       <c r="D39">
         <v>3</v>
       </c>
       <c r="E39" t="s">
-        <v>182</v>
+        <v>118</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" t="s">
-        <v>281</v>
+        <v>3</v>
       </c>
       <c r="B40" t="s">
         <v>0</v>
       </c>
       <c r="C40" t="s">
-        <v>181</v>
+        <v>117</v>
       </c>
       <c r="D40">
         <v>3</v>
       </c>
       <c r="E40" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="13.8" customHeight="1">
       <c r="A41" t="s">
-        <v>272</v>
+        <v>189</v>
       </c>
       <c r="B41" t="s">
         <v>0</v>
       </c>
       <c r="C41" t="s">
-        <v>181</v>
+        <v>117</v>
       </c>
       <c r="D41">
         <v>3</v>
       </c>
       <c r="E41" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="13.8" customHeight="1">
       <c r="A42" t="s">
-        <v>4</v>
+        <v>187</v>
       </c>
       <c r="B42" t="s">
         <v>0</v>
       </c>
       <c r="C42" t="s">
-        <v>181</v>
+        <v>117</v>
       </c>
       <c r="D42">
         <v>3</v>
       </c>
       <c r="E42" t="s">
-        <v>182</v>
+        <v>118</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="B43" t="s">
         <v>0</v>
       </c>
       <c r="C43" t="s">
-        <v>181</v>
+        <v>117</v>
       </c>
       <c r="D43">
         <v>3</v>
       </c>
       <c r="E43" t="s">
-        <v>182</v>
+        <v>118</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B44" t="s">
         <v>0</v>
       </c>
       <c r="C44" t="s">
-        <v>181</v>
+        <v>117</v>
       </c>
       <c r="D44">
         <v>3</v>
       </c>
       <c r="E44" t="s">
-        <v>182</v>
+        <v>118</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" t="s">
-        <v>279</v>
+        <v>16</v>
       </c>
       <c r="B45" t="s">
         <v>0</v>
       </c>
       <c r="C45" t="s">
-        <v>181</v>
+        <v>117</v>
       </c>
       <c r="D45">
         <v>3</v>
       </c>
       <c r="E45" t="s">
-        <v>182</v>
+        <v>118</v>
       </c>
     </row>
     <row r="46" spans="1:5">
       <c r="A46" t="s">
-        <v>175</v>
+        <v>112</v>
       </c>
       <c r="B46" t="s">
         <v>0</v>
       </c>
       <c r="C46" t="s">
-        <v>181</v>
+        <v>117</v>
       </c>
       <c r="D46">
         <v>3</v>
       </c>
       <c r="E46" t="s">
-        <v>182</v>
+        <v>118</v>
       </c>
     </row>
     <row r="47" spans="1:5">
       <c r="A47" t="s">
-        <v>241</v>
+        <v>171</v>
       </c>
       <c r="B47" t="s">
         <v>0</v>
       </c>
       <c r="C47" t="s">
-        <v>181</v>
+        <v>117</v>
       </c>
       <c r="D47">
         <v>3</v>
       </c>
       <c r="E47" t="s">
-        <v>182</v>
+        <v>118</v>
       </c>
     </row>
     <row r="48" spans="1:5">
       <c r="A48" t="s">
-        <v>285</v>
+        <v>193</v>
       </c>
       <c r="B48" t="s">
         <v>0</v>
       </c>
       <c r="C48" t="s">
-        <v>181</v>
+        <v>117</v>
       </c>
       <c r="D48">
         <v>3</v>
       </c>
       <c r="E48" t="s">
-        <v>182</v>
+        <v>118</v>
       </c>
     </row>
     <row r="49" spans="1:5">
       <c r="A49" t="s">
-        <v>282</v>
+        <v>255</v>
       </c>
       <c r="B49" t="s">
         <v>0</v>
       </c>
       <c r="C49" t="s">
-        <v>181</v>
+        <v>117</v>
       </c>
       <c r="D49">
         <v>3</v>
       </c>
       <c r="E49" t="s">
-        <v>182</v>
+        <v>118</v>
       </c>
     </row>
     <row r="50" spans="1:5">
       <c r="A50" t="s">
-        <v>284</v>
+        <v>194</v>
       </c>
       <c r="B50" t="s">
         <v>0</v>
       </c>
       <c r="C50" t="s">
-        <v>181</v>
+        <v>117</v>
       </c>
       <c r="D50">
         <v>3</v>
       </c>
       <c r="E50" t="s">
-        <v>182</v>
+        <v>118</v>
       </c>
     </row>
     <row r="51" spans="1:5">
       <c r="A51" t="s">
-        <v>283</v>
+        <v>210</v>
       </c>
       <c r="B51" t="s">
         <v>0</v>
       </c>
       <c r="C51" t="s">
-        <v>181</v>
+        <v>117</v>
       </c>
       <c r="D51">
         <v>3</v>
       </c>
       <c r="E51" t="s">
-        <v>182</v>
+        <v>118</v>
       </c>
     </row>
     <row r="52" spans="1:5">
       <c r="A52" t="s">
-        <v>286</v>
-      </c>
-      <c r="B52" t="s">
-        <v>0</v>
-      </c>
-      <c r="C52" t="s">
-        <v>181</v>
+        <v>211</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>117</v>
       </c>
       <c r="D52">
         <v>3</v>
       </c>
       <c r="E52" t="s">
-        <v>182</v>
+        <v>118</v>
       </c>
     </row>
     <row r="53" spans="1:5">
       <c r="A53" t="s">
-        <v>287</v>
+        <v>209</v>
       </c>
       <c r="B53" t="s">
         <v>0</v>
       </c>
       <c r="C53" t="s">
-        <v>181</v>
+        <v>117</v>
       </c>
       <c r="D53">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E53" t="s">
-        <v>182</v>
+        <v>118</v>
       </c>
     </row>
     <row r="54" spans="1:5">
       <c r="A54" t="s">
-        <v>291</v>
+        <v>208</v>
       </c>
       <c r="B54" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C54" t="s">
-        <v>181</v>
+        <v>127</v>
       </c>
       <c r="D54">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E54" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="13.8" customHeight="1">
       <c r="A55" t="s">
-        <v>309</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="D55" s="2">
-        <v>3</v>
-      </c>
-      <c r="E55" s="2" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
+        <v>33</v>
+      </c>
+      <c r="B55" t="s">
+        <v>1</v>
+      </c>
+      <c r="C55" t="s">
+        <v>135</v>
+      </c>
+      <c r="D55">
+        <v>4</v>
+      </c>
+      <c r="E55" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" ht="13.8" customHeight="1">
       <c r="A56" t="s">
-        <v>292</v>
+        <v>215</v>
       </c>
       <c r="B56" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C56" t="s">
-        <v>181</v>
+        <v>135</v>
       </c>
       <c r="D56">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E56" t="s">
-        <v>182</v>
+        <v>118</v>
       </c>
     </row>
     <row r="57" spans="1:5" ht="13.8" customHeight="1">
       <c r="A57" t="s">
-        <v>293</v>
+        <v>214</v>
       </c>
       <c r="B57" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C57" t="s">
-        <v>181</v>
+        <v>135</v>
       </c>
       <c r="D57">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E57" t="s">
-        <v>182</v>
+        <v>118</v>
       </c>
     </row>
     <row r="58" spans="1:5" ht="13.8" customHeight="1">
       <c r="A58" t="s">
-        <v>304</v>
+        <v>34</v>
       </c>
       <c r="B58" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C58" t="s">
-        <v>181</v>
+        <v>135</v>
       </c>
       <c r="D58">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E58" t="s">
-        <v>182</v>
+        <v>118</v>
       </c>
     </row>
     <row r="59" spans="1:5" ht="13.8" customHeight="1">
       <c r="A59" t="s">
-        <v>308</v>
+        <v>108</v>
       </c>
       <c r="B59" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C59" t="s">
-        <v>181</v>
+        <v>135</v>
       </c>
       <c r="D59">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E59" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" ht="13.8" customHeight="1">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
       <c r="A60" t="s">
-        <v>310</v>
+        <v>172</v>
       </c>
       <c r="B60" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C60" t="s">
-        <v>181</v>
+        <v>135</v>
       </c>
       <c r="D60">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E60" t="s">
-        <v>182</v>
+        <v>118</v>
       </c>
     </row>
     <row r="61" spans="1:5">
       <c r="A61" t="s">
-        <v>305</v>
+        <v>290</v>
       </c>
       <c r="B61" t="s">
         <v>1</v>
       </c>
       <c r="C61" t="s">
-        <v>192</v>
+        <v>135</v>
       </c>
       <c r="D61">
         <v>4</v>
       </c>
       <c r="E61" t="s">
-        <v>182</v>
+        <v>118</v>
       </c>
     </row>
     <row r="62" spans="1:5">
       <c r="A62" t="s">
-        <v>315</v>
+        <v>30</v>
       </c>
       <c r="B62" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C62" t="s">
-        <v>200</v>
+        <v>127</v>
       </c>
       <c r="D62">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E62" t="s">
-        <v>182</v>
+        <v>118</v>
       </c>
     </row>
     <row r="63" spans="1:5">
       <c r="A63" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="B63" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C63" t="s">
-        <v>200</v>
+        <v>127</v>
       </c>
       <c r="D63">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E63" t="s">
-        <v>182</v>
+        <v>118</v>
       </c>
     </row>
     <row r="64" spans="1:5">
       <c r="A64" t="s">
-        <v>314</v>
+        <v>32</v>
       </c>
       <c r="B64" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C64" t="s">
-        <v>200</v>
+        <v>127</v>
       </c>
       <c r="D64">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E64" t="s">
-        <v>182</v>
+        <v>118</v>
       </c>
     </row>
     <row r="65" spans="1:5">
       <c r="A65" t="s">
-        <v>313</v>
+        <v>285</v>
       </c>
       <c r="B65" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C65" t="s">
-        <v>200</v>
+        <v>127</v>
       </c>
       <c r="D65">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E65" t="s">
-        <v>182</v>
+        <v>119</v>
       </c>
     </row>
     <row r="66" spans="1:5">
       <c r="A66" t="s">
-        <v>52</v>
+        <v>207</v>
       </c>
       <c r="B66" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C66" t="s">
-        <v>200</v>
+        <v>117</v>
       </c>
       <c r="D66">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E66" t="s">
-        <v>182</v>
+        <v>119</v>
       </c>
     </row>
     <row r="67" spans="1:5">
       <c r="A67" t="s">
-        <v>170</v>
+        <v>190</v>
       </c>
       <c r="B67" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C67" t="s">
-        <v>200</v>
+        <v>117</v>
       </c>
       <c r="D67">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E67" t="s">
-        <v>182</v>
+        <v>119</v>
       </c>
     </row>
     <row r="68" spans="1:5">
       <c r="A68" t="s">
-        <v>73</v>
+        <v>192</v>
       </c>
       <c r="B68" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C68" t="s">
-        <v>200</v>
+        <v>117</v>
       </c>
       <c r="D68">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E68" t="s">
-        <v>182</v>
+        <v>119</v>
       </c>
     </row>
     <row r="69" spans="1:5">
       <c r="A69" t="s">
-        <v>173</v>
+        <v>191</v>
       </c>
       <c r="B69" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C69" t="s">
-        <v>200</v>
+        <v>117</v>
       </c>
       <c r="D69">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E69" t="s">
-        <v>182</v>
+        <v>119</v>
       </c>
     </row>
     <row r="70" spans="1:5">
       <c r="A70" t="s">
-        <v>105</v>
+        <v>196</v>
       </c>
       <c r="B70" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C70" t="s">
-        <v>200</v>
+        <v>117</v>
       </c>
       <c r="D70">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E70" t="s">
-        <v>182</v>
+        <v>119</v>
       </c>
     </row>
     <row r="71" spans="1:5">
       <c r="A71" t="s">
-        <v>242</v>
+        <v>197</v>
       </c>
       <c r="B71" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C71" t="s">
-        <v>200</v>
+        <v>117</v>
       </c>
       <c r="D71">
-        <v>4</v>
-      </c>
-      <c r="E71" t="s">
-        <v>182</v>
+        <v>1</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="72" spans="1:5">
       <c r="A72" t="s">
-        <v>41</v>
+        <v>198</v>
       </c>
       <c r="B72" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C72" t="s">
-        <v>192</v>
+        <v>117</v>
       </c>
       <c r="D72">
-        <v>5</v>
-      </c>
-      <c r="E72" t="s">
-        <v>182</v>
+        <v>1</v>
+      </c>
+      <c r="E72" s="2" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="73" spans="1:5">
       <c r="A73" t="s">
-        <v>42</v>
+        <v>97</v>
       </c>
       <c r="B73" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C73" t="s">
-        <v>192</v>
+        <v>131</v>
       </c>
       <c r="D73">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E73" t="s">
-        <v>182</v>
+        <v>119</v>
       </c>
     </row>
     <row r="74" spans="1:5">
       <c r="A74" t="s">
-        <v>43</v>
+        <v>284</v>
       </c>
       <c r="B74" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C74" t="s">
-        <v>192</v>
+        <v>131</v>
       </c>
       <c r="D74">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E74" t="s">
-        <v>182</v>
+        <v>119</v>
       </c>
     </row>
     <row r="75" spans="1:5">
       <c r="A75" t="s">
-        <v>32</v>
+        <v>286</v>
       </c>
       <c r="B75" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C75" t="s">
-        <v>192</v>
+        <v>127</v>
       </c>
       <c r="D75">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E75" t="s">
-        <v>182</v>
+        <v>119</v>
       </c>
     </row>
     <row r="76" spans="1:5">
       <c r="A76" t="s">
-        <v>161</v>
+        <v>144</v>
       </c>
       <c r="B76" t="s">
         <v>2</v>
       </c>
       <c r="C76" t="s">
-        <v>192</v>
+        <v>127</v>
       </c>
       <c r="D76">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E76" t="s">
-        <v>182</v>
+        <v>119</v>
       </c>
     </row>
     <row r="77" spans="1:5">
       <c r="A77" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="B77" t="s">
         <v>2</v>
       </c>
       <c r="C77" t="s">
-        <v>192</v>
+        <v>127</v>
       </c>
       <c r="D77">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E77" t="s">
-        <v>182</v>
+        <v>119</v>
       </c>
     </row>
     <row r="78" spans="1:5">
       <c r="A78" t="s">
-        <v>203</v>
+        <v>288</v>
       </c>
       <c r="B78" t="s">
-        <v>189</v>
+        <v>2</v>
       </c>
       <c r="C78" t="s">
-        <v>210</v>
+        <v>127</v>
       </c>
       <c r="D78">
         <v>1</v>
       </c>
       <c r="E78" t="s">
-        <v>183</v>
+        <v>119</v>
       </c>
     </row>
     <row r="79" spans="1:5">
       <c r="A79" t="s">
-        <v>74</v>
+        <v>291</v>
       </c>
       <c r="B79" t="s">
-        <v>189</v>
+        <v>1</v>
       </c>
       <c r="C79" t="s">
-        <v>210</v>
+        <v>131</v>
       </c>
       <c r="D79">
         <v>1</v>
       </c>
       <c r="E79" t="s">
-        <v>183</v>
+        <v>119</v>
       </c>
     </row>
     <row r="80" spans="1:5">
       <c r="A80" t="s">
-        <v>207</v>
+        <v>256</v>
       </c>
       <c r="B80" t="s">
-        <v>189</v>
+        <v>1</v>
       </c>
       <c r="C80" t="s">
-        <v>210</v>
+        <v>131</v>
       </c>
       <c r="D80">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E80" t="s">
-        <v>183</v>
+        <v>119</v>
       </c>
     </row>
     <row r="81" spans="1:5">
       <c r="A81" t="s">
-        <v>208</v>
+        <v>257</v>
       </c>
       <c r="B81" t="s">
-        <v>189</v>
+        <v>1</v>
       </c>
       <c r="C81" t="s">
-        <v>210</v>
+        <v>131</v>
       </c>
       <c r="D81">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E81" t="s">
-        <v>183</v>
+        <v>119</v>
       </c>
     </row>
     <row r="82" spans="1:5">
       <c r="A82" t="s">
-        <v>108</v>
+        <v>258</v>
       </c>
       <c r="B82" t="s">
-        <v>189</v>
+        <v>1</v>
       </c>
       <c r="C82" t="s">
-        <v>210</v>
+        <v>131</v>
       </c>
       <c r="D82">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E82" t="s">
-        <v>183</v>
+        <v>119</v>
       </c>
     </row>
     <row r="83" spans="1:5">
       <c r="A83" t="s">
-        <v>109</v>
+        <v>259</v>
       </c>
       <c r="B83" t="s">
-        <v>189</v>
+        <v>1</v>
       </c>
       <c r="C83" t="s">
-        <v>210</v>
+        <v>131</v>
       </c>
       <c r="D83">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E83" t="s">
-        <v>183</v>
+        <v>119</v>
       </c>
     </row>
     <row r="84" spans="1:5">
       <c r="A84" t="s">
-        <v>214</v>
+        <v>260</v>
       </c>
       <c r="B84" t="s">
-        <v>188</v>
+        <v>1</v>
       </c>
       <c r="C84" t="s">
-        <v>215</v>
+        <v>131</v>
       </c>
       <c r="D84">
         <v>2</v>
       </c>
       <c r="E84" t="s">
-        <v>183</v>
+        <v>119</v>
       </c>
     </row>
     <row r="85" spans="1:5">
       <c r="A85" t="s">
-        <v>216</v>
+        <v>261</v>
       </c>
       <c r="B85" t="s">
-        <v>188</v>
+        <v>1</v>
       </c>
       <c r="C85" t="s">
-        <v>215</v>
+        <v>131</v>
       </c>
       <c r="D85">
         <v>2</v>
       </c>
       <c r="E85" t="s">
-        <v>183</v>
+        <v>119</v>
       </c>
     </row>
     <row r="86" spans="1:5">
       <c r="A86" t="s">
-        <v>217</v>
+        <v>262</v>
       </c>
       <c r="B86" t="s">
-        <v>188</v>
+        <v>1</v>
       </c>
       <c r="C86" t="s">
-        <v>215</v>
+        <v>131</v>
       </c>
       <c r="D86">
         <v>2</v>
       </c>
       <c r="E86" t="s">
-        <v>183</v>
+        <v>119</v>
       </c>
     </row>
     <row r="87" spans="1:5">
       <c r="A87" t="s">
-        <v>218</v>
+        <v>263</v>
       </c>
       <c r="B87" t="s">
-        <v>188</v>
+        <v>1</v>
       </c>
       <c r="C87" t="s">
-        <v>215</v>
+        <v>131</v>
       </c>
       <c r="D87">
         <v>2</v>
       </c>
       <c r="E87" t="s">
-        <v>183</v>
+        <v>119</v>
       </c>
     </row>
     <row r="88" spans="1:5">
       <c r="A88" t="s">
-        <v>219</v>
+        <v>264</v>
       </c>
       <c r="B88" t="s">
-        <v>188</v>
+        <v>1</v>
       </c>
       <c r="C88" t="s">
-        <v>215</v>
+        <v>131</v>
       </c>
       <c r="D88">
         <v>2</v>
       </c>
       <c r="E88" t="s">
-        <v>183</v>
+        <v>119</v>
       </c>
     </row>
     <row r="89" spans="1:5">
       <c r="A89" t="s">
-        <v>5</v>
+        <v>265</v>
       </c>
       <c r="B89" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C89" t="s">
-        <v>184</v>
+        <v>131</v>
       </c>
       <c r="D89">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E89" t="s">
-        <v>183</v>
+        <v>119</v>
       </c>
     </row>
     <row r="90" spans="1:5">
       <c r="A90" t="s">
-        <v>6</v>
+        <v>266</v>
       </c>
       <c r="B90" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C90" t="s">
-        <v>184</v>
+        <v>131</v>
       </c>
       <c r="D90">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E90" t="s">
-        <v>183</v>
+        <v>119</v>
       </c>
     </row>
     <row r="91" spans="1:5">
       <c r="A91" t="s">
-        <v>7</v>
+        <v>267</v>
       </c>
       <c r="B91" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C91" t="s">
-        <v>184</v>
+        <v>131</v>
       </c>
       <c r="D91">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E91" t="s">
-        <v>183</v>
+        <v>119</v>
       </c>
     </row>
     <row r="92" spans="1:5">
       <c r="A92" t="s">
-        <v>29</v>
+        <v>268</v>
       </c>
       <c r="B92" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C92" t="s">
-        <v>184</v>
+        <v>131</v>
       </c>
       <c r="D92">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E92" t="s">
-        <v>183</v>
+        <v>119</v>
       </c>
     </row>
     <row r="93" spans="1:5">
       <c r="A93" t="s">
-        <v>30</v>
+        <v>269</v>
       </c>
       <c r="B93" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C93" t="s">
-        <v>184</v>
+        <v>131</v>
       </c>
       <c r="D93">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E93" t="s">
-        <v>183</v>
+        <v>119</v>
       </c>
     </row>
     <row r="94" spans="1:5">
       <c r="A94" t="s">
-        <v>31</v>
+        <v>270</v>
       </c>
       <c r="B94" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C94" t="s">
-        <v>184</v>
+        <v>131</v>
       </c>
       <c r="D94">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E94" t="s">
-        <v>183</v>
+        <v>119</v>
       </c>
     </row>
     <row r="95" spans="1:5">
       <c r="A95" t="s">
-        <v>202</v>
+        <v>271</v>
       </c>
       <c r="B95" t="s">
         <v>1</v>
       </c>
       <c r="C95" t="s">
-        <v>200</v>
+        <v>131</v>
       </c>
       <c r="D95">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E95" t="s">
-        <v>183</v>
+        <v>119</v>
       </c>
     </row>
     <row r="96" spans="1:5">
       <c r="A96" t="s">
-        <v>156</v>
+        <v>272</v>
       </c>
       <c r="B96" t="s">
+        <v>1</v>
+      </c>
+      <c r="C96" t="s">
+        <v>131</v>
+      </c>
+      <c r="D96">
         <v>2</v>
       </c>
-      <c r="C96" t="s">
-        <v>192</v>
-      </c>
-      <c r="D96">
-        <v>4</v>
-      </c>
       <c r="E96" t="s">
-        <v>183</v>
+        <v>119</v>
       </c>
     </row>
     <row r="97" spans="1:5">
       <c r="A97" t="s">
-        <v>160</v>
+        <v>273</v>
       </c>
       <c r="B97" t="s">
-        <v>188</v>
+        <v>1</v>
       </c>
       <c r="C97" t="s">
-        <v>193</v>
+        <v>131</v>
       </c>
       <c r="D97">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E97" t="s">
-        <v>183</v>
+        <v>119</v>
       </c>
     </row>
     <row r="98" spans="1:5">
       <c r="A98" t="s">
-        <v>25</v>
+        <v>274</v>
       </c>
       <c r="B98" t="s">
-        <v>188</v>
+        <v>1</v>
       </c>
       <c r="C98" t="s">
-        <v>193</v>
+        <v>131</v>
       </c>
       <c r="D98">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E98" t="s">
-        <v>183</v>
+        <v>119</v>
       </c>
     </row>
     <row r="99" spans="1:5">
       <c r="A99" t="s">
-        <v>296</v>
+        <v>206</v>
       </c>
       <c r="B99" t="s">
         <v>0</v>
       </c>
       <c r="C99" t="s">
-        <v>181</v>
+        <v>117</v>
+      </c>
+      <c r="D99">
+        <v>3</v>
       </c>
       <c r="E99" t="s">
-        <v>183</v>
+        <v>119</v>
       </c>
     </row>
     <row r="100" spans="1:5">
       <c r="A100" t="s">
-        <v>34</v>
+        <v>275</v>
       </c>
       <c r="B100" t="s">
         <v>0</v>
       </c>
       <c r="C100" t="s">
-        <v>184</v>
+        <v>120</v>
       </c>
       <c r="D100">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E100" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
     </row>
     <row r="101" spans="1:5">
       <c r="A101" t="s">
-        <v>75</v>
+        <v>280</v>
       </c>
       <c r="B101" t="s">
-        <v>188</v>
+        <v>1</v>
       </c>
       <c r="C101" t="s">
-        <v>211</v>
+        <v>136</v>
       </c>
       <c r="D101">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E101" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
     </row>
     <row r="102" spans="1:5">
       <c r="A102" t="s">
-        <v>76</v>
+        <v>278</v>
       </c>
       <c r="B102" t="s">
-        <v>188</v>
+        <v>1</v>
       </c>
       <c r="C102" t="s">
-        <v>211</v>
+        <v>136</v>
       </c>
       <c r="D102">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E102" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
     </row>
     <row r="103" spans="1:5">
       <c r="A103" t="s">
-        <v>77</v>
+        <v>276</v>
       </c>
       <c r="B103" t="s">
-        <v>188</v>
+        <v>1</v>
       </c>
       <c r="C103" t="s">
-        <v>211</v>
+        <v>136</v>
       </c>
       <c r="D103">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E103" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
     </row>
     <row r="104" spans="1:5">
       <c r="A104" t="s">
-        <v>78</v>
+        <v>281</v>
       </c>
       <c r="B104" t="s">
-        <v>188</v>
+        <v>1</v>
       </c>
       <c r="C104" t="s">
-        <v>211</v>
+        <v>136</v>
       </c>
       <c r="D104">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E104" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
     </row>
     <row r="105" spans="1:5">
       <c r="A105" t="s">
-        <v>79</v>
+        <v>277</v>
       </c>
       <c r="B105" t="s">
-        <v>188</v>
+        <v>1</v>
       </c>
       <c r="C105" t="s">
-        <v>211</v>
+        <v>136</v>
       </c>
       <c r="D105">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E105" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
     </row>
     <row r="106" spans="1:5">
       <c r="A106" t="s">
-        <v>80</v>
+        <v>212</v>
       </c>
       <c r="B106" t="s">
-        <v>188</v>
+        <v>0</v>
       </c>
       <c r="C106" t="s">
-        <v>211</v>
+        <v>117</v>
       </c>
       <c r="D106">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E106" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
     </row>
     <row r="107" spans="1:5">
       <c r="A107" t="s">
-        <v>81</v>
+        <v>282</v>
       </c>
       <c r="B107" t="s">
-        <v>188</v>
+        <v>0</v>
       </c>
       <c r="C107" t="s">
-        <v>211</v>
+        <v>117</v>
       </c>
       <c r="D107">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E107" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5">
-      <c r="A108" t="s">
-        <v>82</v>
-      </c>
-      <c r="B108" t="s">
-        <v>188</v>
-      </c>
-      <c r="C108" t="s">
-        <v>211</v>
-      </c>
-      <c r="D108">
-        <v>1</v>
-      </c>
-      <c r="E108" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
     </row>
     <row r="109" spans="1:5">
       <c r="A109" t="s">
-        <v>85</v>
+        <v>17</v>
       </c>
       <c r="B109" t="s">
-        <v>188</v>
+        <v>123</v>
       </c>
       <c r="C109" t="s">
-        <v>211</v>
+        <v>125</v>
       </c>
       <c r="D109">
         <v>1</v>
       </c>
       <c r="E109" t="s">
-        <v>110</v>
+        <v>80</v>
       </c>
     </row>
     <row r="110" spans="1:5">
       <c r="A110" t="s">
-        <v>163</v>
+        <v>83</v>
       </c>
       <c r="B110" t="s">
-        <v>188</v>
+        <v>1</v>
       </c>
       <c r="C110" t="s">
-        <v>211</v>
+        <v>136</v>
       </c>
       <c r="D110">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E110" t="s">
-        <v>110</v>
+        <v>80</v>
       </c>
     </row>
     <row r="111" spans="1:5">
       <c r="A111" t="s">
-        <v>164</v>
+        <v>84</v>
       </c>
       <c r="B111" t="s">
-        <v>188</v>
+        <v>1</v>
       </c>
       <c r="C111" t="s">
-        <v>211</v>
+        <v>136</v>
       </c>
       <c r="D111">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E111" t="s">
-        <v>110</v>
+        <v>80</v>
       </c>
     </row>
     <row r="112" spans="1:5">
       <c r="A112" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="B112" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C112" t="s">
-        <v>187</v>
+        <v>131</v>
       </c>
       <c r="D112">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E112" t="s">
-        <v>110</v>
+        <v>80</v>
       </c>
     </row>
     <row r="113" spans="1:5">
       <c r="A113" t="s">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="B113" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C113" t="s">
-        <v>187</v>
+        <v>131</v>
       </c>
       <c r="D113">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E113" t="s">
-        <v>110</v>
+        <v>80</v>
       </c>
     </row>
     <row r="114" spans="1:5">
       <c r="A114" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="B114" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C114" t="s">
-        <v>187</v>
+        <v>131</v>
       </c>
       <c r="D114">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E114" t="s">
-        <v>110</v>
+        <v>80</v>
       </c>
     </row>
     <row r="115" spans="1:5">
       <c r="A115" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="B115" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C115" t="s">
-        <v>187</v>
+        <v>131</v>
       </c>
       <c r="D115">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E115" t="s">
-        <v>110</v>
+        <v>80</v>
       </c>
     </row>
     <row r="116" spans="1:5">
       <c r="A116" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="B116" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C116" t="s">
-        <v>187</v>
+        <v>131</v>
       </c>
       <c r="D116">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E116" t="s">
-        <v>110</v>
+        <v>80</v>
       </c>
     </row>
     <row r="117" spans="1:5">
       <c r="A117" t="s">
-        <v>15</v>
+        <v>107</v>
       </c>
       <c r="B117" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C117" t="s">
-        <v>187</v>
+        <v>131</v>
       </c>
       <c r="D117">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E117" t="s">
-        <v>110</v>
+        <v>80</v>
       </c>
     </row>
     <row r="118" spans="1:5">
       <c r="A118" t="s">
-        <v>209</v>
+        <v>89</v>
       </c>
       <c r="B118" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C118" t="s">
-        <v>192</v>
+        <v>131</v>
       </c>
       <c r="D118">
         <v>3</v>
       </c>
       <c r="E118" t="s">
-        <v>110</v>
+        <v>80</v>
       </c>
     </row>
     <row r="119" spans="1:5">
       <c r="A119" t="s">
-        <v>233</v>
+        <v>91</v>
       </c>
       <c r="B119" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C119" t="s">
-        <v>192</v>
+        <v>131</v>
       </c>
       <c r="D119">
         <v>3</v>
       </c>
       <c r="E119" t="s">
-        <v>110</v>
+        <v>80</v>
       </c>
     </row>
     <row r="120" spans="1:5">
       <c r="A120" t="s">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="B120" t="s">
-        <v>189</v>
+        <v>1</v>
       </c>
       <c r="C120" t="s">
-        <v>198</v>
+        <v>131</v>
       </c>
       <c r="D120">
         <v>3</v>
       </c>
       <c r="E120" t="s">
-        <v>110</v>
+        <v>80</v>
       </c>
     </row>
     <row r="121" spans="1:5">
       <c r="A121" t="s">
-        <v>26</v>
+        <v>92</v>
       </c>
       <c r="B121" t="s">
-        <v>188</v>
+        <v>1</v>
       </c>
       <c r="C121" t="s">
-        <v>195</v>
+        <v>131</v>
       </c>
       <c r="D121">
         <v>3</v>
       </c>
       <c r="E121" t="s">
-        <v>110</v>
+        <v>80</v>
       </c>
     </row>
     <row r="122" spans="1:5">
       <c r="A122" t="s">
-        <v>322</v>
+        <v>93</v>
       </c>
       <c r="B122" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C122" t="s">
-        <v>192</v>
+        <v>131</v>
       </c>
       <c r="D122">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E122" t="s">
-        <v>185</v>
+        <v>80</v>
       </c>
     </row>
     <row r="123" spans="1:5">
       <c r="A123" t="s">
-        <v>143</v>
+        <v>18</v>
       </c>
       <c r="B123" t="s">
-        <v>2</v>
+        <v>123</v>
       </c>
       <c r="C123" t="s">
-        <v>192</v>
-      </c>
-      <c r="D123">
-        <v>1</v>
+        <v>126</v>
       </c>
       <c r="E123" t="s">
-        <v>185</v>
+        <v>80</v>
       </c>
     </row>
     <row r="124" spans="1:5">
       <c r="A124" t="s">
-        <v>118</v>
+        <v>87</v>
       </c>
       <c r="B124" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C124" t="s">
-        <v>192</v>
+        <v>147</v>
       </c>
       <c r="D124">
         <v>1</v>
       </c>
       <c r="E124" t="s">
-        <v>185</v>
+        <v>140</v>
       </c>
     </row>
     <row r="125" spans="1:5">
       <c r="A125" t="s">
-        <v>119</v>
+        <v>172</v>
       </c>
       <c r="B125" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C125" t="s">
-        <v>192</v>
+        <v>147</v>
       </c>
       <c r="D125">
         <v>1</v>
       </c>
       <c r="E125" t="s">
-        <v>185</v>
+        <v>140</v>
       </c>
     </row>
     <row r="126" spans="1:5">
       <c r="A126" t="s">
-        <v>120</v>
+        <v>166</v>
       </c>
       <c r="B126" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C126" t="s">
-        <v>192</v>
+        <v>147</v>
       </c>
       <c r="D126">
         <v>1</v>
       </c>
       <c r="E126" t="s">
-        <v>185</v>
+        <v>140</v>
       </c>
     </row>
     <row r="127" spans="1:5">
       <c r="A127" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
       <c r="B127" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C127" t="s">
-        <v>192</v>
+        <v>147</v>
       </c>
       <c r="D127">
         <v>1</v>
       </c>
       <c r="E127" t="s">
-        <v>185</v>
+        <v>140</v>
       </c>
     </row>
     <row r="128" spans="1:5">
       <c r="A128" t="s">
-        <v>149</v>
+        <v>99</v>
       </c>
       <c r="B128" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C128" t="s">
-        <v>192</v>
+        <v>135</v>
       </c>
       <c r="D128">
         <v>1</v>
       </c>
       <c r="E128" t="s">
-        <v>185</v>
+        <v>140</v>
       </c>
     </row>
     <row r="129" spans="1:5">
       <c r="A129" t="s">
-        <v>150</v>
+        <v>7</v>
       </c>
       <c r="B129" t="s">
+        <v>0</v>
+      </c>
+      <c r="C129" t="s">
+        <v>121</v>
+      </c>
+      <c r="D129">
         <v>2</v>
       </c>
-      <c r="C129" t="s">
-        <v>192</v>
-      </c>
-      <c r="D129">
-        <v>1</v>
-      </c>
       <c r="E129" t="s">
-        <v>185</v>
+        <v>140</v>
       </c>
     </row>
     <row r="130" spans="1:5">
       <c r="A130" t="s">
-        <v>151</v>
+        <v>8</v>
       </c>
       <c r="B130" t="s">
+        <v>0</v>
+      </c>
+      <c r="C130" t="s">
+        <v>121</v>
+      </c>
+      <c r="D130">
         <v>2</v>
       </c>
-      <c r="C130" t="s">
-        <v>192</v>
-      </c>
-      <c r="D130">
-        <v>1</v>
-      </c>
       <c r="E130" t="s">
-        <v>185</v>
+        <v>140</v>
       </c>
     </row>
     <row r="131" spans="1:5">
       <c r="A131" t="s">
-        <v>152</v>
+        <v>25</v>
       </c>
       <c r="B131" t="s">
+        <v>0</v>
+      </c>
+      <c r="C131" t="s">
+        <v>121</v>
+      </c>
+      <c r="D131">
         <v>2</v>
       </c>
-      <c r="C131" t="s">
-        <v>192</v>
-      </c>
-      <c r="D131">
-        <v>1</v>
-      </c>
       <c r="E131" t="s">
-        <v>185</v>
+        <v>140</v>
       </c>
     </row>
     <row r="132" spans="1:5">
       <c r="A132" t="s">
-        <v>153</v>
+        <v>26</v>
       </c>
       <c r="B132" t="s">
+        <v>0</v>
+      </c>
+      <c r="C132" t="s">
+        <v>121</v>
+      </c>
+      <c r="D132">
         <v>2</v>
       </c>
-      <c r="C132" t="s">
-        <v>192</v>
-      </c>
-      <c r="D132">
-        <v>1</v>
-      </c>
       <c r="E132" t="s">
-        <v>185</v>
+        <v>140</v>
       </c>
     </row>
     <row r="133" spans="1:5">
       <c r="A133" t="s">
-        <v>154</v>
+        <v>35</v>
       </c>
       <c r="B133" t="s">
+        <v>0</v>
+      </c>
+      <c r="C133" t="s">
+        <v>121</v>
+      </c>
+      <c r="D133">
         <v>2</v>
       </c>
-      <c r="C133" t="s">
-        <v>192</v>
-      </c>
-      <c r="D133">
-        <v>1</v>
-      </c>
       <c r="E133" t="s">
-        <v>185</v>
+        <v>140</v>
       </c>
     </row>
     <row r="134" spans="1:5">
       <c r="A134" t="s">
-        <v>155</v>
+        <v>279</v>
       </c>
       <c r="B134" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C134" t="s">
-        <v>192</v>
+        <v>136</v>
       </c>
       <c r="D134">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E134" t="s">
-        <v>185</v>
+        <v>140</v>
       </c>
     </row>
     <row r="135" spans="1:5">
       <c r="A135" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="B135" t="s">
-        <v>2</v>
+        <v>123</v>
       </c>
       <c r="C135" t="s">
-        <v>192</v>
+        <v>146</v>
       </c>
       <c r="D135">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E135" t="s">
-        <v>185</v>
+        <v>140</v>
       </c>
     </row>
     <row r="136" spans="1:5">
       <c r="A136" t="s">
-        <v>220</v>
+        <v>168</v>
       </c>
       <c r="B136" t="s">
-        <v>2</v>
+        <v>123</v>
       </c>
       <c r="C136" t="s">
-        <v>192</v>
+        <v>146</v>
       </c>
       <c r="D136">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E136" t="s">
-        <v>185</v>
+        <v>140</v>
       </c>
     </row>
     <row r="137" spans="1:5">
       <c r="A137" t="s">
-        <v>221</v>
+        <v>169</v>
       </c>
       <c r="B137" t="s">
-        <v>2</v>
+        <v>123</v>
       </c>
       <c r="C137" t="s">
-        <v>192</v>
+        <v>146</v>
       </c>
       <c r="D137">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E137" t="s">
-        <v>185</v>
+        <v>140</v>
       </c>
     </row>
     <row r="138" spans="1:5">
       <c r="A138" t="s">
-        <v>222</v>
+        <v>170</v>
       </c>
       <c r="B138" t="s">
-        <v>2</v>
+        <v>123</v>
       </c>
       <c r="C138" t="s">
-        <v>192</v>
+        <v>146</v>
       </c>
       <c r="D138">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E138" t="s">
-        <v>185</v>
+        <v>140</v>
       </c>
     </row>
     <row r="139" spans="1:5">
       <c r="A139" t="s">
-        <v>116</v>
+        <v>86</v>
       </c>
       <c r="B139" t="s">
-        <v>188</v>
+        <v>124</v>
       </c>
       <c r="C139" t="s">
-        <v>206</v>
+        <v>148</v>
       </c>
       <c r="D139">
         <v>1</v>
       </c>
       <c r="E139" t="s">
-        <v>185</v>
+        <v>129</v>
       </c>
     </row>
     <row r="140" spans="1:5">
       <c r="A140" t="s">
-        <v>117</v>
+        <v>88</v>
       </c>
       <c r="B140" t="s">
-        <v>188</v>
+        <v>124</v>
       </c>
       <c r="C140" t="s">
-        <v>206</v>
+        <v>148</v>
       </c>
       <c r="D140">
         <v>1</v>
       </c>
       <c r="E140" t="s">
-        <v>185</v>
+        <v>129</v>
       </c>
     </row>
     <row r="141" spans="1:5">
       <c r="A141" t="s">
-        <v>147</v>
+        <v>64</v>
       </c>
       <c r="B141" t="s">
-        <v>188</v>
+        <v>124</v>
       </c>
       <c r="C141" t="s">
-        <v>206</v>
+        <v>148</v>
       </c>
       <c r="D141">
         <v>1</v>
       </c>
       <c r="E141" t="s">
-        <v>185</v>
+        <v>129</v>
       </c>
     </row>
     <row r="142" spans="1:5">
       <c r="A142" t="s">
-        <v>157</v>
+        <v>65</v>
       </c>
       <c r="B142" t="s">
-        <v>188</v>
+        <v>124</v>
       </c>
       <c r="C142" t="s">
-        <v>206</v>
+        <v>148</v>
       </c>
       <c r="D142">
         <v>1</v>
       </c>
       <c r="E142" t="s">
-        <v>185</v>
+        <v>129</v>
       </c>
     </row>
     <row r="143" spans="1:5">
       <c r="A143" t="s">
-        <v>135</v>
+        <v>67</v>
       </c>
       <c r="B143" t="s">
-        <v>189</v>
+        <v>124</v>
       </c>
       <c r="C143" t="s">
-        <v>210</v>
+        <v>148</v>
       </c>
       <c r="D143">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E143" t="s">
-        <v>185</v>
+        <v>129</v>
       </c>
     </row>
     <row r="144" spans="1:5">
       <c r="A144" t="s">
-        <v>136</v>
+        <v>68</v>
       </c>
       <c r="B144" t="s">
-        <v>189</v>
+        <v>124</v>
       </c>
       <c r="C144" t="s">
-        <v>210</v>
+        <v>148</v>
       </c>
       <c r="D144">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E144" t="s">
-        <v>185</v>
+        <v>129</v>
       </c>
     </row>
     <row r="145" spans="1:5">
       <c r="A145" t="s">
-        <v>33</v>
+        <v>69</v>
       </c>
       <c r="B145" t="s">
-        <v>1</v>
+        <v>124</v>
       </c>
       <c r="C145" t="s">
-        <v>196</v>
+        <v>148</v>
       </c>
       <c r="D145">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E145" t="s">
-        <v>185</v>
+        <v>129</v>
       </c>
     </row>
     <row r="146" spans="1:5">
       <c r="A146" t="s">
-        <v>162</v>
+        <v>70</v>
       </c>
       <c r="B146" t="s">
-        <v>1</v>
+        <v>124</v>
       </c>
       <c r="C146" t="s">
-        <v>196</v>
+        <v>148</v>
       </c>
       <c r="D146">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E146" t="s">
-        <v>185</v>
+        <v>129</v>
       </c>
     </row>
     <row r="147" spans="1:5">
       <c r="A147" t="s">
-        <v>167</v>
+        <v>71</v>
       </c>
       <c r="B147" t="s">
-        <v>1</v>
+        <v>124</v>
       </c>
       <c r="C147" t="s">
-        <v>196</v>
+        <v>148</v>
       </c>
       <c r="D147">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E147" t="s">
-        <v>185</v>
+        <v>129</v>
       </c>
     </row>
     <row r="148" spans="1:5">
       <c r="A148" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B148" t="s">
-        <v>1</v>
+        <v>124</v>
       </c>
       <c r="C148" t="s">
-        <v>196</v>
+        <v>148</v>
       </c>
       <c r="D148">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E148" t="s">
-        <v>185</v>
+        <v>129</v>
       </c>
     </row>
     <row r="149" spans="1:5">
       <c r="A149" t="s">
-        <v>11</v>
+        <v>79</v>
       </c>
       <c r="B149" t="s">
-        <v>1</v>
+        <v>124</v>
       </c>
       <c r="C149" t="s">
-        <v>196</v>
+        <v>148</v>
       </c>
       <c r="D149">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E149" t="s">
-        <v>185</v>
+        <v>129</v>
       </c>
     </row>
     <row r="150" spans="1:5">
       <c r="A150" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="B150" t="s">
-        <v>1</v>
+        <v>124</v>
       </c>
       <c r="C150" t="s">
-        <v>196</v>
+        <v>148</v>
       </c>
       <c r="D150">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E150" t="s">
-        <v>185</v>
+        <v>129</v>
       </c>
     </row>
     <row r="151" spans="1:5">
       <c r="A151" t="s">
-        <v>54</v>
+        <v>95</v>
       </c>
       <c r="B151" t="s">
-        <v>1</v>
+        <v>124</v>
       </c>
       <c r="C151" t="s">
-        <v>196</v>
+        <v>148</v>
       </c>
       <c r="D151">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E151" t="s">
-        <v>185</v>
+        <v>129</v>
       </c>
     </row>
     <row r="152" spans="1:5">
       <c r="A152" t="s">
-        <v>55</v>
+        <v>96</v>
       </c>
       <c r="B152" t="s">
-        <v>1</v>
+        <v>124</v>
       </c>
       <c r="C152" t="s">
-        <v>196</v>
+        <v>148</v>
       </c>
       <c r="D152">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E152" t="s">
-        <v>185</v>
+        <v>129</v>
       </c>
     </row>
     <row r="153" spans="1:5">
       <c r="A153" t="s">
-        <v>56</v>
+        <v>106</v>
       </c>
       <c r="B153" t="s">
-        <v>1</v>
+        <v>124</v>
       </c>
       <c r="C153" t="s">
-        <v>196</v>
+        <v>148</v>
       </c>
       <c r="D153">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E153" t="s">
-        <v>185</v>
+        <v>129</v>
       </c>
     </row>
     <row r="154" spans="1:5">
       <c r="A154" t="s">
-        <v>57</v>
+        <v>28</v>
       </c>
       <c r="B154" t="s">
-        <v>1</v>
+        <v>124</v>
       </c>
       <c r="C154" t="s">
-        <v>196</v>
+        <v>132</v>
       </c>
       <c r="D154">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E154" t="s">
-        <v>185</v>
+        <v>129</v>
       </c>
     </row>
     <row r="155" spans="1:5">
       <c r="A155" t="s">
-        <v>58</v>
+        <v>94</v>
       </c>
       <c r="B155" t="s">
-        <v>1</v>
+        <v>124</v>
       </c>
       <c r="C155" t="s">
-        <v>196</v>
+        <v>132</v>
       </c>
       <c r="D155">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E155" t="s">
-        <v>185</v>
+        <v>129</v>
       </c>
     </row>
     <row r="156" spans="1:5">
       <c r="A156" t="s">
-        <v>59</v>
+        <v>82</v>
       </c>
       <c r="B156" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C156" t="s">
-        <v>196</v>
+        <v>127</v>
       </c>
       <c r="D156">
         <v>3</v>
       </c>
       <c r="E156" t="s">
-        <v>185</v>
+        <v>129</v>
       </c>
     </row>
     <row r="157" spans="1:5">
       <c r="A157" t="s">
-        <v>60</v>
+        <v>111</v>
       </c>
       <c r="B157" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C157" t="s">
-        <v>196</v>
+        <v>117</v>
       </c>
       <c r="D157">
         <v>3</v>
       </c>
       <c r="E157" t="s">
-        <v>185</v>
+        <v>129</v>
       </c>
     </row>
     <row r="158" spans="1:5">
       <c r="A158" t="s">
-        <v>62</v>
+        <v>81</v>
       </c>
       <c r="B158" t="s">
-        <v>1</v>
+        <v>123</v>
       </c>
       <c r="C158" t="s">
-        <v>196</v>
+        <v>141</v>
       </c>
       <c r="D158">
         <v>3</v>
       </c>
       <c r="E158" t="s">
-        <v>185</v>
+        <v>129</v>
       </c>
     </row>
     <row r="159" spans="1:5">
       <c r="A159" t="s">
-        <v>63</v>
+        <v>85</v>
       </c>
       <c r="B159" t="s">
-        <v>1</v>
+        <v>124</v>
       </c>
       <c r="C159" t="s">
-        <v>196</v>
+        <v>148</v>
       </c>
       <c r="D159">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E159" t="s">
-        <v>185</v>
+        <v>139</v>
       </c>
     </row>
     <row r="160" spans="1:5">
       <c r="A160" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="B160" t="s">
-        <v>1</v>
+        <v>123</v>
       </c>
       <c r="C160" t="s">
-        <v>196</v>
+        <v>146</v>
       </c>
       <c r="D160">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E160" t="s">
-        <v>185</v>
+        <v>139</v>
       </c>
     </row>
     <row r="161" spans="1:5">
       <c r="A161" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="B161" t="s">
-        <v>1</v>
+        <v>123</v>
       </c>
       <c r="C161" t="s">
-        <v>196</v>
+        <v>146</v>
       </c>
       <c r="D161">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E161" t="s">
-        <v>185</v>
+        <v>139</v>
       </c>
     </row>
     <row r="162" spans="1:5">
       <c r="A162" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="B162" t="s">
-        <v>1</v>
+        <v>123</v>
       </c>
       <c r="C162" t="s">
-        <v>196</v>
+        <v>146</v>
       </c>
       <c r="D162">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E162" t="s">
-        <v>185</v>
+        <v>139</v>
       </c>
     </row>
     <row r="163" spans="1:5">
       <c r="A163" t="s">
-        <v>227</v>
+        <v>55</v>
       </c>
       <c r="B163" t="s">
-        <v>1</v>
+        <v>123</v>
       </c>
       <c r="C163" t="s">
-        <v>196</v>
+        <v>146</v>
       </c>
       <c r="D163">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E163" t="s">
-        <v>185</v>
+        <v>139</v>
       </c>
     </row>
     <row r="164" spans="1:5">
       <c r="A164" t="s">
-        <v>228</v>
+        <v>56</v>
       </c>
       <c r="B164" t="s">
-        <v>1</v>
+        <v>123</v>
       </c>
       <c r="C164" t="s">
-        <v>196</v>
+        <v>146</v>
       </c>
       <c r="D164">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E164" t="s">
-        <v>185</v>
+        <v>139</v>
       </c>
     </row>
     <row r="165" spans="1:5">
       <c r="A165" t="s">
-        <v>131</v>
+        <v>57</v>
       </c>
       <c r="B165" t="s">
-        <v>1</v>
+        <v>123</v>
       </c>
       <c r="C165" t="s">
-        <v>196</v>
+        <v>146</v>
       </c>
       <c r="D165">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E165" t="s">
-        <v>185</v>
+        <v>139</v>
       </c>
     </row>
     <row r="166" spans="1:5">
       <c r="A166" t="s">
-        <v>132</v>
+        <v>58</v>
       </c>
       <c r="B166" t="s">
-        <v>1</v>
+        <v>123</v>
       </c>
       <c r="C166" t="s">
-        <v>196</v>
+        <v>146</v>
       </c>
       <c r="D166">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E166" t="s">
-        <v>185</v>
+        <v>139</v>
       </c>
     </row>
     <row r="167" spans="1:5">
       <c r="A167" t="s">
-        <v>133</v>
+        <v>59</v>
       </c>
       <c r="B167" t="s">
-        <v>1</v>
+        <v>123</v>
       </c>
       <c r="C167" t="s">
-        <v>196</v>
+        <v>146</v>
       </c>
       <c r="D167">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E167" t="s">
-        <v>185</v>
+        <v>139</v>
       </c>
     </row>
     <row r="168" spans="1:5">
       <c r="A168" t="s">
-        <v>19</v>
+        <v>60</v>
       </c>
       <c r="B168" t="s">
-        <v>188</v>
+        <v>123</v>
       </c>
       <c r="C168" t="s">
-        <v>191</v>
+        <v>146</v>
       </c>
       <c r="D168">
         <v>1</v>
       </c>
       <c r="E168" t="s">
-        <v>115</v>
+        <v>139</v>
       </c>
     </row>
     <row r="169" spans="1:5">
       <c r="A169" t="s">
-        <v>18</v>
+        <v>61</v>
       </c>
       <c r="B169" t="s">
-        <v>188</v>
+        <v>123</v>
       </c>
       <c r="C169" t="s">
-        <v>190</v>
+        <v>146</v>
       </c>
       <c r="D169">
         <v>1</v>
       </c>
       <c r="E169" t="s">
-        <v>115</v>
+        <v>139</v>
       </c>
     </row>
     <row r="170" spans="1:5">
       <c r="A170" t="s">
-        <v>123</v>
+        <v>62</v>
       </c>
       <c r="B170" t="s">
-        <v>1</v>
+        <v>123</v>
       </c>
       <c r="C170" t="s">
-        <v>201</v>
+        <v>146</v>
       </c>
       <c r="D170">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E170" t="s">
-        <v>115</v>
+        <v>139</v>
       </c>
     </row>
     <row r="171" spans="1:5">
       <c r="A171" t="s">
-        <v>124</v>
+        <v>63</v>
       </c>
       <c r="B171" t="s">
-        <v>1</v>
+        <v>123</v>
       </c>
       <c r="C171" t="s">
-        <v>201</v>
+        <v>146</v>
       </c>
       <c r="D171">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E171" t="s">
-        <v>115</v>
+        <v>139</v>
       </c>
     </row>
     <row r="172" spans="1:5">
       <c r="A172" t="s">
-        <v>125</v>
+        <v>72</v>
       </c>
       <c r="B172" t="s">
-        <v>1</v>
+        <v>123</v>
       </c>
       <c r="C172" t="s">
-        <v>201</v>
+        <v>146</v>
       </c>
       <c r="D172">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E172" t="s">
-        <v>115</v>
+        <v>139</v>
       </c>
     </row>
     <row r="173" spans="1:5">
       <c r="A173" t="s">
-        <v>126</v>
+        <v>76</v>
       </c>
       <c r="B173" t="s">
-        <v>1</v>
+        <v>123</v>
       </c>
       <c r="C173" t="s">
-        <v>201</v>
+        <v>146</v>
       </c>
       <c r="D173">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E173" t="s">
-        <v>115</v>
+        <v>139</v>
       </c>
     </row>
     <row r="174" spans="1:5">
       <c r="A174" t="s">
-        <v>127</v>
+        <v>109</v>
       </c>
       <c r="B174" t="s">
-        <v>1</v>
+        <v>123</v>
       </c>
       <c r="C174" t="s">
-        <v>201</v>
+        <v>146</v>
       </c>
       <c r="D174">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E174" t="s">
-        <v>115</v>
+        <v>139</v>
       </c>
     </row>
     <row r="175" spans="1:5">
       <c r="A175" t="s">
-        <v>128</v>
+        <v>77</v>
       </c>
       <c r="B175" t="s">
-        <v>1</v>
+        <v>123</v>
       </c>
       <c r="C175" t="s">
-        <v>201</v>
+        <v>146</v>
       </c>
       <c r="D175">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E175" t="s">
-        <v>115</v>
+        <v>139</v>
       </c>
     </row>
     <row r="176" spans="1:5">
       <c r="A176" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="B176" t="s">
-        <v>1</v>
+        <v>123</v>
       </c>
       <c r="C176" t="s">
-        <v>196</v>
+        <v>146</v>
       </c>
       <c r="D176">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E176" t="s">
-        <v>115</v>
+        <v>139</v>
       </c>
     </row>
     <row r="177" spans="1:5">
       <c r="A177" t="s">
-        <v>68</v>
+        <v>104</v>
       </c>
       <c r="B177" t="s">
-        <v>1</v>
+        <v>123</v>
       </c>
       <c r="C177" t="s">
-        <v>196</v>
+        <v>146</v>
       </c>
       <c r="D177">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E177" t="s">
-        <v>115</v>
+        <v>139</v>
       </c>
     </row>
     <row r="178" spans="1:5">
       <c r="A178" t="s">
-        <v>69</v>
+        <v>105</v>
       </c>
       <c r="B178" t="s">
-        <v>1</v>
+        <v>123</v>
       </c>
       <c r="C178" t="s">
-        <v>196</v>
+        <v>146</v>
       </c>
       <c r="D178">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E178" t="s">
-        <v>115</v>
+        <v>139</v>
       </c>
     </row>
     <row r="179" spans="1:5">
       <c r="A179" t="s">
-        <v>71</v>
+        <v>50</v>
       </c>
       <c r="B179" t="s">
-        <v>1</v>
+        <v>123</v>
       </c>
       <c r="C179" t="s">
-        <v>196</v>
+        <v>146</v>
       </c>
       <c r="D179">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E179" t="s">
-        <v>115</v>
+        <v>139</v>
       </c>
     </row>
     <row r="180" spans="1:5">
       <c r="A180" t="s">
-        <v>72</v>
+        <v>283</v>
       </c>
       <c r="B180" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C180" t="s">
-        <v>196</v>
-      </c>
-      <c r="D180">
-        <v>3</v>
-      </c>
-      <c r="E180" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
     </row>
     <row r="181" spans="1:5">
       <c r="A181" t="s">
-        <v>169</v>
+        <v>101</v>
       </c>
       <c r="B181" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C181" t="s">
-        <v>196</v>
-      </c>
-      <c r="D181">
-        <v>3</v>
-      </c>
-      <c r="E181" t="s">
-        <v>115</v>
+        <v>127</v>
       </c>
     </row>
     <row r="182" spans="1:5">
       <c r="A182" t="s">
-        <v>138</v>
+        <v>199</v>
       </c>
       <c r="B182" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C182" t="s">
-        <v>196</v>
-      </c>
-      <c r="D182">
-        <v>3</v>
-      </c>
-      <c r="E182" t="s">
-        <v>115</v>
+        <v>127</v>
       </c>
     </row>
     <row r="183" spans="1:5">
       <c r="A183" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B183" t="s">
-        <v>1</v>
+        <v>124</v>
       </c>
       <c r="C183" t="s">
-        <v>196</v>
-      </c>
-      <c r="D183">
-        <v>3</v>
-      </c>
-      <c r="E183" t="s">
-        <v>115</v>
+        <v>145</v>
       </c>
     </row>
     <row r="184" spans="1:5">
       <c r="A184" t="s">
-        <v>139</v>
+        <v>41</v>
       </c>
       <c r="B184" t="s">
-        <v>1</v>
+        <v>124</v>
       </c>
       <c r="C184" t="s">
-        <v>196</v>
-      </c>
-      <c r="D184">
-        <v>3</v>
-      </c>
-      <c r="E184" t="s">
-        <v>115</v>
+        <v>145</v>
       </c>
     </row>
     <row r="185" spans="1:5">
       <c r="A185" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B185" t="s">
-        <v>1</v>
+        <v>124</v>
       </c>
       <c r="C185" t="s">
-        <v>196</v>
-      </c>
-      <c r="D185">
-        <v>3</v>
-      </c>
-      <c r="E185" t="s">
-        <v>115</v>
+        <v>145</v>
       </c>
     </row>
     <row r="186" spans="1:5">
       <c r="A186" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B186" t="s">
-        <v>1</v>
+        <v>124</v>
       </c>
       <c r="C186" t="s">
-        <v>196</v>
-      </c>
-      <c r="D186">
-        <v>3</v>
-      </c>
-      <c r="E186" t="s">
-        <v>115</v>
+        <v>145</v>
       </c>
     </row>
     <row r="187" spans="1:5">
       <c r="A187" t="s">
-        <v>134</v>
+        <v>74</v>
       </c>
       <c r="B187" t="s">
-        <v>1</v>
+        <v>124</v>
       </c>
       <c r="C187" t="s">
-        <v>212</v>
-      </c>
-      <c r="D187">
-        <v>1</v>
-      </c>
-      <c r="E187" t="s">
-        <v>205</v>
+        <v>145</v>
       </c>
     </row>
     <row r="188" spans="1:5">
       <c r="A188" t="s">
-        <v>242</v>
+        <v>75</v>
       </c>
       <c r="B188" t="s">
-        <v>1</v>
+        <v>124</v>
       </c>
       <c r="C188" t="s">
-        <v>212</v>
-      </c>
-      <c r="D188">
-        <v>1</v>
-      </c>
-      <c r="E188" t="s">
-        <v>205</v>
+        <v>145</v>
       </c>
     </row>
     <row r="189" spans="1:5">
       <c r="A189" t="s">
-        <v>236</v>
+        <v>149</v>
       </c>
       <c r="B189" t="s">
-        <v>1</v>
+        <v>123</v>
       </c>
       <c r="C189" t="s">
-        <v>212</v>
-      </c>
-      <c r="D189">
-        <v>1</v>
-      </c>
-      <c r="E189" t="s">
-        <v>205</v>
+        <v>150</v>
       </c>
     </row>
     <row r="190" spans="1:5">
       <c r="A190" t="s">
-        <v>199</v>
+        <v>151</v>
       </c>
       <c r="B190" t="s">
-        <v>1</v>
+        <v>123</v>
       </c>
       <c r="C190" t="s">
-        <v>212</v>
-      </c>
-      <c r="D190">
-        <v>1</v>
-      </c>
-      <c r="E190" t="s">
-        <v>205</v>
+        <v>150</v>
       </c>
     </row>
     <row r="191" spans="1:5">
       <c r="A191" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="B191" t="s">
-        <v>1</v>
+        <v>123</v>
       </c>
       <c r="C191" t="s">
-        <v>200</v>
-      </c>
-      <c r="D191">
-        <v>1</v>
-      </c>
-      <c r="E191" t="s">
-        <v>205</v>
+        <v>150</v>
       </c>
     </row>
     <row r="192" spans="1:5">
       <c r="A192" t="s">
-        <v>8</v>
+        <v>153</v>
       </c>
       <c r="B192" t="s">
-        <v>0</v>
+        <v>123</v>
       </c>
       <c r="C192" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3">
+      <c r="A193" t="s">
+        <v>154</v>
+      </c>
+      <c r="B193" t="s">
+        <v>123</v>
+      </c>
+      <c r="C193" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3">
+      <c r="A194" t="s">
+        <v>5</v>
+      </c>
+      <c r="B194" t="s">
+        <v>0</v>
+      </c>
+      <c r="C194" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3">
+      <c r="A195" t="s">
+        <v>6</v>
+      </c>
+      <c r="B195" t="s">
+        <v>0</v>
+      </c>
+      <c r="C195" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3">
+      <c r="A196" t="s">
+        <v>22</v>
+      </c>
+      <c r="B196" t="s">
+        <v>0</v>
+      </c>
+      <c r="C196" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3">
+      <c r="A197" t="s">
+        <v>23</v>
+      </c>
+      <c r="B197" t="s">
+        <v>0</v>
+      </c>
+      <c r="C197" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3">
+      <c r="A198" t="s">
+        <v>137</v>
+      </c>
+      <c r="B198" t="s">
+        <v>1</v>
+      </c>
+      <c r="C198" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3">
+      <c r="A199" t="s">
+        <v>98</v>
+      </c>
+      <c r="B199" t="s">
+        <v>2</v>
+      </c>
+      <c r="C199" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3">
+      <c r="A200" t="s">
+        <v>100</v>
+      </c>
+      <c r="B200" t="s">
+        <v>123</v>
+      </c>
+      <c r="C200" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3">
+      <c r="A201" t="s">
+        <v>20</v>
+      </c>
+      <c r="B201" t="s">
+        <v>123</v>
+      </c>
+      <c r="C201" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3">
+      <c r="A202" t="s">
+        <v>201</v>
+      </c>
+      <c r="B202" t="s">
+        <v>0</v>
+      </c>
+      <c r="C202" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3">
+      <c r="A203" t="s">
+        <v>24</v>
+      </c>
+      <c r="B203" t="s">
+        <v>0</v>
+      </c>
+      <c r="C203" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3">
+      <c r="A204" t="s">
+        <v>42</v>
+      </c>
+      <c r="B204" t="s">
+        <v>123</v>
+      </c>
+      <c r="C204" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3">
+      <c r="A205" t="s">
+        <v>43</v>
+      </c>
+      <c r="B205" t="s">
+        <v>123</v>
+      </c>
+      <c r="C205" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3">
+      <c r="A206" t="s">
+        <v>44</v>
+      </c>
+      <c r="B206" t="s">
+        <v>123</v>
+      </c>
+      <c r="C206" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3">
+      <c r="A207" t="s">
+        <v>45</v>
+      </c>
+      <c r="B207" t="s">
+        <v>123</v>
+      </c>
+      <c r="C207" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" ht="15" customHeight="1">
+      <c r="A208" t="s">
+        <v>46</v>
+      </c>
+      <c r="B208" t="s">
+        <v>123</v>
+      </c>
+      <c r="C208" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3">
+      <c r="A209" t="s">
+        <v>47</v>
+      </c>
+      <c r="B209" t="s">
+        <v>123</v>
+      </c>
+      <c r="C209" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3">
+      <c r="A210" t="s">
+        <v>48</v>
+      </c>
+      <c r="B210" t="s">
+        <v>123</v>
+      </c>
+      <c r="C210" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3">
+      <c r="A211" t="s">
+        <v>49</v>
+      </c>
+      <c r="B211" t="s">
+        <v>123</v>
+      </c>
+      <c r="C211" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3">
+      <c r="A212" t="s">
+        <v>52</v>
+      </c>
+      <c r="B212" t="s">
+        <v>123</v>
+      </c>
+      <c r="C212" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" ht="13.8" customHeight="1">
+      <c r="A213" t="s">
+        <v>102</v>
+      </c>
+      <c r="B213" t="s">
+        <v>123</v>
+      </c>
+      <c r="C213" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3">
+      <c r="A214" t="s">
+        <v>103</v>
+      </c>
+      <c r="B214" t="s">
+        <v>123</v>
+      </c>
+      <c r="C214" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3">
+      <c r="A215" t="s">
+        <v>9</v>
+      </c>
+      <c r="B215" t="s">
+        <v>0</v>
+      </c>
+      <c r="C215" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3">
+      <c r="A216" t="s">
+        <v>10</v>
+      </c>
+      <c r="B216" t="s">
+        <v>0</v>
+      </c>
+      <c r="C216" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3">
+      <c r="A217" t="s">
+        <v>11</v>
+      </c>
+      <c r="B217" t="s">
+        <v>0</v>
+      </c>
+      <c r="C217" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3">
+      <c r="A218" t="s">
+        <v>12</v>
+      </c>
+      <c r="B218" t="s">
+        <v>0</v>
+      </c>
+      <c r="C218" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3">
+      <c r="A219" t="s">
+        <v>13</v>
+      </c>
+      <c r="B219" t="s">
+        <v>0</v>
+      </c>
+      <c r="C219" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3">
+      <c r="A220" t="s">
+        <v>14</v>
+      </c>
+      <c r="B220" t="s">
+        <v>0</v>
+      </c>
+      <c r="C220" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3">
+      <c r="A221" t="s">
+        <v>163</v>
+      </c>
+      <c r="B221" t="s">
+        <v>2</v>
+      </c>
+      <c r="C221" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3">
+      <c r="A222" t="s">
+        <v>29</v>
+      </c>
+      <c r="B222" t="s">
+        <v>124</v>
+      </c>
+      <c r="C222" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3">
+      <c r="A223" t="s">
+        <v>21</v>
+      </c>
+      <c r="B223" t="s">
+        <v>123</v>
+      </c>
+      <c r="C223" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3">
+      <c r="A224" t="s">
+        <v>188</v>
+      </c>
+      <c r="B224" t="s">
+        <v>0</v>
+      </c>
+      <c r="C224" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3">
+      <c r="A225" t="s">
+        <v>200</v>
+      </c>
+      <c r="B225" t="s">
+        <v>0</v>
+      </c>
+      <c r="C225" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3">
+      <c r="A226" t="s">
+        <v>110</v>
+      </c>
+      <c r="B226" t="s">
+        <v>1</v>
+      </c>
+      <c r="C226" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3">
+      <c r="A227" t="s">
+        <v>185</v>
+      </c>
+      <c r="B227" t="s">
+        <v>182</v>
+      </c>
+      <c r="C227" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3">
+      <c r="A228" t="s">
+        <v>184</v>
+      </c>
+      <c r="B228" t="s">
+        <v>182</v>
+      </c>
+      <c r="C228" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3">
+      <c r="A229" t="s">
+        <v>195</v>
+      </c>
+      <c r="B229" t="s">
+        <v>0</v>
+      </c>
+      <c r="C229" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3">
+      <c r="A230" t="s">
+        <v>204</v>
+      </c>
+      <c r="B230" t="s">
+        <v>0</v>
+      </c>
+      <c r="C230" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3">
+      <c r="A231" t="s">
+        <v>203</v>
+      </c>
+      <c r="B231" t="s">
+        <v>0</v>
+      </c>
+      <c r="C231" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3">
+      <c r="A232" t="s">
+        <v>202</v>
+      </c>
+      <c r="B232" t="s">
+        <v>0</v>
+      </c>
+      <c r="C232" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3">
+      <c r="A233" t="s">
+        <v>205</v>
+      </c>
+      <c r="B233" t="s">
+        <v>0</v>
+      </c>
+      <c r="C233" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3">
+      <c r="A234" t="s">
+        <v>213</v>
+      </c>
+      <c r="B234" t="s">
+        <v>1</v>
+      </c>
+      <c r="C234" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3">
+      <c r="A235" t="s">
+        <v>217</v>
+      </c>
+      <c r="B235" t="s">
         <v>186</v>
       </c>
-      <c r="D192">
-        <v>2</v>
-      </c>
-      <c r="E192" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="193" spans="1:5">
-      <c r="A193" t="s">
-        <v>9</v>
-      </c>
-      <c r="B193" t="s">
-        <v>0</v>
-      </c>
-      <c r="C193" t="s">
+      <c r="C235" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3">
+      <c r="A236" t="s">
+        <v>218</v>
+      </c>
+      <c r="B236" t="s">
         <v>186</v>
       </c>
-      <c r="D193">
-        <v>2</v>
-      </c>
-      <c r="E193" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="194" spans="1:5">
-      <c r="A194" t="s">
-        <v>35</v>
-      </c>
-      <c r="B194" t="s">
-        <v>0</v>
-      </c>
-      <c r="C194" t="s">
+      <c r="C236" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3">
+      <c r="A237" t="s">
+        <v>219</v>
+      </c>
+      <c r="B237" t="s">
         <v>186</v>
       </c>
-      <c r="D194">
-        <v>2</v>
-      </c>
-      <c r="E194" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="195" spans="1:5">
-      <c r="A195" t="s">
-        <v>36</v>
-      </c>
-      <c r="B195" t="s">
-        <v>0</v>
-      </c>
-      <c r="C195" t="s">
-        <v>186</v>
-      </c>
-      <c r="D195">
-        <v>2</v>
-      </c>
-      <c r="E195" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="196" spans="1:5">
-      <c r="A196" t="s">
-        <v>61</v>
-      </c>
-      <c r="B196" t="s">
-        <v>0</v>
-      </c>
-      <c r="C196" t="s">
-        <v>186</v>
-      </c>
-      <c r="D196">
-        <v>2</v>
-      </c>
-      <c r="E196" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="197" spans="1:5">
-      <c r="A197" t="s">
-        <v>44</v>
-      </c>
-      <c r="B197" t="s">
-        <v>1</v>
-      </c>
-      <c r="C197" t="s">
-        <v>201</v>
-      </c>
-      <c r="D197">
-        <v>3</v>
-      </c>
-      <c r="E197" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="198" spans="1:5">
-      <c r="A198" t="s">
-        <v>45</v>
-      </c>
-      <c r="B198" t="s">
-        <v>1</v>
-      </c>
-      <c r="C198" t="s">
-        <v>201</v>
-      </c>
-      <c r="D198">
-        <v>3</v>
-      </c>
-      <c r="E198" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="199" spans="1:5">
-      <c r="A199" t="s">
-        <v>46</v>
-      </c>
-      <c r="B199" t="s">
-        <v>1</v>
-      </c>
-      <c r="C199" t="s">
-        <v>201</v>
-      </c>
-      <c r="D199">
-        <v>3</v>
-      </c>
-      <c r="E199" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="200" spans="1:5">
-      <c r="A200" t="s">
-        <v>47</v>
-      </c>
-      <c r="B200" t="s">
-        <v>1</v>
-      </c>
-      <c r="C200" t="s">
-        <v>201</v>
-      </c>
-      <c r="D200">
-        <v>3</v>
-      </c>
-      <c r="E200" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="201" spans="1:5">
-      <c r="A201" t="s">
-        <v>48</v>
-      </c>
-      <c r="B201" t="s">
-        <v>1</v>
-      </c>
-      <c r="C201" t="s">
-        <v>201</v>
-      </c>
-      <c r="D201">
-        <v>3</v>
-      </c>
-      <c r="E201" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="202" spans="1:5">
-      <c r="A202" t="s">
-        <v>49</v>
-      </c>
-      <c r="B202" t="s">
-        <v>1</v>
-      </c>
-      <c r="C202" t="s">
-        <v>201</v>
-      </c>
-      <c r="D202">
-        <v>3</v>
-      </c>
-      <c r="E202" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="203" spans="1:5">
-      <c r="A203" t="s">
-        <v>50</v>
-      </c>
-      <c r="B203" t="s">
-        <v>1</v>
-      </c>
-      <c r="C203" t="s">
-        <v>201</v>
-      </c>
-      <c r="D203">
-        <v>3</v>
-      </c>
-      <c r="E203" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="204" spans="1:5">
-      <c r="A204" t="s">
-        <v>237</v>
-      </c>
-      <c r="B204" t="s">
-        <v>188</v>
-      </c>
-      <c r="C204" t="s">
-        <v>211</v>
-      </c>
-      <c r="D204">
-        <v>4</v>
-      </c>
-      <c r="E204" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="205" spans="1:5">
-      <c r="A205" t="s">
-        <v>238</v>
-      </c>
-      <c r="B205" t="s">
-        <v>188</v>
-      </c>
-      <c r="C205" t="s">
-        <v>211</v>
-      </c>
-      <c r="D205">
-        <v>4</v>
-      </c>
-      <c r="E205" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="206" spans="1:5">
-      <c r="A206" t="s">
-        <v>239</v>
-      </c>
-      <c r="B206" t="s">
-        <v>188</v>
-      </c>
-      <c r="C206" t="s">
-        <v>211</v>
-      </c>
-      <c r="D206">
-        <v>4</v>
-      </c>
-      <c r="E206" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="207" spans="1:5">
-      <c r="A207" t="s">
-        <v>240</v>
-      </c>
-      <c r="B207" t="s">
-        <v>188</v>
-      </c>
-      <c r="C207" t="s">
-        <v>211</v>
-      </c>
-      <c r="D207">
-        <v>4</v>
-      </c>
-      <c r="E207" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="208" spans="1:5">
-      <c r="A208" t="s">
-        <v>130</v>
-      </c>
-      <c r="B208" t="s">
-        <v>189</v>
-      </c>
-      <c r="C208" t="s">
-        <v>213</v>
-      </c>
-      <c r="D208">
-        <v>1</v>
-      </c>
-      <c r="E208" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="209" spans="1:5">
-      <c r="A209" t="s">
-        <v>137</v>
-      </c>
-      <c r="B209" t="s">
-        <v>189</v>
-      </c>
-      <c r="C209" t="s">
-        <v>213</v>
-      </c>
-      <c r="D209">
-        <v>1</v>
-      </c>
-      <c r="E209" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="210" spans="1:5">
-      <c r="A210" t="s">
-        <v>97</v>
-      </c>
-      <c r="B210" t="s">
-        <v>189</v>
-      </c>
-      <c r="C210" t="s">
-        <v>213</v>
-      </c>
-      <c r="D210">
-        <v>1</v>
-      </c>
-      <c r="E210" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="211" spans="1:5">
-      <c r="A211" t="s">
-        <v>98</v>
-      </c>
-      <c r="B211" t="s">
-        <v>189</v>
-      </c>
-      <c r="C211" t="s">
-        <v>213</v>
-      </c>
-      <c r="D211">
-        <v>1</v>
-      </c>
-      <c r="E211" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="212" spans="1:5">
-      <c r="A212" t="s">
-        <v>100</v>
-      </c>
-      <c r="B212" t="s">
-        <v>189</v>
-      </c>
-      <c r="C212" t="s">
-        <v>213</v>
-      </c>
-      <c r="D212">
-        <v>1</v>
-      </c>
-      <c r="E212" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="213" spans="1:5">
-      <c r="A213" t="s">
-        <v>101</v>
-      </c>
-      <c r="B213" t="s">
-        <v>189</v>
-      </c>
-      <c r="C213" t="s">
-        <v>213</v>
-      </c>
-      <c r="D213">
-        <v>1</v>
-      </c>
-      <c r="E213" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="214" spans="1:5">
-      <c r="A214" t="s">
-        <v>102</v>
-      </c>
-      <c r="B214" t="s">
-        <v>189</v>
-      </c>
-      <c r="C214" t="s">
-        <v>213</v>
-      </c>
-      <c r="D214">
-        <v>1</v>
-      </c>
-      <c r="E214" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="215" spans="1:5">
-      <c r="A215" t="s">
-        <v>103</v>
-      </c>
-      <c r="B215" t="s">
-        <v>189</v>
-      </c>
-      <c r="C215" t="s">
-        <v>213</v>
-      </c>
-      <c r="D215">
-        <v>1</v>
-      </c>
-      <c r="E215" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="216" spans="1:5">
-      <c r="A216" t="s">
-        <v>104</v>
-      </c>
-      <c r="B216" t="s">
-        <v>189</v>
-      </c>
-      <c r="C216" t="s">
-        <v>213</v>
-      </c>
-      <c r="D216">
-        <v>1</v>
-      </c>
-      <c r="E216" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="217" spans="1:5">
-      <c r="A217" t="s">
-        <v>107</v>
-      </c>
-      <c r="B217" t="s">
-        <v>189</v>
-      </c>
-      <c r="C217" t="s">
-        <v>213</v>
-      </c>
-      <c r="D217">
-        <v>1</v>
-      </c>
-      <c r="E217" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="218" spans="1:5">
-      <c r="A218" t="s">
-        <v>114</v>
-      </c>
-      <c r="B218" t="s">
-        <v>189</v>
-      </c>
-      <c r="C218" t="s">
-        <v>213</v>
-      </c>
-      <c r="D218">
-        <v>1</v>
-      </c>
-      <c r="E218" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="219" spans="1:5">
-      <c r="A219" t="s">
-        <v>99</v>
-      </c>
-      <c r="B219" t="s">
-        <v>189</v>
-      </c>
-      <c r="C219" t="s">
-        <v>213</v>
-      </c>
-      <c r="D219">
-        <v>1</v>
-      </c>
-      <c r="E219" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="220" spans="1:5">
-      <c r="A220" t="s">
-        <v>145</v>
-      </c>
-      <c r="B220" t="s">
-        <v>189</v>
-      </c>
-      <c r="C220" t="s">
-        <v>213</v>
-      </c>
-      <c r="D220">
-        <v>1</v>
-      </c>
-      <c r="E220" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="221" spans="1:5">
-      <c r="A221" t="s">
-        <v>146</v>
-      </c>
-      <c r="B221" t="s">
-        <v>189</v>
-      </c>
-      <c r="C221" t="s">
-        <v>213</v>
-      </c>
-      <c r="D221">
-        <v>1</v>
-      </c>
-      <c r="E221" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="222" spans="1:5">
-      <c r="A222" t="s">
-        <v>168</v>
-      </c>
-      <c r="B222" t="s">
-        <v>189</v>
-      </c>
-      <c r="C222" t="s">
-        <v>213</v>
-      </c>
-      <c r="D222">
-        <v>1</v>
-      </c>
-      <c r="E222" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="223" spans="1:5">
-      <c r="A223" t="s">
-        <v>39</v>
-      </c>
-      <c r="B223" t="s">
-        <v>189</v>
-      </c>
-      <c r="C223" t="s">
-        <v>197</v>
-      </c>
-      <c r="D223">
-        <v>2</v>
-      </c>
-      <c r="E223" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="224" spans="1:5">
-      <c r="A224" t="s">
-        <v>144</v>
-      </c>
-      <c r="B224" t="s">
-        <v>189</v>
-      </c>
-      <c r="C224" t="s">
-        <v>197</v>
-      </c>
-      <c r="D224">
-        <v>2</v>
-      </c>
-      <c r="E224" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="225" spans="1:5">
-      <c r="A225" t="s">
-        <v>122</v>
-      </c>
-      <c r="B225" t="s">
-        <v>2</v>
-      </c>
-      <c r="C225" t="s">
-        <v>192</v>
-      </c>
-      <c r="D225">
-        <v>3</v>
-      </c>
-      <c r="E225" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="226" spans="1:5">
-      <c r="A226" t="s">
-        <v>174</v>
-      </c>
-      <c r="B226" t="s">
-        <v>0</v>
-      </c>
-      <c r="C226" t="s">
-        <v>181</v>
-      </c>
-      <c r="D226">
-        <v>3</v>
-      </c>
-      <c r="E226" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="227" spans="1:5">
-      <c r="A227" t="s">
-        <v>121</v>
-      </c>
-      <c r="B227" t="s">
-        <v>188</v>
-      </c>
-      <c r="C227" t="s">
-        <v>206</v>
-      </c>
-      <c r="D227">
-        <v>3</v>
-      </c>
-      <c r="E227" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="228" spans="1:5">
-      <c r="A228" t="s">
-        <v>129</v>
-      </c>
-      <c r="B228" t="s">
-        <v>189</v>
-      </c>
-      <c r="C228" t="s">
-        <v>213</v>
-      </c>
-      <c r="D228">
-        <v>1</v>
-      </c>
-      <c r="E228" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="229" spans="1:5">
-      <c r="A229" t="s">
-        <v>84</v>
-      </c>
-      <c r="B229" t="s">
-        <v>188</v>
-      </c>
-      <c r="C229" t="s">
-        <v>211</v>
-      </c>
-      <c r="D229">
-        <v>1</v>
-      </c>
-      <c r="E229" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="230" spans="1:5">
-      <c r="A230" t="s">
-        <v>86</v>
-      </c>
-      <c r="B230" t="s">
-        <v>188</v>
-      </c>
-      <c r="C230" t="s">
-        <v>211</v>
-      </c>
-      <c r="D230">
-        <v>1</v>
-      </c>
-      <c r="E230" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="231" spans="1:5">
-      <c r="A231" t="s">
-        <v>87</v>
-      </c>
-      <c r="B231" t="s">
-        <v>188</v>
-      </c>
-      <c r="C231" t="s">
-        <v>211</v>
-      </c>
-      <c r="D231">
-        <v>1</v>
-      </c>
-      <c r="E231" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="232" spans="1:5">
-      <c r="A232" t="s">
-        <v>88</v>
-      </c>
-      <c r="B232" t="s">
-        <v>188</v>
-      </c>
-      <c r="C232" t="s">
-        <v>211</v>
-      </c>
-      <c r="D232">
-        <v>1</v>
-      </c>
-      <c r="E232" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="233" spans="1:5">
-      <c r="A233" t="s">
-        <v>89</v>
-      </c>
-      <c r="B233" t="s">
-        <v>188</v>
-      </c>
-      <c r="C233" t="s">
-        <v>211</v>
-      </c>
-      <c r="D233">
-        <v>1</v>
-      </c>
-      <c r="E233" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="234" spans="1:5">
-      <c r="A234" t="s">
-        <v>90</v>
-      </c>
-      <c r="B234" t="s">
-        <v>188</v>
-      </c>
-      <c r="C234" t="s">
-        <v>211</v>
-      </c>
-      <c r="D234">
-        <v>1</v>
-      </c>
-      <c r="E234" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="235" spans="1:5">
-      <c r="A235" t="s">
-        <v>91</v>
-      </c>
-      <c r="B235" t="s">
-        <v>188</v>
-      </c>
-      <c r="C235" t="s">
-        <v>211</v>
-      </c>
-      <c r="D235">
-        <v>1</v>
-      </c>
-      <c r="E235" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="236" spans="1:5">
-      <c r="A236" t="s">
-        <v>92</v>
-      </c>
-      <c r="B236" t="s">
-        <v>188</v>
-      </c>
-      <c r="C236" t="s">
-        <v>211</v>
-      </c>
-      <c r="D236">
-        <v>1</v>
-      </c>
-      <c r="E236" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="237" spans="1:5">
-      <c r="A237" t="s">
-        <v>93</v>
-      </c>
-      <c r="B237" t="s">
-        <v>188</v>
-      </c>
       <c r="C237" t="s">
-        <v>211</v>
-      </c>
-      <c r="D237">
-        <v>1</v>
-      </c>
-      <c r="E237" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="238" spans="1:5">
-      <c r="A238" t="s">
-        <v>94</v>
-      </c>
-      <c r="B238" t="s">
-        <v>188</v>
-      </c>
-      <c r="C238" t="s">
-        <v>211</v>
-      </c>
-      <c r="D238">
-        <v>1</v>
-      </c>
-      <c r="E238" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="239" spans="1:5">
-      <c r="A239" t="s">
-        <v>95</v>
-      </c>
-      <c r="B239" t="s">
-        <v>188</v>
-      </c>
-      <c r="C239" t="s">
-        <v>211</v>
-      </c>
-      <c r="D239">
-        <v>1</v>
-      </c>
-      <c r="E239" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="240" spans="1:5">
-      <c r="A240" t="s">
-        <v>96</v>
-      </c>
-      <c r="B240" t="s">
-        <v>188</v>
-      </c>
-      <c r="C240" t="s">
-        <v>211</v>
-      </c>
-      <c r="D240">
-        <v>1</v>
-      </c>
-      <c r="E240" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="241" spans="1:5" ht="15" customHeight="1">
-      <c r="A241" t="s">
-        <v>106</v>
-      </c>
-      <c r="B241" t="s">
-        <v>188</v>
-      </c>
-      <c r="C241" t="s">
-        <v>211</v>
-      </c>
-      <c r="D241">
-        <v>1</v>
-      </c>
-      <c r="E241" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="242" spans="1:5">
-      <c r="A242" t="s">
-        <v>111</v>
-      </c>
-      <c r="B242" t="s">
-        <v>188</v>
-      </c>
-      <c r="C242" t="s">
-        <v>211</v>
-      </c>
-      <c r="D242">
-        <v>1</v>
-      </c>
-      <c r="E242" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="243" spans="1:5">
-      <c r="A243" t="s">
-        <v>171</v>
-      </c>
-      <c r="B243" t="s">
-        <v>188</v>
-      </c>
-      <c r="C243" t="s">
-        <v>211</v>
-      </c>
-      <c r="D243">
-        <v>1</v>
-      </c>
-      <c r="E243" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="244" spans="1:5">
-      <c r="A244" t="s">
-        <v>112</v>
-      </c>
-      <c r="B244" t="s">
-        <v>188</v>
-      </c>
-      <c r="C244" t="s">
-        <v>211</v>
-      </c>
-      <c r="D244">
-        <v>1</v>
-      </c>
-      <c r="E244" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="245" spans="1:5">
-      <c r="A245" t="s">
-        <v>113</v>
-      </c>
-      <c r="B245" t="s">
-        <v>188</v>
-      </c>
-      <c r="C245" t="s">
-        <v>211</v>
-      </c>
-      <c r="D245">
-        <v>1</v>
-      </c>
-      <c r="E245" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="246" spans="1:5" ht="13.8" customHeight="1">
-      <c r="A246" t="s">
-        <v>165</v>
-      </c>
-      <c r="B246" t="s">
-        <v>188</v>
-      </c>
-      <c r="C246" t="s">
-        <v>211</v>
-      </c>
-      <c r="D246">
-        <v>1</v>
-      </c>
-      <c r="E246" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="247" spans="1:5">
-      <c r="A247" t="s">
-        <v>166</v>
-      </c>
-      <c r="B247" t="s">
-        <v>188</v>
-      </c>
-      <c r="C247" t="s">
-        <v>211</v>
-      </c>
-      <c r="D247">
-        <v>1</v>
-      </c>
-      <c r="E247" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="248" spans="1:5">
-      <c r="A248" t="s">
-        <v>83</v>
-      </c>
-      <c r="B248" t="s">
-        <v>188</v>
-      </c>
-      <c r="C248" t="s">
-        <v>211</v>
-      </c>
-      <c r="D248">
-        <v>1</v>
-      </c>
-      <c r="E248" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="249" spans="1:5">
-      <c r="A249" t="s">
-        <v>172</v>
-      </c>
-      <c r="B249" t="s">
-        <v>1</v>
-      </c>
-      <c r="C249" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="250" spans="1:5">
-      <c r="A250" t="s">
-        <v>257</v>
-      </c>
-      <c r="B250" t="s">
-        <v>254</v>
-      </c>
-      <c r="C250" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="251" spans="1:5">
-      <c r="A251" t="s">
-        <v>256</v>
-      </c>
-      <c r="B251" t="s">
-        <v>254</v>
-      </c>
-      <c r="C251" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="252" spans="1:5">
-      <c r="A252" t="s">
-        <v>288</v>
-      </c>
-      <c r="B252" t="s">
-        <v>0</v>
-      </c>
-      <c r="C252" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="253" spans="1:5">
-      <c r="A253" t="s">
-        <v>300</v>
-      </c>
-      <c r="B253" t="s">
-        <v>0</v>
-      </c>
-      <c r="C253" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="254" spans="1:5">
-      <c r="A254" t="s">
-        <v>299</v>
-      </c>
-      <c r="B254" t="s">
-        <v>0</v>
-      </c>
-      <c r="C254" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="255" spans="1:5">
-      <c r="A255" t="s">
-        <v>298</v>
-      </c>
-      <c r="B255" t="s">
-        <v>0</v>
-      </c>
-      <c r="C255" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="256" spans="1:5">
-      <c r="A256" t="s">
-        <v>297</v>
-      </c>
-      <c r="B256" t="s">
-        <v>0</v>
-      </c>
-      <c r="C256" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="257" spans="1:3">
-      <c r="A257" t="s">
-        <v>301</v>
-      </c>
-      <c r="B257" t="s">
-        <v>0</v>
-      </c>
-      <c r="C257" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="258" spans="1:3">
-      <c r="A258" t="s">
-        <v>303</v>
-      </c>
-      <c r="B258" t="s">
-        <v>0</v>
-      </c>
-      <c r="C258" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="259" spans="1:3">
-      <c r="A259" t="s">
-        <v>302</v>
-      </c>
-      <c r="B259" t="s">
-        <v>0</v>
-      </c>
-      <c r="C259" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="260" spans="1:3">
-      <c r="A260" t="s">
-        <v>311</v>
-      </c>
-      <c r="B260" t="s">
-        <v>0</v>
-      </c>
-      <c r="C260" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="261" spans="1:3">
-      <c r="A261" t="s">
-        <v>312</v>
-      </c>
-      <c r="B261" t="s">
-        <v>1</v>
-      </c>
-      <c r="C261" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="262" spans="1:3">
-      <c r="A262" t="s">
-        <v>319</v>
-      </c>
-      <c r="B262" t="s">
-        <v>267</v>
-      </c>
-      <c r="C262" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="263" spans="1:3">
-      <c r="A263" t="s">
-        <v>320</v>
-      </c>
-      <c r="B263" t="s">
-        <v>267</v>
-      </c>
-      <c r="C263" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="264" spans="1:3">
-      <c r="A264" t="s">
-        <v>321</v>
-      </c>
-      <c r="B264" t="s">
-        <v>267</v>
-      </c>
-      <c r="C264" t="s">
-        <v>188</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:E264">
-    <sortCondition ref="E2:E264"/>
-    <sortCondition ref="D2:D264"/>
+  <sortState ref="A2:E236">
+    <sortCondition ref="E2:E236"/>
+    <sortCondition ref="D2:D236"/>
   </sortState>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -5757,205 +4941,205 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>230</v>
+        <v>160</v>
       </c>
       <c r="B1" t="s">
-        <v>245</v>
+        <v>175</v>
       </c>
       <c r="C1" t="s">
-        <v>192</v>
+        <v>127</v>
       </c>
       <c r="D1">
         <v>1</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>250</v>
+        <v>180</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>231</v>
+        <v>161</v>
       </c>
       <c r="B2" t="s">
-        <v>245</v>
+        <v>175</v>
       </c>
       <c r="C2" t="s">
-        <v>192</v>
+        <v>127</v>
       </c>
       <c r="D2">
         <v>2</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>250</v>
+        <v>180</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>232</v>
+        <v>162</v>
       </c>
       <c r="B3" t="s">
-        <v>245</v>
+        <v>175</v>
       </c>
       <c r="C3" t="s">
-        <v>192</v>
+        <v>127</v>
       </c>
       <c r="D3">
         <v>3</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>250</v>
+        <v>180</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>234</v>
+        <v>164</v>
       </c>
       <c r="B4" t="s">
-        <v>245</v>
+        <v>175</v>
       </c>
       <c r="C4" t="s">
-        <v>192</v>
+        <v>127</v>
       </c>
       <c r="D4">
         <v>4</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>250</v>
+        <v>180</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>223</v>
+        <v>155</v>
       </c>
       <c r="B5" t="s">
-        <v>243</v>
+        <v>173</v>
       </c>
       <c r="C5" t="s">
-        <v>192</v>
+        <v>127</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>251</v>
+        <v>181</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>224</v>
+        <v>156</v>
       </c>
       <c r="B6" t="s">
-        <v>243</v>
+        <v>173</v>
       </c>
       <c r="C6" t="s">
-        <v>192</v>
+        <v>127</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>251</v>
+        <v>181</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>249</v>
+        <v>179</v>
       </c>
       <c r="B7" t="s">
-        <v>243</v>
+        <v>173</v>
       </c>
       <c r="C7" t="s">
-        <v>192</v>
+        <v>127</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>251</v>
+        <v>181</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>246</v>
+        <v>176</v>
       </c>
       <c r="B8" t="s">
-        <v>243</v>
+        <v>173</v>
       </c>
       <c r="C8" t="s">
-        <v>192</v>
+        <v>127</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>251</v>
+        <v>181</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>248</v>
+        <v>178</v>
       </c>
       <c r="B9" t="s">
-        <v>243</v>
+        <v>173</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>251</v>
+        <v>181</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>235</v>
+        <v>165</v>
       </c>
       <c r="B10" t="s">
-        <v>245</v>
+        <v>175</v>
       </c>
       <c r="C10" t="s">
-        <v>192</v>
+        <v>127</v>
       </c>
       <c r="D10">
         <v>5</v>
       </c>
       <c r="E10" t="s">
-        <v>244</v>
+        <v>174</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>229</v>
+        <v>159</v>
       </c>
       <c r="B11" t="s">
-        <v>245</v>
+        <v>175</v>
       </c>
       <c r="C11" t="s">
-        <v>192</v>
+        <v>127</v>
       </c>
       <c r="D11">
         <v>6</v>
       </c>
       <c r="E11" t="s">
-        <v>244</v>
+        <v>174</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>226</v>
+        <v>158</v>
       </c>
       <c r="B12" t="s">
-        <v>245</v>
+        <v>175</v>
       </c>
       <c r="C12" t="s">
-        <v>192</v>
+        <v>127</v>
       </c>
       <c r="D12">
         <v>7</v>
       </c>
       <c r="E12" t="s">
-        <v>244</v>
+        <v>174</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>225</v>
+        <v>157</v>
       </c>
       <c r="B13" t="s">
-        <v>245</v>
+        <v>175</v>
       </c>
       <c r="C13" t="s">
-        <v>192</v>
+        <v>127</v>
       </c>
       <c r="D13">
         <v>8</v>
       </c>
       <c r="E13" t="s">
-        <v>244</v>
+        <v>174</v>
       </c>
     </row>
   </sheetData>

--- a/funcionalidades.xlsx
+++ b/funcionalidades.xlsx
@@ -12,12 +12,11 @@
     <sheet name="Plan3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="938" uniqueCount="292">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="934" uniqueCount="290">
   <si>
     <t>Profissionais</t>
   </si>
@@ -655,9 +654,6 @@
     <t>Detectar currículo com telegram</t>
   </si>
   <si>
-    <t>Notificar alteraçao do cv por telegram</t>
-  </si>
-  <si>
     <t>Experimente a busca premium</t>
   </si>
   <si>
@@ -863,9 +859,6 @@
   </si>
   <si>
     <t>Listar comentários sobre um CV</t>
-  </si>
-  <si>
-    <t>Notificar alteraçao do cv por e-mail</t>
   </si>
   <si>
     <t>Agrupar visualizações por consultoria</t>
@@ -1242,10 +1235,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E237"/>
+  <dimension ref="A1:E236"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A93" workbookViewId="0">
-      <selection activeCell="B121" sqref="B121"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A1:E106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1274,7 +1267,7 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B2" t="s">
         <v>19</v>
@@ -1291,7 +1284,7 @@
     </row>
     <row r="3" spans="1:5" ht="15" customHeight="1">
       <c r="A3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B3" t="s">
         <v>19</v>
@@ -1308,7 +1301,7 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B4" t="s">
         <v>19</v>
@@ -1325,7 +1318,7 @@
     </row>
     <row r="5" spans="1:5" ht="15" customHeight="1">
       <c r="A5" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B5" t="s">
         <v>19</v>
@@ -1342,7 +1335,7 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B6" t="s">
         <v>19</v>
@@ -1359,7 +1352,7 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B7" t="s">
         <v>19</v>
@@ -1376,7 +1369,7 @@
     </row>
     <row r="8" spans="1:5" ht="15" customHeight="1">
       <c r="A8" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B8" t="s">
         <v>19</v>
@@ -1393,7 +1386,7 @@
     </row>
     <row r="9" spans="1:5" ht="15" customHeight="1">
       <c r="A9" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B9" t="s">
         <v>19</v>
@@ -1410,7 +1403,7 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B10" t="s">
         <v>19</v>
@@ -1427,7 +1420,7 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B11" t="s">
         <v>19</v>
@@ -1444,7 +1437,7 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B12" t="s">
         <v>19</v>
@@ -1461,7 +1454,7 @@
     </row>
     <row r="13" spans="1:5" ht="13.8" customHeight="1">
       <c r="A13" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B13" t="s">
         <v>19</v>
@@ -1478,7 +1471,7 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B14" t="s">
         <v>19</v>
@@ -1495,7 +1488,7 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B15" t="s">
         <v>19</v>
@@ -1512,7 +1505,7 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B16" t="s">
         <v>19</v>
@@ -1529,7 +1522,7 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B17" t="s">
         <v>19</v>
@@ -1546,7 +1539,7 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="4" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B18" t="s">
         <v>19</v>
@@ -1563,7 +1556,7 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="4" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B19" t="s">
         <v>19</v>
@@ -1580,7 +1573,7 @@
     </row>
     <row r="20" spans="1:5" ht="13.8" customHeight="1">
       <c r="A20" s="4" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B20" t="s">
         <v>19</v>
@@ -1597,7 +1590,7 @@
     </row>
     <row r="21" spans="1:5" ht="13.8" customHeight="1">
       <c r="A21" s="4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B21" t="s">
         <v>19</v>
@@ -1631,7 +1624,7 @@
     </row>
     <row r="23" spans="1:5" ht="13.8" customHeight="1">
       <c r="A23" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B23" t="s">
         <v>19</v>
@@ -1648,7 +1641,7 @@
     </row>
     <row r="24" spans="1:5" ht="13.8" customHeight="1">
       <c r="A24" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B24" t="s">
         <v>19</v>
@@ -1665,7 +1658,7 @@
     </row>
     <row r="25" spans="1:5" ht="13.8" customHeight="1">
       <c r="A25" s="4" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B25" t="s">
         <v>19</v>
@@ -1682,7 +1675,7 @@
     </row>
     <row r="26" spans="1:5" ht="13.8" customHeight="1">
       <c r="A26" s="4" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B26" t="s">
         <v>19</v>
@@ -1699,7 +1692,7 @@
     </row>
     <row r="27" spans="1:5" ht="13.8" customHeight="1">
       <c r="A27" s="4" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B27" t="s">
         <v>19</v>
@@ -1716,7 +1709,7 @@
     </row>
     <row r="28" spans="1:5" ht="13.8" customHeight="1">
       <c r="A28" s="4" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B28" t="s">
         <v>19</v>
@@ -1733,7 +1726,7 @@
     </row>
     <row r="29" spans="1:5" ht="13.8" customHeight="1">
       <c r="A29" s="4" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B29" t="s">
         <v>19</v>
@@ -1750,7 +1743,7 @@
     </row>
     <row r="30" spans="1:5" ht="13.8" customHeight="1">
       <c r="A30" s="4" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B30" t="s">
         <v>19</v>
@@ -1767,7 +1760,7 @@
     </row>
     <row r="31" spans="1:5" ht="13.8" customHeight="1">
       <c r="A31" s="4" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B31" t="s">
         <v>19</v>
@@ -1784,7 +1777,7 @@
     </row>
     <row r="32" spans="1:5" ht="13.8" customHeight="1">
       <c r="A32" s="4" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B32" t="s">
         <v>19</v>
@@ -1801,7 +1794,7 @@
     </row>
     <row r="33" spans="1:5">
       <c r="A33" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B33" t="s">
         <v>19</v>
@@ -1818,7 +1811,7 @@
     </row>
     <row r="34" spans="1:5">
       <c r="A34" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B34" t="s">
         <v>186</v>
@@ -1835,7 +1828,7 @@
     </row>
     <row r="35" spans="1:5">
       <c r="A35" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B35" t="s">
         <v>186</v>
@@ -1852,7 +1845,7 @@
     </row>
     <row r="36" spans="1:5">
       <c r="A36" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B36" t="s">
         <v>186</v>
@@ -1869,7 +1862,7 @@
     </row>
     <row r="37" spans="1:5">
       <c r="A37" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B37" t="s">
         <v>186</v>
@@ -1886,7 +1879,7 @@
     </row>
     <row r="38" spans="1:5">
       <c r="A38" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B38" t="s">
         <v>0</v>
@@ -1903,7 +1896,7 @@
     </row>
     <row r="39" spans="1:5">
       <c r="A39" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B39" t="s">
         <v>0</v>
@@ -2073,7 +2066,7 @@
     </row>
     <row r="49" spans="1:5">
       <c r="A49" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B49" t="s">
         <v>0</v>
@@ -2141,7 +2134,7 @@
     </row>
     <row r="53" spans="1:5">
       <c r="A53" t="s">
-        <v>209</v>
+        <v>188</v>
       </c>
       <c r="B53" t="s">
         <v>0</v>
@@ -2150,7 +2143,7 @@
         <v>117</v>
       </c>
       <c r="D53">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E53" t="s">
         <v>118</v>
@@ -2158,13 +2151,13 @@
     </row>
     <row r="54" spans="1:5">
       <c r="A54" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B54" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C54" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="D54">
         <v>4</v>
@@ -2175,13 +2168,13 @@
     </row>
     <row r="55" spans="1:5" ht="13.8" customHeight="1">
       <c r="A55" t="s">
-        <v>33</v>
+        <v>208</v>
       </c>
       <c r="B55" t="s">
         <v>1</v>
       </c>
       <c r="C55" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="D55">
         <v>4</v>
@@ -2192,7 +2185,7 @@
     </row>
     <row r="56" spans="1:5" ht="13.8" customHeight="1">
       <c r="A56" t="s">
-        <v>215</v>
+        <v>33</v>
       </c>
       <c r="B56" t="s">
         <v>1</v>
@@ -2226,7 +2219,7 @@
     </row>
     <row r="58" spans="1:5" ht="13.8" customHeight="1">
       <c r="A58" t="s">
-        <v>34</v>
+        <v>213</v>
       </c>
       <c r="B58" t="s">
         <v>1</v>
@@ -2243,7 +2236,7 @@
     </row>
     <row r="59" spans="1:5" ht="13.8" customHeight="1">
       <c r="A59" t="s">
-        <v>108</v>
+        <v>34</v>
       </c>
       <c r="B59" t="s">
         <v>1</v>
@@ -2260,7 +2253,7 @@
     </row>
     <row r="60" spans="1:5">
       <c r="A60" t="s">
-        <v>172</v>
+        <v>108</v>
       </c>
       <c r="B60" t="s">
         <v>1</v>
@@ -2277,7 +2270,7 @@
     </row>
     <row r="61" spans="1:5">
       <c r="A61" t="s">
-        <v>290</v>
+        <v>172</v>
       </c>
       <c r="B61" t="s">
         <v>1</v>
@@ -2294,16 +2287,16 @@
     </row>
     <row r="62" spans="1:5">
       <c r="A62" t="s">
-        <v>30</v>
+        <v>288</v>
       </c>
       <c r="B62" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C62" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="D62">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E62" t="s">
         <v>118</v>
@@ -2311,16 +2304,16 @@
     </row>
     <row r="63" spans="1:5">
       <c r="A63" t="s">
-        <v>31</v>
+        <v>268</v>
       </c>
       <c r="B63" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C63" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="D63">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E63" t="s">
         <v>118</v>
@@ -2328,16 +2321,16 @@
     </row>
     <row r="64" spans="1:5">
       <c r="A64" t="s">
-        <v>32</v>
+        <v>269</v>
       </c>
       <c r="B64" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C64" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="D64">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E64" t="s">
         <v>118</v>
@@ -2345,7 +2338,7 @@
     </row>
     <row r="65" spans="1:5">
       <c r="A65" t="s">
-        <v>285</v>
+        <v>30</v>
       </c>
       <c r="B65" t="s">
         <v>2</v>
@@ -2354,66 +2347,66 @@
         <v>127</v>
       </c>
       <c r="D65">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E65" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="66" spans="1:5">
       <c r="A66" t="s">
-        <v>207</v>
+        <v>31</v>
       </c>
       <c r="B66" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C66" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="D66">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E66" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="67" spans="1:5">
       <c r="A67" t="s">
-        <v>190</v>
+        <v>32</v>
       </c>
       <c r="B67" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C67" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="D67">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E67" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="68" spans="1:5">
       <c r="A68" t="s">
-        <v>192</v>
+        <v>283</v>
       </c>
       <c r="B68" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C68" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="D68">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E68" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="69" spans="1:5">
       <c r="A69" t="s">
-        <v>191</v>
+        <v>207</v>
       </c>
       <c r="B69" t="s">
         <v>0</v>
@@ -2430,7 +2423,7 @@
     </row>
     <row r="70" spans="1:5">
       <c r="A70" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="B70" t="s">
         <v>0</v>
@@ -2447,7 +2440,7 @@
     </row>
     <row r="71" spans="1:5">
       <c r="A71" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="B71" t="s">
         <v>0</v>
@@ -2458,13 +2451,13 @@
       <c r="D71">
         <v>1</v>
       </c>
-      <c r="E71" s="2" t="s">
+      <c r="E71" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="72" spans="1:5">
       <c r="A72" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="B72" t="s">
         <v>0</v>
@@ -2475,19 +2468,19 @@
       <c r="D72">
         <v>1</v>
       </c>
-      <c r="E72" s="2" t="s">
+      <c r="E72" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="73" spans="1:5">
       <c r="A73" t="s">
-        <v>97</v>
+        <v>196</v>
       </c>
       <c r="B73" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C73" t="s">
-        <v>131</v>
+        <v>117</v>
       </c>
       <c r="D73">
         <v>1</v>
@@ -2498,47 +2491,47 @@
     </row>
     <row r="74" spans="1:5">
       <c r="A74" t="s">
-        <v>284</v>
+        <v>197</v>
       </c>
       <c r="B74" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C74" t="s">
-        <v>131</v>
+        <v>117</v>
       </c>
       <c r="D74">
         <v>1</v>
       </c>
-      <c r="E74" t="s">
+      <c r="E74" s="2" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="75" spans="1:5">
       <c r="A75" t="s">
-        <v>286</v>
+        <v>198</v>
       </c>
       <c r="B75" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C75" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="D75">
         <v>1</v>
       </c>
-      <c r="E75" t="s">
+      <c r="E75" s="2" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="76" spans="1:5">
       <c r="A76" t="s">
-        <v>144</v>
+        <v>97</v>
       </c>
       <c r="B76" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C76" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="D76">
         <v>1</v>
@@ -2549,13 +2542,13 @@
     </row>
     <row r="77" spans="1:5">
       <c r="A77" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="B77" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C77" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="D77">
         <v>1</v>
@@ -2566,7 +2559,7 @@
     </row>
     <row r="78" spans="1:5">
       <c r="A78" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="B78" t="s">
         <v>2</v>
@@ -2583,13 +2576,13 @@
     </row>
     <row r="79" spans="1:5">
       <c r="A79" t="s">
-        <v>291</v>
+        <v>144</v>
       </c>
       <c r="B79" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C79" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="D79">
         <v>1</v>
@@ -2600,16 +2593,16 @@
     </row>
     <row r="80" spans="1:5">
       <c r="A80" t="s">
-        <v>256</v>
+        <v>285</v>
       </c>
       <c r="B80" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C80" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="D80">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E80" t="s">
         <v>119</v>
@@ -2617,16 +2610,16 @@
     </row>
     <row r="81" spans="1:5">
       <c r="A81" t="s">
-        <v>257</v>
+        <v>286</v>
       </c>
       <c r="B81" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C81" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="D81">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E81" t="s">
         <v>119</v>
@@ -2634,7 +2627,7 @@
     </row>
     <row r="82" spans="1:5">
       <c r="A82" t="s">
-        <v>258</v>
+        <v>289</v>
       </c>
       <c r="B82" t="s">
         <v>1</v>
@@ -2651,7 +2644,7 @@
     </row>
     <row r="83" spans="1:5">
       <c r="A83" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="B83" t="s">
         <v>1</v>
@@ -2668,7 +2661,7 @@
     </row>
     <row r="84" spans="1:5">
       <c r="A84" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="B84" t="s">
         <v>1</v>
@@ -2685,7 +2678,7 @@
     </row>
     <row r="85" spans="1:5">
       <c r="A85" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="B85" t="s">
         <v>1</v>
@@ -2702,7 +2695,7 @@
     </row>
     <row r="86" spans="1:5">
       <c r="A86" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="B86" t="s">
         <v>1</v>
@@ -2719,7 +2712,7 @@
     </row>
     <row r="87" spans="1:5">
       <c r="A87" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="B87" t="s">
         <v>1</v>
@@ -2736,7 +2729,7 @@
     </row>
     <row r="88" spans="1:5">
       <c r="A88" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="B88" t="s">
         <v>1</v>
@@ -2753,7 +2746,7 @@
     </row>
     <row r="89" spans="1:5">
       <c r="A89" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="B89" t="s">
         <v>1</v>
@@ -2770,7 +2763,7 @@
     </row>
     <row r="90" spans="1:5">
       <c r="A90" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="B90" t="s">
         <v>1</v>
@@ -2787,7 +2780,7 @@
     </row>
     <row r="91" spans="1:5">
       <c r="A91" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="B91" t="s">
         <v>1</v>
@@ -2804,7 +2797,7 @@
     </row>
     <row r="92" spans="1:5">
       <c r="A92" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="B92" t="s">
         <v>1</v>
@@ -2821,7 +2814,7 @@
     </row>
     <row r="93" spans="1:5">
       <c r="A93" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="B93" t="s">
         <v>1</v>
@@ -2838,7 +2831,7 @@
     </row>
     <row r="94" spans="1:5">
       <c r="A94" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="B94" t="s">
         <v>1</v>
@@ -2855,7 +2848,7 @@
     </row>
     <row r="95" spans="1:5">
       <c r="A95" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="B95" t="s">
         <v>1</v>
@@ -2872,7 +2865,7 @@
     </row>
     <row r="96" spans="1:5">
       <c r="A96" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B96" t="s">
         <v>1</v>
@@ -2889,7 +2882,7 @@
     </row>
     <row r="97" spans="1:5">
       <c r="A97" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B97" t="s">
         <v>1</v>
@@ -2906,7 +2899,7 @@
     </row>
     <row r="98" spans="1:5">
       <c r="A98" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B98" t="s">
         <v>1</v>
@@ -2923,16 +2916,16 @@
     </row>
     <row r="99" spans="1:5">
       <c r="A99" t="s">
-        <v>206</v>
+        <v>273</v>
       </c>
       <c r="B99" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C99" t="s">
-        <v>117</v>
+        <v>131</v>
       </c>
       <c r="D99">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E99" t="s">
         <v>119</v>
@@ -2940,13 +2933,13 @@
     </row>
     <row r="100" spans="1:5">
       <c r="A100" t="s">
-        <v>275</v>
+        <v>206</v>
       </c>
       <c r="B100" t="s">
         <v>0</v>
       </c>
       <c r="C100" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D100">
         <v>3</v>
@@ -2957,16 +2950,16 @@
     </row>
     <row r="101" spans="1:5">
       <c r="A101" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="B101" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C101" t="s">
-        <v>136</v>
+        <v>120</v>
       </c>
       <c r="D101">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E101" t="s">
         <v>119</v>
@@ -2974,7 +2967,7 @@
     </row>
     <row r="102" spans="1:5">
       <c r="A102" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B102" t="s">
         <v>1</v>
@@ -2991,7 +2984,7 @@
     </row>
     <row r="103" spans="1:5">
       <c r="A103" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B103" t="s">
         <v>1</v>
@@ -3008,7 +3001,7 @@
     </row>
     <row r="104" spans="1:5">
       <c r="A104" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="B104" t="s">
         <v>1</v>
@@ -3025,7 +3018,7 @@
     </row>
     <row r="105" spans="1:5">
       <c r="A105" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="B105" t="s">
         <v>1</v>
@@ -3042,50 +3035,50 @@
     </row>
     <row r="106" spans="1:5">
       <c r="A106" t="s">
-        <v>212</v>
+        <v>276</v>
       </c>
       <c r="B106" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C106" t="s">
-        <v>117</v>
+        <v>136</v>
       </c>
       <c r="D106">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E106" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="107" spans="1:5">
-      <c r="A107" t="s">
-        <v>282</v>
-      </c>
-      <c r="B107" t="s">
-        <v>0</v>
-      </c>
-      <c r="C107" t="s">
-        <v>117</v>
-      </c>
-      <c r="D107">
-        <v>5</v>
-      </c>
-      <c r="E107" t="s">
-        <v>119</v>
+    <row r="108" spans="1:5">
+      <c r="A108" t="s">
+        <v>17</v>
+      </c>
+      <c r="B108" t="s">
+        <v>123</v>
+      </c>
+      <c r="C108" t="s">
+        <v>125</v>
+      </c>
+      <c r="D108">
+        <v>1</v>
+      </c>
+      <c r="E108" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="109" spans="1:5">
       <c r="A109" t="s">
-        <v>17</v>
+        <v>83</v>
       </c>
       <c r="B109" t="s">
-        <v>123</v>
+        <v>1</v>
       </c>
       <c r="C109" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="D109">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E109" t="s">
         <v>80</v>
@@ -3093,7 +3086,7 @@
     </row>
     <row r="110" spans="1:5">
       <c r="A110" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B110" t="s">
         <v>1</v>
@@ -3110,16 +3103,16 @@
     </row>
     <row r="111" spans="1:5">
       <c r="A111" t="s">
-        <v>84</v>
+        <v>36</v>
       </c>
       <c r="B111" t="s">
         <v>1</v>
       </c>
       <c r="C111" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="D111">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E111" t="s">
         <v>80</v>
@@ -3127,7 +3120,7 @@
     </row>
     <row r="112" spans="1:5">
       <c r="A112" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B112" t="s">
         <v>1</v>
@@ -3144,7 +3137,7 @@
     </row>
     <row r="113" spans="1:5">
       <c r="A113" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B113" t="s">
         <v>1</v>
@@ -3161,7 +3154,7 @@
     </row>
     <row r="114" spans="1:5">
       <c r="A114" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B114" t="s">
         <v>1</v>
@@ -3178,7 +3171,7 @@
     </row>
     <row r="115" spans="1:5">
       <c r="A115" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B115" t="s">
         <v>1</v>
@@ -3195,7 +3188,7 @@
     </row>
     <row r="116" spans="1:5">
       <c r="A116" t="s">
-        <v>40</v>
+        <v>107</v>
       </c>
       <c r="B116" t="s">
         <v>1</v>
@@ -3212,7 +3205,7 @@
     </row>
     <row r="117" spans="1:5">
       <c r="A117" t="s">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="B117" t="s">
         <v>1</v>
@@ -3229,7 +3222,7 @@
     </row>
     <row r="118" spans="1:5">
       <c r="A118" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B118" t="s">
         <v>1</v>
@@ -3246,7 +3239,7 @@
     </row>
     <row r="119" spans="1:5">
       <c r="A119" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B119" t="s">
         <v>1</v>
@@ -3263,7 +3256,7 @@
     </row>
     <row r="120" spans="1:5">
       <c r="A120" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B120" t="s">
         <v>1</v>
@@ -3280,7 +3273,7 @@
     </row>
     <row r="121" spans="1:5">
       <c r="A121" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B121" t="s">
         <v>1</v>
@@ -3297,16 +3290,13 @@
     </row>
     <row r="122" spans="1:5">
       <c r="A122" t="s">
-        <v>93</v>
+        <v>18</v>
       </c>
       <c r="B122" t="s">
-        <v>1</v>
+        <v>123</v>
       </c>
       <c r="C122" t="s">
-        <v>131</v>
-      </c>
-      <c r="D122">
-        <v>3</v>
+        <v>126</v>
       </c>
       <c r="E122" t="s">
         <v>80</v>
@@ -3314,21 +3304,24 @@
     </row>
     <row r="123" spans="1:5">
       <c r="A123" t="s">
-        <v>18</v>
+        <v>87</v>
       </c>
       <c r="B123" t="s">
-        <v>123</v>
+        <v>1</v>
       </c>
       <c r="C123" t="s">
-        <v>126</v>
+        <v>147</v>
+      </c>
+      <c r="D123">
+        <v>1</v>
       </c>
       <c r="E123" t="s">
-        <v>80</v>
+        <v>140</v>
       </c>
     </row>
     <row r="124" spans="1:5">
       <c r="A124" t="s">
-        <v>87</v>
+        <v>172</v>
       </c>
       <c r="B124" t="s">
         <v>1</v>
@@ -3345,7 +3338,7 @@
     </row>
     <row r="125" spans="1:5">
       <c r="A125" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="B125" t="s">
         <v>1</v>
@@ -3362,7 +3355,7 @@
     </row>
     <row r="126" spans="1:5">
       <c r="A126" t="s">
-        <v>166</v>
+        <v>134</v>
       </c>
       <c r="B126" t="s">
         <v>1</v>
@@ -3379,13 +3372,13 @@
     </row>
     <row r="127" spans="1:5">
       <c r="A127" t="s">
-        <v>134</v>
+        <v>99</v>
       </c>
       <c r="B127" t="s">
         <v>1</v>
       </c>
       <c r="C127" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="D127">
         <v>1</v>
@@ -3396,16 +3389,16 @@
     </row>
     <row r="128" spans="1:5">
       <c r="A128" t="s">
-        <v>99</v>
+        <v>7</v>
       </c>
       <c r="B128" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C128" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="D128">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E128" t="s">
         <v>140</v>
@@ -3413,7 +3406,7 @@
     </row>
     <row r="129" spans="1:5">
       <c r="A129" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B129" t="s">
         <v>0</v>
@@ -3430,7 +3423,7 @@
     </row>
     <row r="130" spans="1:5">
       <c r="A130" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="B130" t="s">
         <v>0</v>
@@ -3447,7 +3440,7 @@
     </row>
     <row r="131" spans="1:5">
       <c r="A131" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B131" t="s">
         <v>0</v>
@@ -3464,7 +3457,7 @@
     </row>
     <row r="132" spans="1:5">
       <c r="A132" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="B132" t="s">
         <v>0</v>
@@ -3481,16 +3474,16 @@
     </row>
     <row r="133" spans="1:5">
       <c r="A133" t="s">
-        <v>35</v>
+        <v>278</v>
       </c>
       <c r="B133" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C133" t="s">
-        <v>121</v>
+        <v>136</v>
       </c>
       <c r="D133">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E133" t="s">
         <v>140</v>
@@ -3498,16 +3491,16 @@
     </row>
     <row r="134" spans="1:5">
       <c r="A134" t="s">
-        <v>279</v>
+        <v>167</v>
       </c>
       <c r="B134" t="s">
-        <v>1</v>
+        <v>123</v>
       </c>
       <c r="C134" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="D134">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E134" t="s">
         <v>140</v>
@@ -3515,7 +3508,7 @@
     </row>
     <row r="135" spans="1:5">
       <c r="A135" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B135" t="s">
         <v>123</v>
@@ -3532,7 +3525,7 @@
     </row>
     <row r="136" spans="1:5">
       <c r="A136" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B136" t="s">
         <v>123</v>
@@ -3549,7 +3542,7 @@
     </row>
     <row r="137" spans="1:5">
       <c r="A137" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B137" t="s">
         <v>123</v>
@@ -3566,24 +3559,24 @@
     </row>
     <row r="138" spans="1:5">
       <c r="A138" t="s">
-        <v>170</v>
+        <v>86</v>
       </c>
       <c r="B138" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C138" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="D138">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E138" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
     </row>
     <row r="139" spans="1:5">
       <c r="A139" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B139" t="s">
         <v>124</v>
@@ -3600,7 +3593,7 @@
     </row>
     <row r="140" spans="1:5">
       <c r="A140" t="s">
-        <v>88</v>
+        <v>64</v>
       </c>
       <c r="B140" t="s">
         <v>124</v>
@@ -3617,7 +3610,7 @@
     </row>
     <row r="141" spans="1:5">
       <c r="A141" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B141" t="s">
         <v>124</v>
@@ -3634,7 +3627,7 @@
     </row>
     <row r="142" spans="1:5">
       <c r="A142" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B142" t="s">
         <v>124</v>
@@ -3651,7 +3644,7 @@
     </row>
     <row r="143" spans="1:5">
       <c r="A143" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B143" t="s">
         <v>124</v>
@@ -3668,7 +3661,7 @@
     </row>
     <row r="144" spans="1:5">
       <c r="A144" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B144" t="s">
         <v>124</v>
@@ -3685,7 +3678,7 @@
     </row>
     <row r="145" spans="1:5">
       <c r="A145" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B145" t="s">
         <v>124</v>
@@ -3702,7 +3695,7 @@
     </row>
     <row r="146" spans="1:5">
       <c r="A146" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B146" t="s">
         <v>124</v>
@@ -3719,7 +3712,7 @@
     </row>
     <row r="147" spans="1:5">
       <c r="A147" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B147" t="s">
         <v>124</v>
@@ -3736,7 +3729,7 @@
     </row>
     <row r="148" spans="1:5">
       <c r="A148" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="B148" t="s">
         <v>124</v>
@@ -3753,7 +3746,7 @@
     </row>
     <row r="149" spans="1:5">
       <c r="A149" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="B149" t="s">
         <v>124</v>
@@ -3770,7 +3763,7 @@
     </row>
     <row r="150" spans="1:5">
       <c r="A150" t="s">
-        <v>66</v>
+        <v>95</v>
       </c>
       <c r="B150" t="s">
         <v>124</v>
@@ -3787,7 +3780,7 @@
     </row>
     <row r="151" spans="1:5">
       <c r="A151" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B151" t="s">
         <v>124</v>
@@ -3804,7 +3797,7 @@
     </row>
     <row r="152" spans="1:5">
       <c r="A152" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="B152" t="s">
         <v>124</v>
@@ -3821,16 +3814,16 @@
     </row>
     <row r="153" spans="1:5">
       <c r="A153" t="s">
-        <v>106</v>
+        <v>28</v>
       </c>
       <c r="B153" t="s">
         <v>124</v>
       </c>
       <c r="C153" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="D153">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E153" t="s">
         <v>129</v>
@@ -3838,7 +3831,7 @@
     </row>
     <row r="154" spans="1:5">
       <c r="A154" t="s">
-        <v>28</v>
+        <v>94</v>
       </c>
       <c r="B154" t="s">
         <v>124</v>
@@ -3855,16 +3848,16 @@
     </row>
     <row r="155" spans="1:5">
       <c r="A155" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="B155" t="s">
-        <v>124</v>
+        <v>2</v>
       </c>
       <c r="C155" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="D155">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E155" t="s">
         <v>129</v>
@@ -3872,13 +3865,13 @@
     </row>
     <row r="156" spans="1:5">
       <c r="A156" t="s">
-        <v>82</v>
+        <v>111</v>
       </c>
       <c r="B156" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C156" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="D156">
         <v>3</v>
@@ -3889,13 +3882,13 @@
     </row>
     <row r="157" spans="1:5">
       <c r="A157" t="s">
-        <v>111</v>
+        <v>81</v>
       </c>
       <c r="B157" t="s">
-        <v>0</v>
+        <v>123</v>
       </c>
       <c r="C157" t="s">
-        <v>117</v>
+        <v>141</v>
       </c>
       <c r="D157">
         <v>3</v>
@@ -3906,30 +3899,30 @@
     </row>
     <row r="158" spans="1:5">
       <c r="A158" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B158" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C158" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="D158">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E158" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
     </row>
     <row r="159" spans="1:5">
       <c r="A159" t="s">
-        <v>85</v>
+        <v>51</v>
       </c>
       <c r="B159" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C159" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D159">
         <v>1</v>
@@ -3940,7 +3933,7 @@
     </row>
     <row r="160" spans="1:5">
       <c r="A160" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B160" t="s">
         <v>123</v>
@@ -3957,7 +3950,7 @@
     </row>
     <row r="161" spans="1:5">
       <c r="A161" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B161" t="s">
         <v>123</v>
@@ -3974,7 +3967,7 @@
     </row>
     <row r="162" spans="1:5">
       <c r="A162" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B162" t="s">
         <v>123</v>
@@ -3991,7 +3984,7 @@
     </row>
     <row r="163" spans="1:5">
       <c r="A163" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B163" t="s">
         <v>123</v>
@@ -4008,7 +4001,7 @@
     </row>
     <row r="164" spans="1:5">
       <c r="A164" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B164" t="s">
         <v>123</v>
@@ -4025,7 +4018,7 @@
     </row>
     <row r="165" spans="1:5">
       <c r="A165" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B165" t="s">
         <v>123</v>
@@ -4042,7 +4035,7 @@
     </row>
     <row r="166" spans="1:5">
       <c r="A166" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B166" t="s">
         <v>123</v>
@@ -4059,7 +4052,7 @@
     </row>
     <row r="167" spans="1:5">
       <c r="A167" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B167" t="s">
         <v>123</v>
@@ -4076,7 +4069,7 @@
     </row>
     <row r="168" spans="1:5">
       <c r="A168" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B168" t="s">
         <v>123</v>
@@ -4093,7 +4086,7 @@
     </row>
     <row r="169" spans="1:5">
       <c r="A169" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B169" t="s">
         <v>123</v>
@@ -4110,7 +4103,7 @@
     </row>
     <row r="170" spans="1:5">
       <c r="A170" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B170" t="s">
         <v>123</v>
@@ -4127,7 +4120,7 @@
     </row>
     <row r="171" spans="1:5">
       <c r="A171" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="B171" t="s">
         <v>123</v>
@@ -4144,7 +4137,7 @@
     </row>
     <row r="172" spans="1:5">
       <c r="A172" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B172" t="s">
         <v>123</v>
@@ -4161,7 +4154,7 @@
     </row>
     <row r="173" spans="1:5">
       <c r="A173" t="s">
-        <v>76</v>
+        <v>109</v>
       </c>
       <c r="B173" t="s">
         <v>123</v>
@@ -4178,7 +4171,7 @@
     </row>
     <row r="174" spans="1:5">
       <c r="A174" t="s">
-        <v>109</v>
+        <v>77</v>
       </c>
       <c r="B174" t="s">
         <v>123</v>
@@ -4195,7 +4188,7 @@
     </row>
     <row r="175" spans="1:5">
       <c r="A175" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B175" t="s">
         <v>123</v>
@@ -4212,7 +4205,7 @@
     </row>
     <row r="176" spans="1:5">
       <c r="A176" t="s">
-        <v>78</v>
+        <v>104</v>
       </c>
       <c r="B176" t="s">
         <v>123</v>
@@ -4229,7 +4222,7 @@
     </row>
     <row r="177" spans="1:5">
       <c r="A177" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B177" t="s">
         <v>123</v>
@@ -4246,7 +4239,7 @@
     </row>
     <row r="178" spans="1:5">
       <c r="A178" t="s">
-        <v>105</v>
+        <v>50</v>
       </c>
       <c r="B178" t="s">
         <v>123</v>
@@ -4263,35 +4256,29 @@
     </row>
     <row r="179" spans="1:5">
       <c r="A179" t="s">
-        <v>50</v>
+        <v>281</v>
       </c>
       <c r="B179" t="s">
-        <v>123</v>
+        <v>0</v>
       </c>
       <c r="C179" t="s">
-        <v>146</v>
-      </c>
-      <c r="D179">
-        <v>1</v>
-      </c>
-      <c r="E179" t="s">
-        <v>139</v>
+        <v>120</v>
       </c>
     </row>
     <row r="180" spans="1:5">
       <c r="A180" t="s">
-        <v>283</v>
+        <v>101</v>
       </c>
       <c r="B180" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C180" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
     </row>
     <row r="181" spans="1:5">
       <c r="A181" t="s">
-        <v>101</v>
+        <v>199</v>
       </c>
       <c r="B181" t="s">
         <v>2</v>
@@ -4302,18 +4289,18 @@
     </row>
     <row r="182" spans="1:5">
       <c r="A182" t="s">
-        <v>199</v>
+        <v>138</v>
       </c>
       <c r="B182" t="s">
-        <v>2</v>
+        <v>124</v>
       </c>
       <c r="C182" t="s">
-        <v>127</v>
+        <v>145</v>
       </c>
     </row>
     <row r="183" spans="1:5">
       <c r="A183" t="s">
-        <v>138</v>
+        <v>41</v>
       </c>
       <c r="B183" t="s">
         <v>124</v>
@@ -4324,7 +4311,7 @@
     </row>
     <row r="184" spans="1:5">
       <c r="A184" t="s">
-        <v>41</v>
+        <v>142</v>
       </c>
       <c r="B184" t="s">
         <v>124</v>
@@ -4335,7 +4322,7 @@
     </row>
     <row r="185" spans="1:5">
       <c r="A185" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B185" t="s">
         <v>124</v>
@@ -4346,7 +4333,7 @@
     </row>
     <row r="186" spans="1:5">
       <c r="A186" t="s">
-        <v>143</v>
+        <v>74</v>
       </c>
       <c r="B186" t="s">
         <v>124</v>
@@ -4357,7 +4344,7 @@
     </row>
     <row r="187" spans="1:5">
       <c r="A187" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B187" t="s">
         <v>124</v>
@@ -4368,18 +4355,18 @@
     </row>
     <row r="188" spans="1:5">
       <c r="A188" t="s">
-        <v>75</v>
+        <v>149</v>
       </c>
       <c r="B188" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C188" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
     </row>
     <row r="189" spans="1:5">
       <c r="A189" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B189" t="s">
         <v>123</v>
@@ -4390,7 +4377,7 @@
     </row>
     <row r="190" spans="1:5">
       <c r="A190" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B190" t="s">
         <v>123</v>
@@ -4401,7 +4388,7 @@
     </row>
     <row r="191" spans="1:5">
       <c r="A191" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B191" t="s">
         <v>123</v>
@@ -4412,7 +4399,7 @@
     </row>
     <row r="192" spans="1:5">
       <c r="A192" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B192" t="s">
         <v>123</v>
@@ -4423,18 +4410,18 @@
     </row>
     <row r="193" spans="1:3">
       <c r="A193" t="s">
-        <v>154</v>
+        <v>5</v>
       </c>
       <c r="B193" t="s">
-        <v>123</v>
+        <v>0</v>
       </c>
       <c r="C193" t="s">
-        <v>150</v>
+        <v>120</v>
       </c>
     </row>
     <row r="194" spans="1:3">
       <c r="A194" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B194" t="s">
         <v>0</v>
@@ -4445,7 +4432,7 @@
     </row>
     <row r="195" spans="1:3">
       <c r="A195" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="B195" t="s">
         <v>0</v>
@@ -4456,7 +4443,7 @@
     </row>
     <row r="196" spans="1:3">
       <c r="A196" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B196" t="s">
         <v>0</v>
@@ -4467,40 +4454,40 @@
     </row>
     <row r="197" spans="1:3">
       <c r="A197" t="s">
-        <v>23</v>
+        <v>137</v>
       </c>
       <c r="B197" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C197" t="s">
-        <v>120</v>
+        <v>135</v>
       </c>
     </row>
     <row r="198" spans="1:3">
       <c r="A198" t="s">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="B198" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C198" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
     </row>
     <row r="199" spans="1:3">
       <c r="A199" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B199" t="s">
-        <v>2</v>
+        <v>123</v>
       </c>
       <c r="C199" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="200" spans="1:3">
       <c r="A200" t="s">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="B200" t="s">
         <v>123</v>
@@ -4511,40 +4498,40 @@
     </row>
     <row r="201" spans="1:3">
       <c r="A201" t="s">
-        <v>20</v>
+        <v>201</v>
       </c>
       <c r="B201" t="s">
-        <v>123</v>
+        <v>0</v>
       </c>
       <c r="C201" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
     </row>
     <row r="202" spans="1:3">
       <c r="A202" t="s">
-        <v>201</v>
+        <v>24</v>
       </c>
       <c r="B202" t="s">
         <v>0</v>
       </c>
       <c r="C202" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
     </row>
     <row r="203" spans="1:3">
       <c r="A203" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="B203" t="s">
-        <v>0</v>
+        <v>123</v>
       </c>
       <c r="C203" t="s">
-        <v>120</v>
+        <v>146</v>
       </c>
     </row>
     <row r="204" spans="1:3">
       <c r="A204" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B204" t="s">
         <v>123</v>
@@ -4555,7 +4542,7 @@
     </row>
     <row r="205" spans="1:3">
       <c r="A205" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B205" t="s">
         <v>123</v>
@@ -4566,7 +4553,7 @@
     </row>
     <row r="206" spans="1:3">
       <c r="A206" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B206" t="s">
         <v>123</v>
@@ -4575,9 +4562,9 @@
         <v>146</v>
       </c>
     </row>
-    <row r="207" spans="1:3">
+    <row r="207" spans="1:3" ht="15" customHeight="1">
       <c r="A207" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B207" t="s">
         <v>123</v>
@@ -4586,9 +4573,9 @@
         <v>146</v>
       </c>
     </row>
-    <row r="208" spans="1:3" ht="15" customHeight="1">
+    <row r="208" spans="1:3">
       <c r="A208" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B208" t="s">
         <v>123</v>
@@ -4599,7 +4586,7 @@
     </row>
     <row r="209" spans="1:3">
       <c r="A209" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B209" t="s">
         <v>123</v>
@@ -4610,7 +4597,7 @@
     </row>
     <row r="210" spans="1:3">
       <c r="A210" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B210" t="s">
         <v>123</v>
@@ -4621,7 +4608,7 @@
     </row>
     <row r="211" spans="1:3">
       <c r="A211" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B211" t="s">
         <v>123</v>
@@ -4630,9 +4617,9 @@
         <v>146</v>
       </c>
     </row>
-    <row r="212" spans="1:3">
+    <row r="212" spans="1:3" ht="13.8" customHeight="1">
       <c r="A212" t="s">
-        <v>52</v>
+        <v>102</v>
       </c>
       <c r="B212" t="s">
         <v>123</v>
@@ -4641,9 +4628,9 @@
         <v>146</v>
       </c>
     </row>
-    <row r="213" spans="1:3" ht="13.8" customHeight="1">
+    <row r="213" spans="1:3">
       <c r="A213" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B213" t="s">
         <v>123</v>
@@ -4654,18 +4641,18 @@
     </row>
     <row r="214" spans="1:3">
       <c r="A214" t="s">
-        <v>103</v>
+        <v>9</v>
       </c>
       <c r="B214" t="s">
-        <v>123</v>
+        <v>0</v>
       </c>
       <c r="C214" t="s">
-        <v>146</v>
+        <v>122</v>
       </c>
     </row>
     <row r="215" spans="1:3">
       <c r="A215" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B215" t="s">
         <v>0</v>
@@ -4676,7 +4663,7 @@
     </row>
     <row r="216" spans="1:3">
       <c r="A216" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B216" t="s">
         <v>0</v>
@@ -4687,7 +4674,7 @@
     </row>
     <row r="217" spans="1:3">
       <c r="A217" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B217" t="s">
         <v>0</v>
@@ -4698,7 +4685,7 @@
     </row>
     <row r="218" spans="1:3">
       <c r="A218" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B218" t="s">
         <v>0</v>
@@ -4709,7 +4696,7 @@
     </row>
     <row r="219" spans="1:3">
       <c r="A219" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B219" t="s">
         <v>0</v>
@@ -4720,51 +4707,51 @@
     </row>
     <row r="220" spans="1:3">
       <c r="A220" t="s">
-        <v>14</v>
+        <v>163</v>
       </c>
       <c r="B220" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C220" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="221" spans="1:3">
       <c r="A221" t="s">
-        <v>163</v>
+        <v>29</v>
       </c>
       <c r="B221" t="s">
-        <v>2</v>
+        <v>124</v>
       </c>
       <c r="C221" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
     </row>
     <row r="222" spans="1:3">
       <c r="A222" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="B222" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C222" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="223" spans="1:3">
       <c r="A223" t="s">
-        <v>21</v>
+        <v>188</v>
       </c>
       <c r="B223" t="s">
-        <v>123</v>
+        <v>0</v>
       </c>
       <c r="C223" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
     </row>
     <row r="224" spans="1:3">
       <c r="A224" t="s">
-        <v>188</v>
+        <v>200</v>
       </c>
       <c r="B224" t="s">
         <v>0</v>
@@ -4775,29 +4762,29 @@
     </row>
     <row r="225" spans="1:3">
       <c r="A225" t="s">
-        <v>200</v>
+        <v>110</v>
       </c>
       <c r="B225" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C225" t="s">
-        <v>117</v>
+        <v>135</v>
       </c>
     </row>
     <row r="226" spans="1:3">
       <c r="A226" t="s">
-        <v>110</v>
+        <v>185</v>
       </c>
       <c r="B226" t="s">
-        <v>1</v>
+        <v>182</v>
       </c>
       <c r="C226" t="s">
-        <v>135</v>
+        <v>183</v>
       </c>
     </row>
     <row r="227" spans="1:3">
       <c r="A227" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B227" t="s">
         <v>182</v>
@@ -4808,18 +4795,18 @@
     </row>
     <row r="228" spans="1:3">
       <c r="A228" t="s">
-        <v>184</v>
+        <v>195</v>
       </c>
       <c r="B228" t="s">
-        <v>182</v>
+        <v>0</v>
       </c>
       <c r="C228" t="s">
-        <v>183</v>
+        <v>117</v>
       </c>
     </row>
     <row r="229" spans="1:3">
       <c r="A229" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="B229" t="s">
         <v>0</v>
@@ -4830,7 +4817,7 @@
     </row>
     <row r="230" spans="1:3">
       <c r="A230" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B230" t="s">
         <v>0</v>
@@ -4841,7 +4828,7 @@
     </row>
     <row r="231" spans="1:3">
       <c r="A231" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B231" t="s">
         <v>0</v>
@@ -4852,7 +4839,7 @@
     </row>
     <row r="232" spans="1:3">
       <c r="A232" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="B232" t="s">
         <v>0</v>
@@ -4863,24 +4850,24 @@
     </row>
     <row r="233" spans="1:3">
       <c r="A233" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="B233" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C233" t="s">
-        <v>117</v>
+        <v>147</v>
       </c>
     </row>
     <row r="234" spans="1:3">
       <c r="A234" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="B234" t="s">
-        <v>1</v>
+        <v>186</v>
       </c>
       <c r="C234" t="s">
-        <v>147</v>
+        <v>123</v>
       </c>
     </row>
     <row r="235" spans="1:3">
@@ -4905,21 +4892,10 @@
         <v>123</v>
       </c>
     </row>
-    <row r="237" spans="1:3">
-      <c r="A237" t="s">
-        <v>219</v>
-      </c>
-      <c r="B237" t="s">
-        <v>186</v>
-      </c>
-      <c r="C237" t="s">
-        <v>123</v>
-      </c>
-    </row>
   </sheetData>
-  <sortState ref="A2:E236">
-    <sortCondition ref="E2:E236"/>
-    <sortCondition ref="D2:D236"/>
+  <sortState ref="A2:E106">
+    <sortCondition ref="E2:E106"/>
+    <sortCondition ref="D2:D106"/>
   </sortState>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
